--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\PARETO\simple_treatment_demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A48C7F-498F-4D16-BAA9-B7B29248D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36705419-93C5-4D88-873E-28B93701AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="41" activeTab="41" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -55,46 +55,47 @@
     <sheet name="FlowbackRates" sheetId="75" r:id="rId40"/>
     <sheet name="InitialPipelineCapacity" sheetId="109" r:id="rId41"/>
     <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId42"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId43"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId44"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId45"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId46"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId47"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId48"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId49"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId50"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId51"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId52"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId53"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId54"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId55"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId56"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId57"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId58"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId59"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId60"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId61"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId62"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId63"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId64"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId65"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId66"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId67"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId68"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId69"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId70"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId71"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId72"/>
-    <sheet name="Economics" sheetId="95" r:id="rId73"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId74"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId75"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId76"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId43"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId44"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId45"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId46"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId47"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId48"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId49"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId50"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId51"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId52"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId53"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId54"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId55"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId56"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId57"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId58"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId59"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId60"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId61"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId62"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId63"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId64"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId65"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId66"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId67"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId68"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId69"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId70"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId71"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId72"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId73"/>
+    <sheet name="Economics" sheetId="95" r:id="rId74"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId75"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId76"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId77"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="64">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +103,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -112,8 +111,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="262">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -896,6 +917,9 @@
   </si>
   <si>
     <t>OARO</t>
+  </si>
+  <si>
+    <t>Table of Removal efficiency (%)</t>
   </si>
 </sst>
 </file>
@@ -1999,6 +2023,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2303,15 +2386,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -2323,7 +2406,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -2337,7 +2420,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="16"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2349,7 +2432,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16"/>
       <c r="C5" s="18" t="s">
         <v>1</v>
@@ -2363,7 +2446,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
         <v>2</v>
@@ -2377,7 +2460,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
         <v>3</v>
@@ -2391,7 +2474,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
         <v>4</v>
@@ -2405,7 +2488,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
         <v>5</v>
@@ -2419,7 +2502,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -2433,7 +2516,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="16"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2445,7 +2528,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="16"/>
       <c r="C12" s="18" t="s">
         <v>7</v>
@@ -2459,7 +2542,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
         <v>8</v>
@@ -2473,7 +2556,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="16"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2485,7 +2568,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
         <v>9</v>
@@ -2499,7 +2582,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
         <v>10</v>
@@ -2513,7 +2596,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
         <v>11</v>
@@ -2527,7 +2610,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
         <v>12</v>
@@ -2541,7 +2624,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="16"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2553,7 +2636,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2565,7 +2648,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="16"/>
       <c r="C21" s="20" t="s">
         <v>13</v>
@@ -2581,7 +2664,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="16"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -2593,7 +2676,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2609,7 +2692,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="16"/>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -2625,7 +2708,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="16"/>
       <c r="C25" s="21" t="s">
         <v>19</v>
@@ -2641,7 +2724,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="16"/>
       <c r="C26" s="21" t="s">
         <v>21</v>
@@ -2657,7 +2740,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="16"/>
       <c r="C27" s="21" t="s">
         <v>23</v>
@@ -2673,7 +2756,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="16"/>
       <c r="C28" s="21" t="s">
         <v>25</v>
@@ -2689,7 +2772,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="16"/>
       <c r="C29" s="21" t="s">
         <v>27</v>
@@ -2705,7 +2788,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="16"/>
       <c r="C30" s="21" t="s">
         <v>29</v>
@@ -2721,7 +2804,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="16"/>
       <c r="C31" s="21" t="s">
         <v>31</v>
@@ -2740,7 +2823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="16"/>
       <c r="C32" s="21" t="s">
         <v>34</v>
@@ -2756,7 +2839,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="16"/>
       <c r="C33" s="21" t="s">
         <v>36</v>
@@ -2772,7 +2855,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="16"/>
       <c r="C34" s="21" t="s">
         <v>38</v>
@@ -2788,7 +2871,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="16"/>
       <c r="C35" s="21" t="s">
         <v>40</v>
@@ -2804,7 +2887,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="16"/>
       <c r="C36" s="21" t="s">
         <v>42</v>
@@ -2820,7 +2903,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -2863,30 +2946,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
@@ -2909,7 +2992,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2930,7 +3013,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="81"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2951,7 +3034,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2972,7 +3055,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="81"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2993,7 +3076,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3013,7 +3096,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3049,30 +3132,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3080,17 +3163,17 @@
       <c r="O3" s="74"/>
       <c r="P3" s="74"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>260</v>
       </c>
@@ -3112,28 +3195,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3154,7 +3237,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3174,7 +3257,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3194,7 +3277,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3214,7 +3297,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3234,7 +3317,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3254,7 +3337,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3289,30 +3372,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -3335,7 +3418,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
@@ -3358,7 +3441,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>128</v>
       </c>
@@ -3381,7 +3464,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
@@ -3404,7 +3487,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -3427,7 +3510,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -3450,7 +3533,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
@@ -3473,69 +3556,69 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="81"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="81"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="81"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="81"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="81"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="81"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="81"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="81"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="81"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="81"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="81"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="81"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="81"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="81"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="81"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="81"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="81"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="81"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="81"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="81"/>
     </row>
   </sheetData>
@@ -3556,30 +3639,30 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>136</v>
       </c>
@@ -3602,7 +3685,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>137</v>
       </c>
@@ -3625,7 +3708,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>138</v>
       </c>
@@ -3648,7 +3731,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>139</v>
       </c>
@@ -3671,7 +3754,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3708,30 +3791,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
@@ -3754,7 +3837,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>
@@ -3777,7 +3860,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
@@ -3800,7 +3883,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3821,7 +3904,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="81"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3842,7 +3925,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3879,30 +3962,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
@@ -3925,7 +4008,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -3948,7 +4031,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -3971,7 +4054,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3992,7 +4075,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="81"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4013,7 +4096,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4050,30 +4133,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
@@ -4096,7 +4179,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>153</v>
       </c>
@@ -4119,7 +4202,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -4142,7 +4225,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4163,7 +4246,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="81"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4184,7 +4267,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4219,20 +4302,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="9.28515625" style="83"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.578125" style="1" customWidth="1"/>
+    <col min="2" max="10" width="9.26171875" style="1"/>
+    <col min="11" max="11" width="9.26171875" style="83"/>
+    <col min="12" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
@@ -4265,7 +4348,7 @@
       </c>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -4282,7 +4365,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="85"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -4299,7 +4382,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="85"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -4316,7 +4399,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="85"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -4349,20 +4432,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="9.28515625" style="83"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="9.26171875" style="1"/>
+    <col min="11" max="11" width="9.26171875" style="83"/>
+    <col min="12" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -4395,7 +4478,7 @@
       </c>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -4428,61 +4511,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="39"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="41"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="41"/>
     </row>
   </sheetData>
@@ -4500,18 +4583,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -4519,7 +4602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -4540,20 +4623,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="9.28515625" style="83"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.26171875" style="1" customWidth="1"/>
+    <col min="2" max="10" width="9.26171875" style="1"/>
+    <col min="11" max="11" width="9.26171875" style="83"/>
+    <col min="12" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -4586,7 +4669,7 @@
       </c>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
@@ -4603,7 +4686,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="85"/>
     </row>
-    <row r="4" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
@@ -4624,7 +4707,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="85"/>
     </row>
-    <row r="5" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
@@ -4643,7 +4726,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="85"/>
     </row>
-    <row r="6" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -4662,7 +4745,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="85"/>
     </row>
-    <row r="7" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
@@ -4681,7 +4764,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="85"/>
     </row>
-    <row r="8" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
@@ -4700,7 +4783,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="85"/>
     </row>
-    <row r="9" spans="1:11" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
@@ -4721,7 +4804,7 @@
       </c>
       <c r="K9" s="85"/>
     </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
@@ -4740,7 +4823,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="85"/>
     </row>
-    <row r="11" spans="1:11" s="82" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="82" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
@@ -4757,7 +4840,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="85"/>
     </row>
-    <row r="12" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -4786,18 +4869,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -4805,61 +4888,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="30"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="30"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="30"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="30"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="30"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
     </row>
@@ -4878,19 +4961,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="82"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.26171875" style="82"/>
+    <col min="4" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -4901,7 +4984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
@@ -4910,21 +4993,21 @@
       </c>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="30"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
@@ -4933,42 +5016,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -4989,18 +5072,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -5011,21 +5094,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="30"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
@@ -5034,42 +5117,42 @@
       </c>
       <c r="C5" s="30"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
@@ -5078,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -5099,18 +5182,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -5118,55 +5201,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="100"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="100"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="100"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="100"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="100"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="100"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="100"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="100"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
@@ -5187,18 +5270,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
@@ -5230,7 +5313,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>117</v>
       </c>
@@ -5259,18 +5342,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -5278,7 +5361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
@@ -5286,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
@@ -5310,18 +5393,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -5329,13 +5412,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -5357,18 +5440,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -5376,13 +5459,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -5402,37 +5485,37 @@
   </sheetPr>
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="92.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.26171875" style="1"/>
+    <col min="49" max="49" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -5452,7 +5535,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>49</v>
       </c>
@@ -5482,7 +5565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>56</v>
       </c>
@@ -5506,7 +5589,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>61</v>
       </c>
@@ -5524,7 +5607,7 @@
       <c r="J5" s="56"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>64</v>
       </c>
@@ -5548,7 +5631,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="58"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
@@ -5572,7 +5655,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>73</v>
       </c>
@@ -5611,7 +5694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="28" t="s">
         <v>77</v>
       </c>
@@ -5662,7 +5745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -5685,7 +5768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -5693,7 +5776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -5702,7 +5785,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0366540F-07AE-4F25-B907-A754D6EED801}">
       <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
@@ -5724,6 +5807,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7798E450-1C40-4081-9434-3CDB06544C0F}">
       <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{A24BB091-DB56-43A3-A3BF-F8F5DFC553A8}">
+      <formula1>"removed concentration, removal load"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5739,17 +5825,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
@@ -5757,7 +5843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>117</v>
       </c>
@@ -5779,18 +5865,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -5822,7 +5908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -5836,7 +5922,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -5865,18 +5951,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
@@ -5884,25 +5970,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="30"/>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -5924,18 +6010,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -5943,7 +6029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
@@ -5951,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
@@ -5974,18 +6060,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
@@ -5996,7 +6082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -6007,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -6018,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -6029,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -6055,18 +6141,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -6077,7 +6163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -6103,18 +6189,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -6122,7 +6208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -6145,18 +6231,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -6164,7 +6250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -6183,26 +6269,28 @@
   </sheetPr>
   <dimension ref="A1:BC14"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
+    <sheetView showZeros="0" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="B2:BA2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.28515625" style="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.26171875" style="1"/>
+    <col min="54" max="54" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -6526,48 +6614,48 @@
       <c r="BB3" s="80"/>
       <c r="BC3" s="80"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="49"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6588,22 +6676,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
@@ -6764,7 +6852,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -6977,7 +7065,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -7190,7 +7278,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -7403,7 +7491,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7616,17 +7704,17 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="49"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="49"/>
     </row>
   </sheetData>
@@ -7645,24 +7733,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.26171875" style="1"/>
+    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -7683,7 +7771,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -7704,47 +7792,47 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="81"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="81"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="81"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="81"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="81"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="81"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="81"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="81"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="81"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="82"/>
     </row>
   </sheetData>
@@ -7765,23 +7853,23 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.15625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="15" width="11.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -7942,7 +8030,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -8119,44 +8207,44 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="49"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -8177,15 +8265,15 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
+    <row r="1" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8206,7 +8294,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -8256,7 +8344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -8306,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -8356,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -8406,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -8456,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="75" t="s">
         <v>109</v>
       </c>
@@ -8506,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -8556,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -8606,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -8656,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>128</v>
       </c>
@@ -8706,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>129</v>
       </c>
@@ -8756,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>130</v>
       </c>
@@ -8806,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>131</v>
       </c>
@@ -8856,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>132</v>
       </c>
@@ -8906,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="75" t="s">
         <v>133</v>
       </c>
@@ -8956,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="75" t="s">
         <v>117</v>
       </c>
@@ -9006,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>114</v>
       </c>
@@ -9056,7 +9144,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="75" t="s">
         <v>115</v>
       </c>
@@ -9106,7 +9194,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>119</v>
       </c>
@@ -9156,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -9219,21 +9307,21 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Disposal Capacity [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>234</v>
       </c>
@@ -9241,7 +9329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
@@ -9249,7 +9337,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>112</v>
       </c>
@@ -9264,6 +9352,154 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+    <col min="2" max="2" width="23.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -9272,19 +9508,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
@@ -9292,7 +9528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>117</v>
       </c>
@@ -9306,7 +9542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -9315,19 +9551,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Treatment Capacity [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -9347,7 +9583,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -9367,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -9393,7 +9629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -9401,19 +9637,19 @@
   <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>114</v>
@@ -9434,7 +9670,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -9595,7 +9831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
@@ -9808,7 +10044,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
@@ -10021,78 +10257,78 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -10104,7 +10340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10113,20 +10349,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -10134,7 +10370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -10148,7 +10384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10157,19 +10393,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -10177,7 +10413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -10191,7 +10427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10200,20 +10436,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
-        <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -10221,623 +10457,63 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="36"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="36"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="36"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="36"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="84"/>
       <c r="B12" s="94"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:BA15"/>
-  <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
-        <v>Operating Capacity of Disposal Site [%]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA2" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1</v>
-      </c>
-      <c r="O3" s="8">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>1</v>
-      </c>
-      <c r="R3" s="8">
-        <v>1</v>
-      </c>
-      <c r="S3" s="8">
-        <v>1</v>
-      </c>
-      <c r="T3" s="8">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8">
-        <v>1</v>
-      </c>
-      <c r="V3" s="8">
-        <v>1</v>
-      </c>
-      <c r="W3" s="8">
-        <v>1</v>
-      </c>
-      <c r="X3" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9">
-        <v>1</v>
-      </c>
-      <c r="U4" s="9">
-        <v>1</v>
-      </c>
-      <c r="V4" s="9">
-        <v>1</v>
-      </c>
-      <c r="W4" s="9">
-        <v>1</v>
-      </c>
-      <c r="X4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10853,24 +10529,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.26171875" style="1"/>
+    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
@@ -10891,7 +10567,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -10912,7 +10588,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -10933,7 +10609,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -10954,7 +10630,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
@@ -10975,47 +10651,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
@@ -11028,6 +10704,566 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:BA15"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26171875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
+        <v>Operating Capacity of Disposal Site [%]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA2" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11036,19 +11272,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.83984375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Disposal Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>234</v>
       </c>
@@ -11056,7 +11292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
@@ -11064,7 +11300,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>112</v>
       </c>
@@ -11079,7 +11315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11090,20 +11326,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Treatment Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -11114,7 +11350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -11125,7 +11361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -11136,7 +11372,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>119</v>
       </c>
@@ -11147,7 +11383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>120</v>
       </c>
@@ -11158,7 +11394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -11169,7 +11405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -11180,7 +11416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
@@ -11191,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
@@ -11202,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>119</v>
       </c>
@@ -11213,7 +11449,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="28" t="s">
         <v>120</v>
       </c>
@@ -11230,7 +11466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11239,19 +11475,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Reuse Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -11259,7 +11495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -11273,7 +11509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11282,20 +11518,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="6" width="10.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -11345,7 +11581,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -11395,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -11445,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -11495,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -11545,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="75" t="s">
         <v>109</v>
       </c>
@@ -11595,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -11645,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -11695,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -11745,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>128</v>
       </c>
@@ -11795,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>129</v>
       </c>
@@ -11845,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>130</v>
       </c>
@@ -11895,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>131</v>
       </c>
@@ -11945,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>132</v>
       </c>
@@ -11995,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="75" t="s">
         <v>133</v>
       </c>
@@ -12045,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="75" t="s">
         <v>117</v>
       </c>
@@ -12095,7 +12331,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>114</v>
       </c>
@@ -12145,7 +12381,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="75" t="s">
         <v>115</v>
       </c>
@@ -12195,7 +12431,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>119</v>
       </c>
@@ -12245,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -12302,7 +12538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12311,19 +12547,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -12331,7 +12567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
@@ -12339,7 +12575,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
@@ -12353,7 +12589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12362,18 +12598,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -12381,7 +12617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -12389,7 +12625,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -12397,7 +12633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -12405,7 +12641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -12413,7 +12649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="105" t="s">
         <v>109</v>
       </c>
@@ -12421,7 +12657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>114</v>
       </c>
@@ -12429,7 +12665,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="28" t="s">
         <v>115</v>
       </c>
@@ -12444,7 +12680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12453,17 +12689,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -12474,7 +12710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -12485,7 +12721,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -12496,7 +12732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -12507,7 +12743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -12518,7 +12754,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
         <v>109</v>
       </c>
@@ -12535,7 +12771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12544,19 +12780,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
-        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>234</v>
       </c>
@@ -12573,7 +12809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
@@ -12590,7 +12826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>112</v>
       </c>
@@ -12607,39 +12843,39 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
@@ -12650,7 +12886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12661,19 +12897,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>238</v>
       </c>
@@ -12681,7 +12917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>151</v>
       </c>
@@ -12689,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>152</v>
       </c>
@@ -12697,7 +12933,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>153</v>
       </c>
@@ -12705,110 +12941,13 @@
         <v>14286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="120">
         <v>50000</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="37">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="107">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12825,30 +12964,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -12869,7 +13008,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -12890,7 +13029,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -12911,7 +13050,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -12931,7 +13070,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -12951,7 +13090,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -12971,7 +13110,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -12999,6 +13138,103 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="37">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="107">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13009,19 +13245,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.26171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Storage Capacity Expansion Increments [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>239</v>
       </c>
@@ -13029,7 +13265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>141</v>
       </c>
@@ -13037,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>142</v>
       </c>
@@ -13045,7 +13281,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>143</v>
       </c>
@@ -13053,7 +13289,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28" t="s">
         <v>144</v>
       </c>
@@ -13067,7 +13303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13075,23 +13311,23 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.26171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
-        <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -13111,7 +13347,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -13131,7 +13367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -13151,7 +13387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>119</v>
       </c>
@@ -13171,7 +13407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>120</v>
       </c>
@@ -13191,7 +13427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -13211,7 +13447,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -13231,7 +13467,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
@@ -13251,7 +13487,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
@@ -13271,7 +13507,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>119</v>
       </c>
@@ -13291,7 +13527,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="28" t="s">
         <v>120</v>
       </c>
@@ -13317,7 +13553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13325,24 +13561,24 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
@@ -13359,7 +13595,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>121</v>
       </c>
@@ -13376,7 +13612,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>122</v>
       </c>
@@ -13393,7 +13629,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>258</v>
       </c>
@@ -13410,7 +13646,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>259</v>
       </c>
@@ -13427,7 +13663,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
         <v>260</v>
       </c>
@@ -13444,10 +13680,10 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="79"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="79"/>
     </row>
   </sheetData>
@@ -13456,7 +13692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13467,19 +13703,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
-        <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -13487,7 +13723,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>244</v>
       </c>
@@ -13500,7 +13736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13513,18 +13749,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Distances [mile]</v>
+    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -13574,7 +13810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>89</v>
       </c>
@@ -13622,7 +13858,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -13670,7 +13906,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -13718,7 +13954,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -13766,7 +14002,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="105" t="s">
         <v>109</v>
       </c>
@@ -13811,7 +14047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>125</v>
       </c>
@@ -13855,7 +14091,7 @@
       <c r="O8" s="102"/>
       <c r="P8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -13899,7 +14135,7 @@
       <c r="O9" s="102"/>
       <c r="P9" s="30"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>127</v>
       </c>
@@ -13943,7 +14179,7 @@
       <c r="O10" s="102"/>
       <c r="P10" s="30"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>128</v>
       </c>
@@ -13987,7 +14223,7 @@
       <c r="O11" s="102"/>
       <c r="P11" s="30"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>129</v>
       </c>
@@ -14031,7 +14267,7 @@
       <c r="O12" s="102"/>
       <c r="P12" s="30"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>130</v>
       </c>
@@ -14075,7 +14311,7 @@
       <c r="O13" s="102"/>
       <c r="P13" s="30"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>131</v>
       </c>
@@ -14119,7 +14355,7 @@
       <c r="O14" s="102"/>
       <c r="P14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>132</v>
       </c>
@@ -14161,7 +14397,7 @@
       <c r="O15" s="102"/>
       <c r="P15" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>133</v>
       </c>
@@ -14207,7 +14443,7 @@
       <c r="O16" s="102"/>
       <c r="P16" s="30"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="105" t="s">
         <v>117</v>
       </c>
@@ -14229,7 +14465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>114</v>
       </c>
@@ -14277,7 +14513,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="75" t="s">
         <v>115</v>
       </c>
@@ -14325,7 +14561,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>119</v>
       </c>
@@ -14367,7 +14603,7 @@
       </c>
       <c r="P20" s="30"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -14414,7 +14650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14423,18 +14659,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
-        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
@@ -14457,7 +14693,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>132</v>
       </c>
@@ -14480,7 +14716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -14509,7 +14745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14520,19 +14756,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.15625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>237</v>
       </c>
@@ -14540,7 +14776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>135</v>
       </c>
@@ -14548,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>136</v>
       </c>
@@ -14556,7 +14792,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>137</v>
       </c>
@@ -14564,7 +14800,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>138</v>
       </c>
@@ -14572,7 +14808,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
         <v>139</v>
       </c>
@@ -14586,7 +14822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14597,19 +14833,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Diameters [inch]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>237</v>
       </c>
@@ -14617,7 +14853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>135</v>
       </c>
@@ -14625,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>136</v>
       </c>
@@ -14633,7 +14869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>137</v>
       </c>
@@ -14641,7 +14877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>138</v>
       </c>
@@ -14649,7 +14885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
         <v>139</v>
       </c>
@@ -14663,27 +14899,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26171875" customWidth="1"/>
+    <col min="2" max="2" width="23.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -14694,7 +14932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -14705,7 +14943,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -14716,7 +14954,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>119</v>
       </c>
@@ -14727,7 +14965,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>120</v>
       </c>
@@ -14738,7 +14976,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -14749,7 +14987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -14760,7 +14998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
@@ -14771,7 +15009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
@@ -14782,7 +15020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>119</v>
       </c>
@@ -14793,7 +15031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="28" t="s">
         <v>120</v>
       </c>
@@ -14802,78 +15040,6 @@
       </c>
       <c r="C12" s="34">
         <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="38">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14890,23 +15056,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.26171875" style="1"/>
+    <col min="15" max="15" width="12.15625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -14927,7 +15093,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -14948,7 +15114,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -14967,7 +15133,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="81"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -14986,7 +15152,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="81"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -15013,6 +15179,78 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15021,17 +15259,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -15039,7 +15277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>119</v>
       </c>
@@ -15047,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -15060,7 +15298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15069,17 +15307,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -15087,7 +15325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -15100,7 +15338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15111,17 +15349,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -15129,7 +15367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>247</v>
       </c>
@@ -15137,7 +15375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>248</v>
       </c>
@@ -15150,7 +15388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15161,17 +15399,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -15179,7 +15417,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>250</v>
       </c>
@@ -15187,7 +15425,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
         <v>251</v>
       </c>
@@ -15200,33 +15438,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" customWidth="1"/>
+    <col min="5" max="5" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>252</v>
       </c>
@@ -15234,7 +15474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
         <v>89</v>
       </c>
@@ -15242,7 +15482,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
@@ -15250,7 +15490,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
@@ -15258,7 +15498,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="75" t="s">
         <v>92</v>
       </c>
@@ -15266,7 +15506,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28" t="s">
         <v>109</v>
       </c>
@@ -15280,7 +15520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15289,18 +15529,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>252</v>
       </c>
@@ -15308,7 +15548,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="118" t="s">
         <v>117</v>
       </c>
@@ -15322,7 +15562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15330,22 +15570,22 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>158</v>
       </c>
@@ -15353,7 +15593,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
         <v>109</v>
       </c>
@@ -15377,30 +15617,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -15423,7 +15663,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -15444,7 +15684,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -15465,7 +15705,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -15486,7 +15726,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -15507,7 +15747,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -15528,7 +15768,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -15565,30 +15805,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -15609,7 +15849,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -15630,7 +15870,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15650,7 +15890,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -15670,7 +15910,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -15690,7 +15930,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -15710,7 +15950,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9181128-2E03-45D9-8F09-134D3F789B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901885D-75D1-45A6-91D5-43A1BDFDC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,12 +103,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2290,15 +2287,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.20703125" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2310,7 +2307,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -2324,7 +2321,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2336,7 +2333,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2350,7 +2347,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>2</v>
@@ -2364,7 +2361,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>3</v>
@@ -2378,7 +2375,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
@@ -2392,7 +2389,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2406,7 +2403,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -2420,7 +2417,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2432,7 +2429,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -2446,7 +2443,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -2460,7 +2457,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2472,7 +2469,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>9</v>
@@ -2486,7 +2483,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>10</v>
@@ -2500,7 +2497,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>11</v>
@@ -2514,7 +2511,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>12</v>
@@ -2528,7 +2525,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2540,7 +2537,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2552,7 +2549,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -2568,7 +2565,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2580,7 +2577,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>15</v>
@@ -2596,7 +2593,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>17</v>
@@ -2612,7 +2609,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
@@ -2628,7 +2625,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2644,7 +2641,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -2660,7 +2657,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>25</v>
@@ -2676,7 +2673,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>27</v>
@@ -2692,7 +2689,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>29</v>
@@ -2708,7 +2705,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>31</v>
@@ -2727,7 +2724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>34</v>
@@ -2743,7 +2740,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>36</v>
@@ -2759,7 +2756,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2775,7 +2772,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -2791,7 +2788,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>42</v>
@@ -2807,7 +2804,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2850,30 +2847,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -2881,16 +2878,16 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -2909,30 +2906,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -2940,17 +2937,17 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>260</v>
       </c>
@@ -2972,28 +2969,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3014,30 +3011,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -3045,99 +3042,99 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3158,45 +3155,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3218,30 +3215,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -3249,20 +3246,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3282,30 +3279,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -3313,20 +3310,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3346,30 +3343,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -3377,20 +3374,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3408,18 +3405,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -3452,7 +3449,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -3468,7 +3465,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -3484,7 +3481,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3500,7 +3497,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -3532,18 +3529,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3576,7 +3573,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3609,61 +3606,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.20703125" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -3681,18 +3678,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="17.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3700,7 +3697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3721,18 +3718,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3765,7 +3762,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -3781,7 +3778,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -3801,7 +3798,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -3837,7 +3834,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -3874,7 +3871,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -3895,7 +3892,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -3914,7 +3911,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -3931,7 +3928,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3960,18 +3957,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3979,61 +3976,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
     </row>
@@ -4052,18 +4049,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4083,21 +4080,21 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -4106,42 +4103,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4162,18 +4159,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4184,21 +4181,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -4207,42 +4204,42 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4272,18 +4269,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4291,55 +4288,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="90"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="90"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="90"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="90"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="90"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="90"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="90"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="90"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4360,18 +4357,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="13.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4432,18 +4429,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -4483,18 +4480,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4502,13 +4499,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4530,18 +4527,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4549,13 +4546,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4579,33 +4576,33 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.21875" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="92.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.20703125" style="1"/>
+    <col min="49" max="49" width="13.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -4625,7 +4622,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="64"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
@@ -4655,7 +4652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -4679,7 +4676,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
@@ -4697,7 +4694,7 @@
       <c r="J5" s="53"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
@@ -4721,7 +4718,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>68</v>
       </c>
@@ -4745,7 +4742,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
@@ -4784,7 +4781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -4915,17 +4912,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4955,18 +4952,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4998,7 +4995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5012,7 +5009,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -5041,18 +5038,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5060,25 +5057,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5100,18 +5097,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -5119,7 +5116,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -5127,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -5150,18 +5147,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5172,7 +5169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5231,18 +5228,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="18.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5279,18 +5276,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5321,18 +5318,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5363,24 +5360,24 @@
       <selection activeCell="BA2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.21875" style="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.20703125" style="1"/>
+    <col min="54" max="54" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5704,10 +5701,10 @@
       <c r="BB3" s="76"/>
       <c r="BC3" s="76"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="46"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -5726,22 +5723,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.68359375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -6328,7 +6325,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -6754,14 +6751,14 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="45"/>
       <c r="C7" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="46"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="46"/>
     </row>
   </sheetData>
@@ -6780,72 +6777,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.21875" style="1"/>
-    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="2" width="9.20703125" style="1"/>
+    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.20703125" style="1"/>
+    <col min="13" max="13" width="11.20703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
     </row>
   </sheetData>
@@ -6866,23 +6863,23 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.21875" style="1"/>
-    <col min="14" max="15" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="17.1015625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="15" width="11.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -7043,7 +7040,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -7220,10 +7217,10 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
     </row>
@@ -7243,18 +7240,18 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -7304,7 +7301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -7354,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -7454,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -7504,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -7554,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -7604,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -7704,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -7754,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -7804,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -7854,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -7904,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -7954,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -8004,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -8054,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -8204,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -8269,19 +8266,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="12.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -8289,7 +8286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -8297,7 +8294,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -8320,19 +8317,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="14.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -8340,7 +8337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -8363,19 +8360,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -8395,7 +8392,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -8415,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -8452,13 +8449,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -8482,7 +8479,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -8643,7 +8640,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -8856,7 +8853,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -9069,7 +9066,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -9088,20 +9085,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9109,7 +9106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9132,19 +9129,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="17.5234375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9152,7 +9149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9175,20 +9172,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -9196,61 +9193,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="84"/>
     </row>
@@ -9269,21 +9266,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9444,7 +9441,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9605,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9766,10 +9763,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1" t="s">
         <v>254</v>
       </c>
@@ -9789,40 +9786,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.21875" style="1"/>
-    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="2" width="9.20703125" style="1"/>
+    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.20703125" style="1"/>
+    <col min="13" max="13" width="11.20703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -9830,52 +9827,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -9896,19 +9893,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="11.89453125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9916,7 +9913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9924,7 +9921,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9950,20 +9947,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -9974,7 +9971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -9985,7 +9982,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -10007,7 +10004,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -10018,7 +10015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -10029,7 +10026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -10040,7 +10037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -10051,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -10073,7 +10070,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -10099,19 +10096,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="17.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -10142,20 +10139,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="6" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -10205,7 +10202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -10255,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -10305,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -10355,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -10405,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -10455,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -10505,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -10555,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -10605,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -10655,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -10705,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -10755,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -10855,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -10955,7 +10952,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -11005,7 +11002,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -11055,7 +11052,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -11105,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -11171,19 +11168,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -11199,7 +11196,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -11222,18 +11219,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -11241,7 +11238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11265,7 +11262,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -11281,7 +11278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>114</v>
       </c>
@@ -11289,7 +11286,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
@@ -11313,17 +11310,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>233</v>
       </c>
@@ -11334,7 +11331,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11345,7 +11342,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11356,7 +11353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11367,7 +11364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11378,7 +11375,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -11404,19 +11401,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="12.68359375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -11433,7 +11430,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -11450,7 +11447,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -11485,19 +11482,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -11505,7 +11502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>151</v>
       </c>
@@ -11513,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>152</v>
       </c>
@@ -11521,7 +11518,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>153</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>14286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
@@ -11552,19 +11549,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="13.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -11581,7 +11578,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -11613,36 +11610,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -11663,19 +11660,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="18.20703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>239</v>
       </c>
@@ -11683,7 +11680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -11691,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -11699,7 +11696,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
@@ -11707,7 +11704,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -11732,20 +11729,20 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="16.20703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -11765,7 +11762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -11785,7 +11782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -11805,7 +11802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -11845,7 +11842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -11885,7 +11882,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -11905,7 +11902,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -11925,7 +11922,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -11945,7 +11942,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -11982,21 +11979,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="21.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.20703125" style="1"/>
+    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -12013,7 +12010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -12030,7 +12027,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>122</v>
       </c>
@@ -12047,7 +12044,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>258</v>
       </c>
@@ -12064,7 +12061,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>259</v>
       </c>
@@ -12081,7 +12078,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -12098,10 +12095,10 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="75"/>
     </row>
   </sheetData>
@@ -12121,19 +12118,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -12141,7 +12138,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>244</v>
       </c>
@@ -12167,9 +12164,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -12178,7 +12175,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -12228,7 +12225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -12276,7 +12273,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -12324,7 +12321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -12372,7 +12369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -12420,7 +12417,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -12465,7 +12462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -12509,7 +12506,7 @@
       <c r="O8" s="92"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -12553,7 +12550,7 @@
       <c r="O9" s="92"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -12597,7 +12594,7 @@
       <c r="O10" s="92"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -12641,7 +12638,7 @@
       <c r="O11" s="92"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -12685,7 +12682,7 @@
       <c r="O12" s="92"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -12729,7 +12726,7 @@
       <c r="O13" s="92"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -12773,7 +12770,7 @@
       <c r="O14" s="92"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -12815,7 +12812,7 @@
       <c r="O15" s="92"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
@@ -12861,7 +12858,7 @@
       <c r="O16" s="92"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="95" t="s">
         <v>117</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -12931,7 +12928,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -12979,7 +12976,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -13021,7 +13018,7 @@
       </c>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -13077,9 +13074,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -13088,7 +13085,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -13111,7 +13108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
@@ -13134,7 +13131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
@@ -13174,19 +13171,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13194,7 +13191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13202,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13210,7 +13207,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13218,7 +13215,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13226,7 +13223,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13251,19 +13248,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="2" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13271,7 +13268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13279,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13287,7 +13284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13295,7 +13292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13303,7 +13300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13326,18 +13323,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.20703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13348,7 +13345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13359,7 +13356,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13370,7 +13367,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13381,7 +13378,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13392,7 +13389,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13403,7 +13400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13414,7 +13411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13425,7 +13422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13436,7 +13433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13471,21 +13468,21 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+    <col min="2" max="2" width="23.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13496,7 +13493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13504,10 +13501,10 @@
         <v>121</v>
       </c>
       <c r="C3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13515,10 +13512,10 @@
         <v>121</v>
       </c>
       <c r="C4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13526,10 +13523,10 @@
         <v>122</v>
       </c>
       <c r="C5" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13537,10 +13534,10 @@
         <v>122</v>
       </c>
       <c r="C6" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13548,10 +13545,10 @@
         <v>258</v>
       </c>
       <c r="C7" s="32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13559,10 +13556,10 @@
         <v>258</v>
       </c>
       <c r="C8" s="32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13570,10 +13567,10 @@
         <v>259</v>
       </c>
       <c r="C9" s="32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13581,10 +13578,10 @@
         <v>259</v>
       </c>
       <c r="C10" s="32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13592,10 +13589,10 @@
         <v>260</v>
       </c>
       <c r="C11" s="32">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13603,7 +13600,7 @@
         <v>260</v>
       </c>
       <c r="C12" s="112">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>
@@ -13620,39 +13617,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.21875" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.20703125" style="1"/>
+    <col min="15" max="15" width="12.1015625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5234375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
     </row>
   </sheetData>
@@ -13671,17 +13668,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -13689,7 +13686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="89" t="s">
         <v>121</v>
       </c>
@@ -13697,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="89" t="s">
         <v>122</v>
       </c>
@@ -13705,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="89" t="s">
         <v>258</v>
       </c>
@@ -13713,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="89" t="s">
         <v>259</v>
       </c>
@@ -13721,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -13743,17 +13740,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13761,7 +13758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13769,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -13791,17 +13788,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -13809,7 +13806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -13833,17 +13830,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13851,7 +13848,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>247</v>
       </c>
@@ -13859,7 +13856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>248</v>
       </c>
@@ -13883,17 +13880,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13901,7 +13898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
@@ -13909,7 +13906,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>251</v>
       </c>
@@ -13933,25 +13930,25 @@
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" customWidth="1"/>
+    <col min="5" max="5" width="17.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -13959,7 +13956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="48" t="s">
         <v>89</v>
       </c>
@@ -13967,7 +13964,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -13975,7 +13972,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -13983,7 +13980,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -13991,7 +13988,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -14014,18 +14011,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -14033,7 +14030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="108" t="s">
         <v>117</v>
       </c>
@@ -14056,19 +14053,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="2" max="2" width="12.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -14076,7 +14073,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -14100,30 +14097,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -14147,36 +14144,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.21875" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.21875" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="13" width="9.20703125" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10"/>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901885D-75D1-45A6-91D5-43A1BDFDC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A5C4B-9369-4EBD-8ED1-06D9FED00F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -13468,7 +13468,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13501,7 +13501,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13512,7 +13512,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13523,7 +13523,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13534,7 +13534,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13545,7 +13545,7 @@
         <v>258</v>
       </c>
       <c r="C7" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13556,7 +13556,7 @@
         <v>258</v>
       </c>
       <c r="C8" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13567,7 +13567,7 @@
         <v>259</v>
       </c>
       <c r="C9" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13578,7 +13578,7 @@
         <v>259</v>
       </c>
       <c r="C10" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13589,7 +13589,7 @@
         <v>260</v>
       </c>
       <c r="C11" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -13600,7 +13600,7 @@
         <v>260</v>
       </c>
       <c r="C12" s="112">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A5C4B-9369-4EBD-8ED1-06D9FED00F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F556D-5486-436F-9375-6A40BADC4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <t>OARO</t>
   </si>
   <si>
-    <t>Table of Removal efficiency (%)</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -13468,7 +13468,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901885D-75D1-45A6-91D5-43A1BDFDC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F556D-5486-436F-9375-6A40BADC4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <t>OARO</t>
   </si>
   <si>
-    <t>Table of Removal efficiency (%)</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -13468,7 +13468,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13501,7 +13501,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13512,7 +13512,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13523,7 +13523,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13534,7 +13534,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13545,7 +13545,7 @@
         <v>258</v>
       </c>
       <c r="C7" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13556,7 +13556,7 @@
         <v>258</v>
       </c>
       <c r="C8" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13567,7 +13567,7 @@
         <v>259</v>
       </c>
       <c r="C9" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13578,7 +13578,7 @@
         <v>259</v>
       </c>
       <c r="C10" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -13589,7 +13589,7 @@
         <v>260</v>
       </c>
       <c r="C11" s="32">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -13600,7 +13600,7 @@
         <v>260</v>
       </c>
       <c r="C12" s="112">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pareto\source_code\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA87C43E-DD5E-4A71-BA6C-4215E1F2CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A83707-9A27-45A6-92DF-AC099A02156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="3480" windowWidth="28800" windowHeight="15195" tabRatio="834" firstSheet="27" activeTab="43" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="2820" yWindow="1935" windowWidth="28800" windowHeight="15195" tabRatio="834" firstSheet="23" activeTab="37" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="271">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -2223,20 +2223,8 @@
       <sheetData sheetId="36"/>
       <sheetData sheetId="37"/>
       <sheetData sheetId="38"/>
-      <sheetData sheetId="39">
-        <row r="3">
-          <cell r="B3">
-            <v>5000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="3">
-          <cell r="N3">
-            <v>32000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
       <sheetData sheetId="41"/>
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
@@ -5680,10 +5668,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5713,249 +5701,173 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="115">
+        <v>650</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="115">
+        <v>550</v>
+      </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="115">
+        <v>450</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="115">
+        <v>650</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="115">
+        <v>600</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="115">
+        <v>650</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="115">
+        <v>650</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="115">
+        <v>350</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="115">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="115">
+        <v>250</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="115">
+        <v>600</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="115">
+        <v>600</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="115">
+        <v>600</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
+      <c r="A18" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="115">
+        <v>600</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="115">
+        <v>550</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="115"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
+      <c r="A23" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="115">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6419,7 +6331,9 @@
   </sheetPr>
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BA2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7474,7 +7388,7 @@
   <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7853,7 +7767,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BA2"/>
+      <selection activeCell="B3" sqref="B3:BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7887,340 +7801,1234 @@
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="25"/>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="BC2" s="1"/>
     </row>
     <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="35"/>
+      <c r="A3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="34">
+        <f>PadRates!B3*WellPressure!$Q$1</f>
+        <v>50</v>
+      </c>
+      <c r="C3" s="34">
+        <f>PadRates!C3*WellPressure!$Q$1</f>
+        <v>43.226861565393257</v>
+      </c>
+      <c r="D3" s="34">
+        <f>PadRates!D3*WellPressure!$Q$1</f>
+        <v>39.698540540280661</v>
+      </c>
+      <c r="E3" s="34">
+        <f>PadRates!E3*WellPressure!$Q$1</f>
+        <v>37.371231215873465</v>
+      </c>
+      <c r="F3" s="34">
+        <f>PadRates!F3*WellPressure!$Q$1</f>
+        <v>35.660407645411759</v>
+      </c>
+      <c r="G3" s="34">
+        <f>PadRates!G3*WellPressure!$Q$1</f>
+        <v>34.320866325657292</v>
+      </c>
+      <c r="H3" s="34">
+        <f>PadRates!H3*WellPressure!$Q$1</f>
+        <v>33.227633834431956</v>
+      </c>
+      <c r="I3" s="34">
+        <f>PadRates!I3*WellPressure!$Q$1</f>
+        <v>32.308820765937305</v>
+      </c>
+      <c r="J3" s="34">
+        <f>PadRates!J3*WellPressure!$Q$1</f>
+        <v>31.519482420566142</v>
+      </c>
+      <c r="K3" s="34">
+        <f>PadRates!K3*WellPressure!$Q$1</f>
+        <v>30.829750093074107</v>
+      </c>
+      <c r="L3" s="34">
+        <f>PadRates!L3*WellPressure!$Q$1</f>
+        <v>30.218822690895305</v>
+      </c>
+      <c r="M3" s="34">
+        <f>PadRates!M3*WellPressure!$Q$1</f>
+        <v>29.6716667492711</v>
+      </c>
+      <c r="N3" s="34">
+        <f>PadRates!N3*WellPressure!$Q$1</f>
+        <v>29.177084983850378</v>
+      </c>
+      <c r="O3" s="34">
+        <f>PadRates!O3*WellPressure!$Q$1</f>
+        <v>28.726526558131351</v>
+      </c>
+      <c r="P3" s="34">
+        <f>PadRates!P3*WellPressure!$Q$1</f>
+        <v>28.313322771886266</v>
+      </c>
+      <c r="Q3" s="34">
+        <f>PadRates!Q3*WellPressure!$Q$1</f>
+        <v>27.932178451805498</v>
+      </c>
+      <c r="R3" s="34">
+        <f>PadRates!R3*WellPressure!$Q$1</f>
+        <v>27.578823208879022</v>
+      </c>
+      <c r="S3" s="34">
+        <f>PadRates!S3*WellPressure!$Q$1</f>
+        <v>27.249766064133187</v>
+      </c>
+      <c r="T3" s="34">
+        <f>PadRates!T3*WellPressure!$Q$1</f>
+        <v>26.942118882559804</v>
+      </c>
+      <c r="U3" s="34">
+        <f>PadRates!U3*WellPressure!$Q$1</f>
+        <v>26.653466787379696</v>
+      </c>
+      <c r="V3" s="34">
+        <f>PadRates!V3*WellPressure!$Q$1</f>
+        <v>26.381771376675967</v>
+      </c>
+      <c r="W3" s="34">
+        <f>PadRates!W3*WellPressure!$Q$1</f>
+        <v>26.125297302569919</v>
+      </c>
+      <c r="X3" s="34">
+        <f>PadRates!X3*WellPressure!$Q$1</f>
+        <v>25.882555787844932</v>
+      </c>
+      <c r="Y3" s="34">
+        <f>PadRates!Y3*WellPressure!$Q$1</f>
+        <v>25.652260619704474</v>
+      </c>
+      <c r="Z3" s="34">
+        <f>PadRates!Z3*WellPressure!$Q$1</f>
+        <v>25.433293468738825</v>
+      </c>
+      <c r="AA3" s="34">
+        <f>PadRates!AA3*WellPressure!$Q$1</f>
+        <v>25.224676269572292</v>
+      </c>
+      <c r="AB3" s="34">
+        <f>PadRates!AB3*WellPressure!$Q$1</f>
+        <v>25.025549013630176</v>
+      </c>
+      <c r="AC3" s="34">
+        <f>PadRates!AC3*WellPressure!$Q$1</f>
+        <v>24.83515173565873</v>
+      </c>
+      <c r="AD3" s="34">
+        <f>PadRates!AD3*WellPressure!$Q$1</f>
+        <v>24.652809782959771</v>
+      </c>
+      <c r="AE3" s="34">
+        <f>PadRates!AE3*WellPressure!$Q$1</f>
+        <v>24.477921678332478</v>
+      </c>
+      <c r="AF3" s="34">
+        <f>PadRates!AF3*WellPressure!$Q$1</f>
+        <v>24.309949050140045</v>
+      </c>
+      <c r="AG3" s="34">
+        <f>PadRates!AG3*WellPressure!$Q$1</f>
+        <v>24.148408223121137</v>
+      </c>
+      <c r="AH3" s="34">
+        <f>PadRates!AH3*WellPressure!$Q$1</f>
+        <v>23.99286315348121</v>
+      </c>
+      <c r="AI3" s="34">
+        <f>PadRates!AI3*WellPressure!$Q$1</f>
+        <v>23.842919459733363</v>
+      </c>
+      <c r="AJ3" s="34">
+        <f>PadRates!AJ3*WellPressure!$Q$1</f>
+        <v>23.69821935256639</v>
+      </c>
+      <c r="AK3" s="34">
+        <f>PadRates!AK3*WellPressure!$Q$1</f>
+        <v>23.55843730687273</v>
+      </c>
+      <c r="AL3" s="34">
+        <f>PadRates!AL3*WellPressure!$Q$1</f>
+        <v>23.423276349980757</v>
+      </c>
+      <c r="AM3" s="34">
+        <f>PadRates!AM3*WellPressure!$Q$1</f>
+        <v>23.292464864295606</v>
+      </c>
+      <c r="AN3" s="34">
+        <f>PadRates!AN3*WellPressure!$Q$1</f>
+        <v>23.165753821571975</v>
+      </c>
+      <c r="AO3" s="34">
+        <f>PadRates!AO3*WellPressure!$Q$1</f>
+        <v>23.042914381117377</v>
+      </c>
+      <c r="AP3" s="34">
+        <f>PadRates!AP3*WellPressure!$Q$1</f>
+        <v>22.923735796250238</v>
+      </c>
+      <c r="AQ3" s="34">
+        <f>PadRates!AQ3*WellPressure!$Q$1</f>
+        <v>22.808023582988522</v>
+      </c>
+      <c r="AR3" s="34">
+        <f>PadRates!AR3*WellPressure!$Q$1</f>
+        <v>22.695597912736286</v>
+      </c>
+      <c r="AS3" s="34">
+        <f>PadRates!AS3*WellPressure!$Q$1</f>
+        <v>22.586292197058636</v>
+      </c>
+      <c r="AT3" s="34">
+        <f>PadRates!AT3*WellPressure!$Q$1</f>
+        <v>22.479951837795571</v>
+      </c>
+      <c r="AU3" s="34">
+        <f>PadRates!AU3*WellPressure!$Q$1</f>
+        <v>22.376433119994818</v>
+      </c>
+      <c r="AV3" s="34">
+        <f>PadRates!AV3*WellPressure!$Q$1</f>
+        <v>22.275602228629186</v>
+      </c>
+      <c r="AW3" s="34">
+        <f>PadRates!AW3*WellPressure!$Q$1</f>
+        <v>22.177334372947094</v>
+      </c>
+      <c r="AX3" s="34">
+        <f>PadRates!AX3*WellPressure!$Q$1</f>
+        <v>22.081513004701744</v>
+      </c>
+      <c r="AY3" s="34">
+        <f>PadRates!AY3*WellPressure!$Q$1</f>
+        <v>21.988029118503878</v>
+      </c>
+      <c r="AZ3" s="34">
+        <f>PadRates!AZ3*WellPressure!$Q$1</f>
+        <v>21.896780624218341</v>
+      </c>
+      <c r="BA3" s="34">
+        <f>PadRates!BA3*WellPressure!$Q$1</f>
+        <v>21.807671782733241</v>
+      </c>
       <c r="BB3" s="84"/>
       <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="35"/>
+      <c r="A4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="34">
+        <f>PadRates!B4*WellPressure!$Q$1</f>
+        <v>130</v>
+      </c>
+      <c r="C4" s="34">
+        <f>PadRates!C4*WellPressure!$Q$1</f>
+        <v>101.99593272657759</v>
+      </c>
+      <c r="D4" s="34">
+        <f>PadRates!D4*WellPressure!$Q$1</f>
+        <v>88.501557384298565</v>
+      </c>
+      <c r="E4" s="34">
+        <f>PadRates!E4*WellPressure!$Q$1</f>
+        <v>80.024386867419565</v>
+      </c>
+      <c r="F4" s="34">
+        <f>PadRates!F4*WellPressure!$Q$1</f>
+        <v>74.012291525269902</v>
+      </c>
+      <c r="G4" s="34">
+        <f>PadRates!G4*WellPressure!$Q$1</f>
+        <v>69.436914562817392</v>
+      </c>
+      <c r="H4" s="34">
+        <f>PadRates!H4*WellPressure!$Q$1</f>
+        <v>65.789871524644781</v>
+      </c>
+      <c r="I4" s="34">
+        <f>PadRates!I4*WellPressure!$Q$1</f>
+        <v>62.785861380114973</v>
+      </c>
+      <c r="J4" s="34">
+        <f>PadRates!J4*WellPressure!$Q$1</f>
+        <v>60.25019738035607</v>
+      </c>
+      <c r="K4" s="34">
+        <f>PadRates!K4*WellPressure!$Q$1</f>
+        <v>58.068866979625213</v>
+      </c>
+      <c r="L4" s="34">
+        <f>PadRates!L4*WellPressure!$Q$1</f>
+        <v>56.163726073325101</v>
+      </c>
+      <c r="M4" s="34">
+        <f>PadRates!M4*WellPressure!$Q$1</f>
+        <v>54.47909897300184</v>
+      </c>
+      <c r="N4" s="34">
+        <f>PadRates!N4*WellPressure!$Q$1</f>
+        <v>52.974050229787558</v>
+      </c>
+      <c r="O4" s="34">
+        <f>PadRates!O4*WellPressure!$Q$1</f>
+        <v>51.617687000906557</v>
+      </c>
+      <c r="P4" s="34">
+        <f>PadRates!P4*WellPressure!$Q$1</f>
+        <v>50.386177427439279</v>
+      </c>
+      <c r="Q4" s="34">
+        <f>PadRates!Q4*WellPressure!$Q$1</f>
+        <v>49.260788411587946</v>
+      </c>
+      <c r="R4" s="34">
+        <f>PadRates!R4*WellPressure!$Q$1</f>
+        <v>48.226553894531484</v>
+      </c>
+      <c r="S4" s="34">
+        <f>PadRates!S4*WellPressure!$Q$1</f>
+        <v>47.271346759767852</v>
+      </c>
+      <c r="T4" s="34">
+        <f>PadRates!T4*WellPressure!$Q$1</f>
+        <v>46.385216926550754</v>
+      </c>
+      <c r="U4" s="34">
+        <f>PadRates!U4*WellPressure!$Q$1</f>
+        <v>45.55990961509567</v>
+      </c>
+      <c r="V4" s="34">
+        <f>PadRates!V4*WellPressure!$Q$1</f>
+        <v>44.788508384953687</v>
+      </c>
+      <c r="W4" s="34">
+        <f>PadRates!W4*WellPressure!$Q$1</f>
+        <v>44.065166355759992</v>
+      </c>
+      <c r="X4" s="34">
+        <f>PadRates!X4*WellPressure!$Q$1</f>
+        <v>43.38490089293451</v>
+      </c>
+      <c r="Y4" s="34">
+        <f>PadRates!Y4*WellPressure!$Q$1</f>
+        <v>42.743434721960448</v>
+      </c>
+      <c r="Z4" s="34">
+        <f>PadRates!Z4*WellPressure!$Q$1</f>
+        <v>42.137071514011829</v>
+      </c>
+      <c r="AA4" s="34">
+        <f>PadRates!AA4*WellPressure!$Q$1</f>
+        <v>41.562597411475018</v>
+      </c>
+      <c r="AB4" s="34">
+        <f>PadRates!AB4*WellPressure!$Q$1</f>
+        <v>41.017202314406909</v>
+      </c>
+      <c r="AC4" s="34">
+        <f>PadRates!AC4*WellPressure!$Q$1</f>
+        <v>40.498416391123101</v>
+      </c>
+      <c r="AD4" s="34">
+        <f>PadRates!AD4*WellPressure!$Q$1</f>
+        <v>40.004058439727949</v>
+      </c>
+      <c r="AE4" s="34">
+        <f>PadRates!AE4*WellPressure!$Q$1</f>
+        <v>39.532193563373077</v>
+      </c>
+      <c r="AF4" s="34">
+        <f>PadRates!AF4*WellPressure!$Q$1</f>
+        <v>39.081098230304683</v>
+      </c>
+      <c r="AG4" s="34">
+        <f>PadRates!AG4*WellPressure!$Q$1</f>
+        <v>38.649231237588431</v>
+      </c>
+      <c r="AH4" s="34">
+        <f>PadRates!AH4*WellPressure!$Q$1</f>
+        <v>38.235209430726201</v>
+      </c>
+      <c r="AI4" s="34">
+        <f>PadRates!AI4*WellPressure!$Q$1</f>
+        <v>37.837787282010005</v>
+      </c>
+      <c r="AJ4" s="34">
+        <f>PadRates!AJ4*WellPressure!$Q$1</f>
+        <v>37.455839620708169</v>
+      </c>
+      <c r="AK4" s="34">
+        <f>PadRates!AK4*WellPressure!$Q$1</f>
+        <v>37.08834695387695</v>
+      </c>
+      <c r="AL4" s="34">
+        <f>PadRates!AL4*WellPressure!$Q$1</f>
+        <v>36.73438292910491</v>
+      </c>
+      <c r="AM4" s="34">
+        <f>PadRates!AM4*WellPressure!$Q$1</f>
+        <v>36.393103578062913</v>
+      </c>
+      <c r="AN4" s="34">
+        <f>PadRates!AN4*WellPressure!$Q$1</f>
+        <v>36.063738048386597</v>
+      </c>
+      <c r="AO4" s="34">
+        <f>PadRates!AO4*WellPressure!$Q$1</f>
+        <v>35.74558058561734</v>
+      </c>
+      <c r="AP4" s="34">
+        <f>PadRates!AP4*WellPressure!$Q$1</f>
+        <v>35.437983569997165</v>
+      </c>
+      <c r="AQ4" s="34">
+        <f>PadRates!AQ4*WellPressure!$Q$1</f>
+        <v>35.140351447349943</v>
+      </c>
+      <c r="AR4" s="34">
+        <f>PadRates!AR4*WellPressure!$Q$1</f>
+        <v>34.852135420978044</v>
+      </c>
+      <c r="AS4" s="34">
+        <f>PadRates!AS4*WellPressure!$Q$1</f>
+        <v>34.5728287939042</v>
+      </c>
+      <c r="AT4" s="34">
+        <f>PadRates!AT4*WellPressure!$Q$1</f>
+        <v>34.301962868999745</v>
+      </c>
+      <c r="AU4" s="34">
+        <f>PadRates!AU4*WellPressure!$Q$1</f>
+        <v>34.039103329422957</v>
+      </c>
+      <c r="AV4" s="34">
+        <f>PadRates!AV4*WellPressure!$Q$1</f>
+        <v>33.783847034009874</v>
+      </c>
+      <c r="AW4" s="34">
+        <f>PadRates!AW4*WellPressure!$Q$1</f>
+        <v>33.535819172337995</v>
+      </c>
+      <c r="AX4" s="34">
+        <f>PadRates!AX4*WellPressure!$Q$1</f>
+        <v>33.294670732532815</v>
+      </c>
+      <c r="AY4" s="34">
+        <f>PadRates!AY4*WellPressure!$Q$1</f>
+        <v>33.060076241831837</v>
+      </c>
+      <c r="AZ4" s="34">
+        <f>PadRates!AZ4*WellPressure!$Q$1</f>
+        <v>32.831731745721875</v>
+      </c>
+      <c r="BA4" s="34">
+        <f>PadRates!BA4*WellPressure!$Q$1</f>
+        <v>32.609352996327956</v>
+      </c>
       <c r="BB4" s="84"/>
       <c r="BC4" s="1"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="35"/>
+      <c r="A5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="34">
+        <f>PadRates!B5*WellPressure!$Q$1</f>
+        <v>80</v>
+      </c>
+      <c r="C5" s="34">
+        <f>PadRates!C5*WellPressure!$Q$1</f>
+        <v>67.271713220297173</v>
+      </c>
+      <c r="D5" s="34">
+        <f>PadRates!D5*WellPressure!$Q$1</f>
+        <v>60.786854852127398</v>
+      </c>
+      <c r="E5" s="34">
+        <f>PadRates!E5*WellPressure!$Q$1</f>
+        <v>56.568542494923804</v>
+      </c>
+      <c r="F5" s="34">
+        <f>PadRates!F5*WellPressure!$Q$1</f>
+        <v>53.499224398113761</v>
+      </c>
+      <c r="G5" s="34">
+        <f>PadRates!G5*WellPressure!$Q$1</f>
+        <v>51.1154483397018</v>
+      </c>
+      <c r="H5" s="34">
+        <f>PadRates!H5*WellPressure!$Q$1</f>
+        <v>49.183052236101162</v>
+      </c>
+      <c r="I5" s="34">
+        <f>PadRates!I5*WellPressure!$Q$1</f>
+        <v>47.568284600108846</v>
+      </c>
+      <c r="J5" s="34">
+        <f>PadRates!J5*WellPressure!$Q$1</f>
+        <v>46.188021535170058</v>
+      </c>
+      <c r="K5" s="34">
+        <f>PadRates!K5*WellPressure!$Q$1</f>
+        <v>44.987306015227922</v>
+      </c>
+      <c r="L5" s="34">
+        <f>PadRates!L5*WellPressure!$Q$1</f>
+        <v>43.928038942088996</v>
+      </c>
+      <c r="M5" s="34">
+        <f>PadRates!M5*WellPressure!$Q$1</f>
+        <v>42.982797272941681</v>
+      </c>
+      <c r="N5" s="34">
+        <f>PadRates!N5*WellPressure!$Q$1</f>
+        <v>42.131231027834126</v>
+      </c>
+      <c r="O5" s="34">
+        <f>PadRates!O5*WellPressure!$Q$1</f>
+        <v>41.357852316573648</v>
+      </c>
+      <c r="P5" s="34">
+        <f>PadRates!P5*WellPressure!$Q$1</f>
+        <v>40.650619852369175</v>
+      </c>
+      <c r="Q5" s="34">
+        <f>PadRates!Q5*WellPressure!$Q$1</f>
+        <v>40</v>
+      </c>
+      <c r="R5" s="34">
+        <f>PadRates!R5*WellPressure!$Q$1</f>
+        <v>39.398324840436189</v>
+      </c>
+      <c r="S5" s="34">
+        <f>PadRates!S5*WellPressure!$Q$1</f>
+        <v>38.839341736585872</v>
+      </c>
+      <c r="T5" s="34">
+        <f>PadRates!T5*WellPressure!$Q$1</f>
+        <v>38.317890035485973</v>
+      </c>
+      <c r="U5" s="34">
+        <f>PadRates!U5*WellPressure!$Q$1</f>
+        <v>37.829664360127033</v>
+      </c>
+      <c r="V5" s="34">
+        <f>PadRates!V5*WellPressure!$Q$1</f>
+        <v>37.371038218256011</v>
+      </c>
+      <c r="W5" s="34">
+        <f>PadRates!W5*WellPressure!$Q$1</f>
+        <v>36.93893047552821</v>
+      </c>
+      <c r="X5" s="34">
+        <f>PadRates!X5*WellPressure!$Q$1</f>
+        <v>36.530702839738503</v>
+      </c>
+      <c r="Y5" s="34">
+        <f>PadRates!Y5*WellPressure!$Q$1</f>
+        <v>36.14408014439379</v>
+      </c>
+      <c r="Z5" s="34">
+        <f>PadRates!Z5*WellPressure!$Q$1</f>
+        <v>35.777087639996637</v>
+      </c>
+      <c r="AA5" s="34">
+        <f>PadRates!AA5*WellPressure!$Q$1</f>
+        <v>35.428001141531794</v>
+      </c>
+      <c r="AB5" s="34">
+        <f>PadRates!AB5*WellPressure!$Q$1</f>
+        <v>35.095307012066471</v>
+      </c>
+      <c r="AC5" s="34">
+        <f>PadRates!AC5*WellPressure!$Q$1</f>
+        <v>34.777669755599312</v>
+      </c>
+      <c r="AD5" s="34">
+        <f>PadRates!AD5*WellPressure!$Q$1</f>
+        <v>34.473905556712481</v>
+      </c>
+      <c r="AE5" s="34">
+        <f>PadRates!AE5*WellPressure!$Q$1</f>
+        <v>34.182960511698724</v>
+      </c>
+      <c r="AF5" s="34">
+        <f>PadRates!AF5*WellPressure!$Q$1</f>
+        <v>33.903892593201732</v>
+      </c>
+      <c r="AG5" s="34">
+        <f>PadRates!AG5*WellPressure!$Q$1</f>
+        <v>33.635856610148586</v>
+      </c>
+      <c r="AH5" s="34">
+        <f>PadRates!AH5*WellPressure!$Q$1</f>
+        <v>33.378091588892048</v>
+      </c>
+      <c r="AI5" s="34">
+        <f>PadRates!AI5*WellPressure!$Q$1</f>
+        <v>33.129910125324166</v>
+      </c>
+      <c r="AJ5" s="34">
+        <f>PadRates!AJ5*WellPressure!$Q$1</f>
+        <v>32.890689352041584</v>
+      </c>
+      <c r="AK5" s="34">
+        <f>PadRates!AK5*WellPressure!$Q$1</f>
+        <v>32.65986323710905</v>
+      </c>
+      <c r="AL5" s="34">
+        <f>PadRates!AL5*WellPressure!$Q$1</f>
+        <v>32.436915987101592</v>
+      </c>
+      <c r="AM5" s="34">
+        <f>PadRates!AM5*WellPressure!$Q$1</f>
+        <v>32.221376370926187</v>
+      </c>
+      <c r="AN5" s="34">
+        <f>PadRates!AN5*WellPressure!$Q$1</f>
+        <v>32.012812815379995</v>
+      </c>
+      <c r="AO5" s="34">
+        <f>PadRates!AO5*WellPressure!$Q$1</f>
+        <v>31.810829150682025</v>
+      </c>
+      <c r="AP5" s="34">
+        <f>PadRates!AP5*WellPressure!$Q$1</f>
+        <v>31.615060905952383</v>
+      </c>
+      <c r="AQ5" s="34">
+        <f>PadRates!AQ5*WellPressure!$Q$1</f>
+        <v>31.425172072041036</v>
+      </c>
+      <c r="AR5" s="34">
+        <f>PadRates!AR5*WellPressure!$Q$1</f>
+        <v>31.24085226316129</v>
+      </c>
+      <c r="AS5" s="34">
+        <f>PadRates!AS5*WellPressure!$Q$1</f>
+        <v>31.061814220177858</v>
+      </c>
+      <c r="AT5" s="34">
+        <f>PadRates!AT5*WellPressure!$Q$1</f>
+        <v>30.887791607687177</v>
+      </c>
+      <c r="AU5" s="34">
+        <f>PadRates!AU5*WellPressure!$Q$1</f>
+        <v>30.718537064634798</v>
+      </c>
+      <c r="AV5" s="34">
+        <f>PadRates!AV5*WellPressure!$Q$1</f>
+        <v>30.553820474476272</v>
+      </c>
+      <c r="AW5" s="34">
+        <f>PadRates!AW5*WellPressure!$Q$1</f>
+        <v>30.393427426063699</v>
+      </c>
+      <c r="AX5" s="34">
+        <f>PadRates!AX5*WellPressure!$Q$1</f>
+        <v>30.237157840738181</v>
+      </c>
+      <c r="AY5" s="34">
+        <f>PadRates!AY5*WellPressure!$Q$1</f>
+        <v>30.084824744691151</v>
+      </c>
+      <c r="AZ5" s="34">
+        <f>PadRates!AZ5*WellPressure!$Q$1</f>
+        <v>29.936253168657</v>
+      </c>
+      <c r="BA5" s="34">
+        <f>PadRates!BA5*WellPressure!$Q$1</f>
+        <v>29.791279159518584</v>
+      </c>
       <c r="BB5" s="84"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35"/>
+      <c r="A6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="34">
+        <f>PadRates!B6*WellPressure!$Q$1</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="34">
+        <f>PadRates!C6*WellPressure!$Q$1</f>
+        <v>19.724654089867183</v>
+      </c>
+      <c r="D6" s="34">
+        <f>PadRates!D6*WellPressure!$Q$1</f>
+        <v>19.565347714583421</v>
+      </c>
+      <c r="E6" s="34">
+        <f>PadRates!E6*WellPressure!$Q$1</f>
+        <v>19.45309894824571</v>
+      </c>
+      <c r="F6" s="34">
+        <f>PadRates!F6*WellPressure!$Q$1</f>
+        <v>19.366475714512596</v>
+      </c>
+      <c r="G6" s="34">
+        <f>PadRates!G6*WellPressure!$Q$1</f>
+        <v>19.29598579090657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>PadRates!H6*WellPressure!$Q$1</f>
+        <v>19.236587614095988</v>
+      </c>
+      <c r="I6" s="34">
+        <f>PadRates!I6*WellPressure!$Q$1</f>
+        <v>19.185282386505289</v>
+      </c>
+      <c r="J6" s="34">
+        <f>PadRates!J6*WellPressure!$Q$1</f>
+        <v>19.14014155962774</v>
+      </c>
+      <c r="K6" s="34">
+        <f>PadRates!K6*WellPressure!$Q$1</f>
+        <v>19.099851720428717</v>
+      </c>
+      <c r="L6" s="34">
+        <f>PadRates!L6*WellPressure!$Q$1</f>
+        <v>19.063478193082773</v>
+      </c>
+      <c r="M6" s="34">
+        <f>PadRates!M6*WellPressure!$Q$1</f>
+        <v>19.030332252431219</v>
+      </c>
+      <c r="N6" s="34">
+        <f>PadRates!N6*WellPressure!$Q$1</f>
+        <v>18.999891837835946</v>
+      </c>
+      <c r="O6" s="34">
+        <f>PadRates!O6*WellPressure!$Q$1</f>
+        <v>18.971751827873344</v>
+      </c>
+      <c r="P6" s="34">
+        <f>PadRates!P6*WellPressure!$Q$1</f>
+        <v>18.945591568023726</v>
+      </c>
+      <c r="Q6" s="34">
+        <f>PadRates!Q6*WellPressure!$Q$1</f>
+        <v>18.92115293451192</v>
+      </c>
+      <c r="R6" s="34">
+        <f>PadRates!R6*WellPressure!$Q$1</f>
+        <v>18.898225082424748</v>
+      </c>
+      <c r="S6" s="34">
+        <f>PadRates!S6*WellPressure!$Q$1</f>
+        <v>18.876633574737408</v>
+      </c>
+      <c r="T6" s="34">
+        <f>PadRates!T6*WellPressure!$Q$1</f>
+        <v>18.856232464552253</v>
+      </c>
+      <c r="U6" s="34">
+        <f>PadRates!U6*WellPressure!$Q$1</f>
+        <v>18.836898417660557</v>
+      </c>
+      <c r="V6" s="34">
+        <f>PadRates!V6*WellPressure!$Q$1</f>
+        <v>18.818526275591836</v>
+      </c>
+      <c r="W6" s="34">
+        <f>PadRates!W6*WellPressure!$Q$1</f>
+        <v>18.8010256554142</v>
+      </c>
+      <c r="X6" s="34">
+        <f>PadRates!X6*WellPressure!$Q$1</f>
+        <v>18.784318308654296</v>
+      </c>
+      <c r="Y6" s="34">
+        <f>PadRates!Y6*WellPressure!$Q$1</f>
+        <v>18.768336044722442</v>
+      </c>
+      <c r="Z6" s="34">
+        <f>PadRates!Z6*WellPressure!$Q$1</f>
+        <v>18.75301908004031</v>
+      </c>
+      <c r="AA6" s="34">
+        <f>PadRates!AA6*WellPressure!$Q$1</f>
+        <v>18.738314712310245</v>
+      </c>
+      <c r="AB6" s="34">
+        <f>PadRates!AB6*WellPressure!$Q$1</f>
+        <v>18.724176246023287</v>
+      </c>
+      <c r="AC6" s="34">
+        <f>PadRates!AC6*WellPressure!$Q$1</f>
+        <v>18.710562114180359</v>
+      </c>
+      <c r="AD6" s="34">
+        <f>PadRates!AD6*WellPressure!$Q$1</f>
+        <v>18.697435154762537</v>
+      </c>
+      <c r="AE6" s="34">
+        <f>PadRates!AE6*WellPressure!$Q$1</f>
+        <v>18.684762010358615</v>
+      </c>
+      <c r="AF6" s="34">
+        <f>PadRates!AF6*WellPressure!$Q$1</f>
+        <v>18.672512626632653</v>
+      </c>
+      <c r="AG6" s="34">
+        <f>PadRates!AG6*WellPressure!$Q$1</f>
+        <v>18.660659830736151</v>
+      </c>
+      <c r="AH6" s="34">
+        <f>PadRates!AH6*WellPressure!$Q$1</f>
+        <v>18.649178974852152</v>
+      </c>
+      <c r="AI6" s="34">
+        <f>PadRates!AI6*WellPressure!$Q$1</f>
+        <v>18.638047633163993</v>
+      </c>
+      <c r="AJ6" s="34">
+        <f>PadRates!AJ6*WellPressure!$Q$1</f>
+        <v>18.627245342924191</v>
+      </c>
+      <c r="AK6" s="34">
+        <f>PadRates!AK6*WellPressure!$Q$1</f>
+        <v>18.616753382143422</v>
+      </c>
+      <c r="AL6" s="34">
+        <f>PadRates!AL6*WellPressure!$Q$1</f>
+        <v>18.606554577858702</v>
+      </c>
+      <c r="AM6" s="34">
+        <f>PadRates!AM6*WellPressure!$Q$1</f>
+        <v>18.59663314007085</v>
+      </c>
+      <c r="AN6" s="34">
+        <f>PadRates!AN6*WellPressure!$Q$1</f>
+        <v>18.586974517336788</v>
+      </c>
+      <c r="AO6" s="34">
+        <f>PadRates!AO6*WellPressure!$Q$1</f>
+        <v>18.577565270716047</v>
+      </c>
+      <c r="AP6" s="34">
+        <f>PadRates!AP6*WellPressure!$Q$1</f>
+        <v>18.568392963342752</v>
+      </c>
+      <c r="AQ6" s="34">
+        <f>PadRates!AQ6*WellPressure!$Q$1</f>
+        <v>18.559446063356276</v>
+      </c>
+      <c r="AR6" s="34">
+        <f>PadRates!AR6*WellPressure!$Q$1</f>
+        <v>18.550713858298163</v>
+      </c>
+      <c r="AS6" s="34">
+        <f>PadRates!AS6*WellPressure!$Q$1</f>
+        <v>18.54218637938818</v>
+      </c>
+      <c r="AT6" s="34">
+        <f>PadRates!AT6*WellPressure!$Q$1</f>
+        <v>18.533854334343193</v>
+      </c>
+      <c r="AU6" s="34">
+        <f>PadRates!AU6*WellPressure!$Q$1</f>
+        <v>18.525709047608249</v>
+      </c>
+      <c r="AV6" s="34">
+        <f>PadRates!AV6*WellPressure!$Q$1</f>
+        <v>18.517742407040306</v>
+      </c>
+      <c r="AW6" s="34">
+        <f>PadRates!AW6*WellPressure!$Q$1</f>
+        <v>18.509946816226808</v>
+      </c>
+      <c r="AX6" s="34">
+        <f>PadRates!AX6*WellPressure!$Q$1</f>
+        <v>18.502315151739563</v>
+      </c>
+      <c r="AY6" s="34">
+        <f>PadRates!AY6*WellPressure!$Q$1</f>
+        <v>18.494840724723719</v>
+      </c>
+      <c r="AZ6" s="34">
+        <f>PadRates!AZ6*WellPressure!$Q$1</f>
+        <v>18.48751724630511</v>
+      </c>
+      <c r="BA6" s="34">
+        <f>PadRates!BA6*WellPressure!$Q$1</f>
+        <v>18.480338796369434</v>
+      </c>
       <c r="BB6" s="84"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="35"/>
+      <c r="A7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="34">
+        <f>FlowbackRates!B3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="34">
+        <f>FlowbackRates!C3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <f>FlowbackRates!D3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <f>FlowbackRates!E3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="34">
+        <f>FlowbackRates!F3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <f>FlowbackRates!G3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <f>FlowbackRates!H3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <f>FlowbackRates!I3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
+        <f>FlowbackRates!J3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="34">
+        <f>FlowbackRates!K3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="34">
+        <f>FlowbackRates!L3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="34">
+        <f>FlowbackRates!M3*WellPressure!$Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
+        <f>FlowbackRates!N3*WellPressure!$Q$1</f>
+        <v>320</v>
+      </c>
+      <c r="O7" s="34">
+        <f>FlowbackRates!O3*WellPressure!$Q$1</f>
+        <v>251.06691132696025</v>
+      </c>
+      <c r="P7" s="34">
+        <f>FlowbackRates!P3*WellPressure!$Q$1</f>
+        <v>217.84998740750413</v>
+      </c>
+      <c r="Q7" s="34">
+        <f>FlowbackRates!Q3*WellPressure!$Q$1</f>
+        <v>196.9831061351866</v>
+      </c>
+      <c r="R7" s="34">
+        <f>FlowbackRates!R3*WellPressure!$Q$1</f>
+        <v>182.18410221604901</v>
+      </c>
+      <c r="S7" s="34">
+        <f>FlowbackRates!S3*WellPressure!$Q$1</f>
+        <v>170.92163584693515</v>
+      </c>
+      <c r="T7" s="34">
+        <f>FlowbackRates!T3*WellPressure!$Q$1</f>
+        <v>161.94429913758717</v>
+      </c>
+      <c r="U7" s="34">
+        <f>FlowbackRates!U3*WellPressure!$Q$1</f>
+        <v>154.54981262797531</v>
+      </c>
+      <c r="V7" s="34">
+        <f>FlowbackRates!V3*WellPressure!$Q$1</f>
+        <v>148.30817816703032</v>
+      </c>
+      <c r="W7" s="34">
+        <f>FlowbackRates!W3*WellPressure!$Q$1</f>
+        <v>142.93874948830822</v>
+      </c>
+      <c r="X7" s="34">
+        <f>FlowbackRates!X3*WellPressure!$Q$1</f>
+        <v>138.24917187280025</v>
+      </c>
+      <c r="Y7" s="34">
+        <f>FlowbackRates!Y3*WellPressure!$Q$1</f>
+        <v>134.10239747200455</v>
+      </c>
+      <c r="Z7" s="34">
+        <f>FlowbackRates!Z3*WellPressure!$Q$1</f>
+        <v>130.39766210409243</v>
+      </c>
+      <c r="AA7" s="34">
+        <f>FlowbackRates!AA3*WellPressure!$Q$1</f>
+        <v>127.05892184838537</v>
+      </c>
+      <c r="AB7" s="34">
+        <f>FlowbackRates!AB3*WellPressure!$Q$1</f>
+        <v>124.02751366754285</v>
+      </c>
+      <c r="AC7" s="34">
+        <f>FlowbackRates!AC3*WellPressure!$Q$1</f>
+        <v>121.25732532083187</v>
+      </c>
+      <c r="AD7" s="34">
+        <f>FlowbackRates!AD3*WellPressure!$Q$1</f>
+        <v>118.71151727884671</v>
+      </c>
+      <c r="AE7" s="34">
+        <f>FlowbackRates!AE3*WellPressure!$Q$1</f>
+        <v>116.3602381778901</v>
+      </c>
+      <c r="AF7" s="34">
+        <f>FlowbackRates!AF3*WellPressure!$Q$1</f>
+        <v>114.17899551150956</v>
+      </c>
+      <c r="AG7" s="34">
+        <f>FlowbackRates!AG3*WellPressure!$Q$1</f>
+        <v>112.14746982177395</v>
+      </c>
+      <c r="AH7" s="34">
+        <f>FlowbackRates!AH3*WellPressure!$Q$1</f>
+        <v>110.24863602450138</v>
+      </c>
+      <c r="AI7" s="34">
+        <f>FlowbackRates!AI3*WellPressure!$Q$1</f>
+        <v>108.46810179879381</v>
+      </c>
+      <c r="AJ7" s="34">
+        <f>FlowbackRates!AJ3*WellPressure!$Q$1</f>
+        <v>106.79360219799264</v>
+      </c>
+      <c r="AK7" s="34">
+        <f>FlowbackRates!AK3*WellPressure!$Q$1</f>
+        <v>105.21460854636418</v>
+      </c>
+      <c r="AL7" s="34">
+        <f>FlowbackRates!AL3*WellPressure!$Q$1</f>
+        <v>103.72202218833682</v>
+      </c>
+      <c r="AM7" s="34">
+        <f>FlowbackRates!AM3*WellPressure!$Q$1</f>
+        <v>102.30793208978467</v>
+      </c>
+      <c r="AN7" s="34">
+        <f>FlowbackRates!AN3*WellPressure!$Q$1</f>
+        <v>100.965421081617</v>
+      </c>
+      <c r="AO7" s="34">
+        <f>FlowbackRates!AO3*WellPressure!$Q$1</f>
+        <v>99.688409578149162</v>
+      </c>
+      <c r="AP7" s="34">
+        <f>FlowbackRates!AP3*WellPressure!$Q$1</f>
+        <v>98.471528467022637</v>
+      </c>
+      <c r="AQ7" s="34">
+        <f>FlowbackRates!AQ3*WellPressure!$Q$1</f>
+        <v>97.310014925226028</v>
+      </c>
+      <c r="AR7" s="34">
+        <f>FlowbackRates!AR3*WellPressure!$Q$1</f>
+        <v>96.199626413057672</v>
+      </c>
+      <c r="AS7" s="34">
+        <f>FlowbackRates!AS3*WellPressure!$Q$1</f>
+        <v>95.136569200217693</v>
+      </c>
+      <c r="AT7" s="34">
+        <f>FlowbackRates!AT3*WellPressure!$Q$1</f>
+        <v>94.117438598710649</v>
+      </c>
+      <c r="AU7" s="34">
+        <f>FlowbackRates!AU3*WellPressure!$Q$1</f>
+        <v>93.139168694178466</v>
+      </c>
+      <c r="AV7" s="34">
+        <f>FlowbackRates!AV3*WellPressure!$Q$1</f>
+        <v>92.19898983558933</v>
+      </c>
+      <c r="AW7" s="34">
+        <f>FlowbackRates!AW3*WellPressure!$Q$1</f>
+        <v>91.294392501850965</v>
+      </c>
+      <c r="AX7" s="34">
+        <f>FlowbackRates!AX3*WellPressure!$Q$1</f>
+        <v>90.423096440873636</v>
+      </c>
+      <c r="AY7" s="34">
+        <f>FlowbackRates!AY3*WellPressure!$Q$1</f>
+        <v>89.583024192154866</v>
+      </c>
+      <c r="AZ7" s="34">
+        <f>FlowbackRates!AZ3*WellPressure!$Q$1</f>
+        <v>88.772278272951624</v>
+      </c>
+      <c r="BA7" s="34">
+        <f>FlowbackRates!BA3*WellPressure!$Q$1</f>
+        <v>87.9891214415196</v>
+      </c>
       <c r="BB7" s="84"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -8918,7 +9726,9 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9944,11 +10754,11 @@
   </sheetPr>
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9968,21 +10778,51 @@
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="Q2" s="116"/>
       <c r="R2" s="116"/>
       <c r="S2" s="116"/>
@@ -10029,22 +10869,54 @@
       <c r="BH2" s="116"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="A3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="78">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="78">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="78">
+        <v>0</v>
+      </c>
+      <c r="O3" s="92">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <v>0</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -10091,22 +10963,54 @@
       <c r="BH3" s="7"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="A4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="78">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="78">
+        <v>0</v>
+      </c>
+      <c r="O4" s="92">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29">
+        <v>0</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -10153,22 +11057,54 @@
       <c r="BH4" s="7"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="A5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="78">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="78">
+        <v>0</v>
+      </c>
+      <c r="O5" s="92">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -10215,22 +11151,54 @@
       <c r="BH5" s="7"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="79">
+        <v>0</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0</v>
+      </c>
+      <c r="D6" s="79">
+        <v>0</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0</v>
+      </c>
+      <c r="F6" s="79">
+        <v>0</v>
+      </c>
+      <c r="G6" s="79">
+        <v>0</v>
+      </c>
+      <c r="H6" s="79">
+        <v>0</v>
+      </c>
+      <c r="I6" s="79">
+        <v>0</v>
+      </c>
+      <c r="J6" s="80">
+        <v>0</v>
+      </c>
+      <c r="K6" s="79">
+        <v>0</v>
+      </c>
+      <c r="L6" s="80">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80">
+        <v>0</v>
+      </c>
+      <c r="O6" s="93">
+        <v>0</v>
+      </c>
+      <c r="P6" s="82">
+        <v>0</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -10277,22 +11245,54 @@
       <c r="BH6" s="7"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="A7" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="79">
+        <v>0</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0</v>
+      </c>
+      <c r="D7" s="79">
+        <v>0</v>
+      </c>
+      <c r="E7" s="79">
+        <v>0</v>
+      </c>
+      <c r="F7" s="79">
+        <v>0</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79">
+        <v>0</v>
+      </c>
+      <c r="I7" s="79">
+        <v>6</v>
+      </c>
+      <c r="J7" s="80">
+        <v>0</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0</v>
+      </c>
+      <c r="L7" s="80">
+        <v>0</v>
+      </c>
+      <c r="M7" s="79">
+        <v>0</v>
+      </c>
+      <c r="N7" s="80">
+        <v>0</v>
+      </c>
+      <c r="O7" s="93">
+        <v>0</v>
+      </c>
+      <c r="P7" s="82">
+        <v>0</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -10339,22 +11339,54 @@
       <c r="BH7" s="7"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="A8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>8</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="92">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -10401,22 +11433,54 @@
       <c r="BH8" s="7"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="A9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="78">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="78">
+        <v>0</v>
+      </c>
+      <c r="O9" s="92">
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -10463,22 +11527,54 @@
       <c r="BH9" s="7"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="A10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="78">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="78">
+        <v>0</v>
+      </c>
+      <c r="O10" s="92">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -10525,22 +11621,54 @@
       <c r="BH10" s="7"/>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="A11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="78">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="78">
+        <v>8</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="78">
+        <v>0</v>
+      </c>
+      <c r="O11" s="92">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -10587,22 +11715,54 @@
       <c r="BH11" s="7"/>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="A12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
+      <c r="J12" s="78">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="78">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="78">
+        <v>0</v>
+      </c>
+      <c r="O12" s="92">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -10649,22 +11809,54 @@
       <c r="BH12" s="7"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="A13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="78">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="78">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="78">
+        <v>0</v>
+      </c>
+      <c r="O13" s="92">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -10711,22 +11903,54 @@
       <c r="BH13" s="7"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="A14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8</v>
+      </c>
+      <c r="J14" s="78">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="78">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="78">
+        <v>0</v>
+      </c>
+      <c r="O14" s="92">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -10773,22 +11997,54 @@
       <c r="BH14" s="7"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="A15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="78">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="78">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="78">
+        <v>0</v>
+      </c>
+      <c r="O15" s="92">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -10835,22 +12091,54 @@
       <c r="BH15" s="7"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="A16" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="79">
+        <v>0</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0</v>
+      </c>
+      <c r="D16" s="79">
+        <v>0</v>
+      </c>
+      <c r="E16" s="79">
+        <v>0</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
+      <c r="G16" s="79">
+        <v>0</v>
+      </c>
+      <c r="H16" s="79">
+        <v>0</v>
+      </c>
+      <c r="I16" s="79">
+        <v>0</v>
+      </c>
+      <c r="J16" s="80">
+        <v>0</v>
+      </c>
+      <c r="K16" s="79">
+        <v>0</v>
+      </c>
+      <c r="L16" s="80">
+        <v>0</v>
+      </c>
+      <c r="M16" s="79">
+        <v>0</v>
+      </c>
+      <c r="N16" s="80">
+        <v>0</v>
+      </c>
+      <c r="O16" s="93">
+        <v>0</v>
+      </c>
+      <c r="P16" s="82">
+        <v>0</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -10897,22 +12185,54 @@
       <c r="BH16" s="7"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="A17" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="79">
+        <v>0</v>
+      </c>
+      <c r="C17" s="79">
+        <v>0</v>
+      </c>
+      <c r="D17" s="79">
+        <v>0</v>
+      </c>
+      <c r="E17" s="79">
+        <v>0</v>
+      </c>
+      <c r="F17" s="79">
+        <v>0</v>
+      </c>
+      <c r="G17" s="79">
+        <v>0</v>
+      </c>
+      <c r="H17" s="79">
+        <v>0</v>
+      </c>
+      <c r="I17" s="79">
+        <v>0</v>
+      </c>
+      <c r="J17" s="80">
+        <v>0</v>
+      </c>
+      <c r="K17" s="79">
+        <v>0</v>
+      </c>
+      <c r="L17" s="80">
+        <v>0</v>
+      </c>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="80">
+        <v>0</v>
+      </c>
+      <c r="O17" s="93">
+        <v>0</v>
+      </c>
+      <c r="P17" s="82">
+        <v>0</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -10959,22 +12279,54 @@
       <c r="BH17" s="7"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="A18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="78">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="78">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="78">
+        <v>0</v>
+      </c>
+      <c r="O18" s="92">
+        <v>0</v>
+      </c>
+      <c r="P18" s="29">
+        <v>8</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -11021,22 +12373,54 @@
       <c r="BH18" s="7"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="A19" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="79">
+        <v>0</v>
+      </c>
+      <c r="C19" s="79">
+        <v>0</v>
+      </c>
+      <c r="D19" s="79">
+        <v>0</v>
+      </c>
+      <c r="E19" s="79">
+        <v>0</v>
+      </c>
+      <c r="F19" s="79">
+        <v>0</v>
+      </c>
+      <c r="G19" s="79">
+        <v>0</v>
+      </c>
+      <c r="H19" s="79">
+        <v>0</v>
+      </c>
+      <c r="I19" s="79">
+        <v>0</v>
+      </c>
+      <c r="J19" s="80">
+        <v>0</v>
+      </c>
+      <c r="K19" s="79">
+        <v>0</v>
+      </c>
+      <c r="L19" s="80">
+        <v>0</v>
+      </c>
+      <c r="M19" s="79">
+        <v>0</v>
+      </c>
+      <c r="N19" s="80">
+        <v>0</v>
+      </c>
+      <c r="O19" s="93">
+        <v>0</v>
+      </c>
+      <c r="P19" s="82">
+        <v>8</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -11083,22 +12467,54 @@
       <c r="BH19" s="7"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="A20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="78">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="78">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="78">
+        <v>0</v>
+      </c>
+      <c r="O20" s="92">
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -11144,23 +12560,55 @@
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+    <row r="21" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="83">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="83">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="83">
+        <v>0</v>
+      </c>
+      <c r="O21" s="94">
+        <v>8</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F556D-5486-436F-9375-6A40BADC4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EDC7A-6537-49E9-9577-5ECE671C065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="64" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="40" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="63">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,9 +103,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2287,15 +2290,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.20703125" customWidth="1"/>
-    <col min="10" max="10" width="4.41796875" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2307,7 +2310,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -2321,7 +2324,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2333,7 +2336,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2347,7 +2350,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>2</v>
@@ -2361,7 +2364,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>3</v>
@@ -2375,7 +2378,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
@@ -2389,7 +2392,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2403,7 +2406,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -2417,7 +2420,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2429,7 +2432,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -2443,7 +2446,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -2457,7 +2460,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2469,7 +2472,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>9</v>
@@ -2483,7 +2486,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>10</v>
@@ -2497,7 +2500,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>11</v>
@@ -2511,7 +2514,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>12</v>
@@ -2525,7 +2528,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2537,7 +2540,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2549,7 +2552,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -2565,7 +2568,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2577,7 +2580,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>15</v>
@@ -2593,7 +2596,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>17</v>
@@ -2609,7 +2612,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
@@ -2625,7 +2628,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2641,7 +2644,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -2657,7 +2660,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>25</v>
@@ -2673,7 +2676,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>27</v>
@@ -2689,7 +2692,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>29</v>
@@ -2705,7 +2708,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>31</v>
@@ -2724,7 +2727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>34</v>
@@ -2740,7 +2743,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>36</v>
@@ -2756,7 +2759,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2772,7 +2775,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -2788,7 +2791,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>42</v>
@@ -2804,7 +2807,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2847,30 +2850,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -2878,16 +2881,16 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -2906,30 +2909,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -2937,17 +2940,17 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>260</v>
       </c>
@@ -2969,28 +2972,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3011,30 +3014,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -3042,99 +3045,99 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3155,45 +3158,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3215,30 +3218,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -3246,20 +3249,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3279,30 +3282,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -3310,20 +3313,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3343,30 +3346,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -3374,20 +3377,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3405,18 +3408,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -3465,7 +3468,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -3481,7 +3484,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3497,7 +3500,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -3529,18 +3532,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3606,61 +3609,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.20703125" customWidth="1"/>
-    <col min="10" max="10" width="4.41796875" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -3678,18 +3681,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3718,18 +3721,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3762,7 +3765,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -3778,7 +3781,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -3816,7 +3819,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -3852,7 +3855,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -3871,7 +3874,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -3892,7 +3895,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -3928,7 +3931,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3957,18 +3960,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3976,61 +3979,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
     </row>
@@ -4049,18 +4052,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4080,21 +4083,21 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -4103,42 +4106,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4159,18 +4162,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4181,21 +4184,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -4204,42 +4207,42 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4269,18 +4272,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4288,55 +4291,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="90"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="90"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="90"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="90"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="90"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="90"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="90"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="90"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4357,18 +4360,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4429,18 +4432,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -4480,18 +4483,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4499,13 +4502,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4527,18 +4530,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4546,13 +4549,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4576,33 +4579,33 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="92.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.68359375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.20703125" style="1"/>
-    <col min="49" max="49" width="13.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.140625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -4622,7 +4625,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="64"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -4676,7 +4679,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
@@ -4694,7 +4697,7 @@
       <c r="J5" s="53"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
@@ -4718,7 +4721,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>68</v>
       </c>
@@ -4742,7 +4745,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -4912,17 +4915,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4952,18 +4955,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5009,7 +5012,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -5038,18 +5041,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5057,25 +5060,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5097,18 +5100,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -5147,18 +5150,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5228,18 +5231,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5276,18 +5279,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5318,18 +5321,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5360,24 +5363,24 @@
       <selection activeCell="BA2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.20703125" style="1"/>
-    <col min="54" max="54" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.140625" style="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5701,10 +5704,10 @@
       <c r="BB3" s="76"/>
       <c r="BC3" s="76"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -5723,22 +5726,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.68359375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -6751,14 +6754,14 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
     </row>
   </sheetData>
@@ -6777,72 +6780,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.20703125" style="1"/>
-    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.20703125" style="1"/>
-    <col min="13" max="13" width="11.20703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
   </sheetData>
@@ -6863,23 +6866,23 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1015625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="15" width="11.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="1"/>
+    <col min="14" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -7217,10 +7220,10 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
     </row>
@@ -7238,20 +7241,22 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -7501,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -7551,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -7601,13 +7606,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="7">
-        <v>42857</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>0</v>
       </c>
@@ -7651,16 +7654,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
-        <v>42857</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7">
         <v>0</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -7711,9 +7712,7 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>42857</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7">
         <v>0</v>
       </c>
@@ -7751,16 +7750,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
-        <v>42857</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7">
         <v>0</v>
       </c>
@@ -7801,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -7814,9 +7811,7 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
-        <v>42857</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>0</v>
       </c>
@@ -7851,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -7870,9 +7865,7 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
-        <v>42857</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -7901,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -7917,15 +7910,11 @@
       <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
-        <v>42857</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
-        <v>42857</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="7">
         <v>0</v>
       </c>
@@ -7951,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -8001,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -8051,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -8101,7 +8090,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -8151,7 +8140,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -8201,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -8266,19 +8255,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -8286,7 +8275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -8294,7 +8283,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -8317,19 +8306,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -8337,7 +8326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -8360,19 +8349,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -8392,7 +8381,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -8412,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -8449,13 +8438,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -8479,7 +8468,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -8640,7 +8629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -8853,7 +8842,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -9066,7 +9055,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -9085,20 +9074,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9106,7 +9095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9129,19 +9118,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9149,7 +9138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9172,20 +9161,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -9193,61 +9182,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="84"/>
     </row>
@@ -9266,21 +9255,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9441,7 +9430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9602,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9763,10 +9752,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>254</v>
       </c>
@@ -9786,40 +9775,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.20703125" style="1"/>
-    <col min="3" max="3" width="3.5234375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.20703125" style="1"/>
-    <col min="13" max="13" width="11.20703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.89453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5234375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -9827,52 +9816,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -9893,19 +9882,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.89453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9913,7 +9902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9921,7 +9910,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9947,20 +9936,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -9971,7 +9960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -9982,7 +9971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -9993,7 +9982,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -10004,7 +9993,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -10015,7 +10004,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -10026,7 +10015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -10037,7 +10026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -10048,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -10059,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -10070,7 +10059,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -10096,19 +10085,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -10116,7 +10105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -10139,20 +10128,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="6" width="10.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -10202,7 +10191,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -10252,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -10302,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -10352,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -10402,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -10452,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -10502,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -10552,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -10602,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -10652,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -10702,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -10752,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -10802,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -10852,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -10902,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -10952,7 +10941,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -11002,7 +10991,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -11052,7 +11041,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -11102,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -11168,19 +11157,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -11188,7 +11177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -11196,7 +11185,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -11219,18 +11208,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -11238,7 +11227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11246,7 +11235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11254,7 +11243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11262,7 +11251,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11270,7 +11259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -11278,7 +11267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>114</v>
       </c>
@@ -11286,7 +11275,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
@@ -11310,17 +11299,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>233</v>
       </c>
@@ -11331,7 +11320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11342,7 +11331,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11353,7 +11342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11364,7 +11353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11375,7 +11364,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -11401,19 +11390,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -11430,7 +11419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -11447,7 +11436,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -11482,19 +11471,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -11502,7 +11491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>151</v>
       </c>
@@ -11510,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>152</v>
       </c>
@@ -11518,7 +11507,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>153</v>
       </c>
@@ -11526,7 +11515,7 @@
         <v>14286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
@@ -11549,19 +11538,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -11578,7 +11567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -11610,36 +11599,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -11660,19 +11649,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.20703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>239</v>
       </c>
@@ -11680,7 +11669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -11688,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -11696,7 +11685,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
@@ -11704,7 +11693,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -11729,20 +11718,20 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -11762,7 +11751,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -11782,7 +11771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -11802,7 +11791,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -11822,7 +11811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -11842,7 +11831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -11862,7 +11851,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -11882,7 +11871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -11902,7 +11891,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -11922,7 +11911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -11942,7 +11931,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -11979,21 +11968,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.20703125" style="1"/>
-    <col min="3" max="3" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -12010,7 +11999,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -12027,7 +12016,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>122</v>
       </c>
@@ -12044,7 +12033,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>258</v>
       </c>
@@ -12061,7 +12050,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>259</v>
       </c>
@@ -12078,7 +12067,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -12095,10 +12084,10 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="75"/>
     </row>
   </sheetData>
@@ -12118,19 +12107,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.20703125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -12138,7 +12127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>244</v>
       </c>
@@ -12164,9 +12153,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -12175,7 +12164,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -12225,7 +12214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -12273,7 +12262,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -12321,7 +12310,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -12369,7 +12358,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -12417,7 +12406,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -12462,7 +12451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -12506,7 +12495,7 @@
       <c r="O8" s="92"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -12550,7 +12539,7 @@
       <c r="O9" s="92"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -12594,7 +12583,7 @@
       <c r="O10" s="92"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -12638,7 +12627,7 @@
       <c r="O11" s="92"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -12682,7 +12671,7 @@
       <c r="O12" s="92"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -12726,7 +12715,7 @@
       <c r="O13" s="92"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -12770,7 +12759,7 @@
       <c r="O14" s="92"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -12812,7 +12801,7 @@
       <c r="O15" s="92"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
@@ -12858,7 +12847,7 @@
       <c r="O16" s="92"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>117</v>
       </c>
@@ -12880,7 +12869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -12928,7 +12917,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -12976,7 +12965,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -13018,7 +13007,7 @@
       </c>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -13074,9 +13063,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -13085,7 +13074,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -13108,7 +13097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
@@ -13131,7 +13120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
@@ -13171,19 +13160,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13191,7 +13180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13199,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13207,7 +13196,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13215,7 +13204,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13223,7 +13212,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13248,19 +13237,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.20703125" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13268,7 +13257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13276,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13284,7 +13273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13292,7 +13281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13300,7 +13289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13323,18 +13312,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.20703125" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13345,7 +13334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13356,7 +13345,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13367,7 +13356,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13378,7 +13367,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13389,7 +13378,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13400,7 +13389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13411,7 +13400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13422,7 +13411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13433,7 +13422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13444,7 +13433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13467,22 +13456,22 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" customWidth="1"/>
-    <col min="2" max="2" width="23.20703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13493,7 +13482,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13504,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13515,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13526,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13537,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13548,7 +13537,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13559,7 +13548,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13570,7 +13559,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13581,7 +13570,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13592,7 +13581,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13617,39 +13606,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.20703125" style="1"/>
-    <col min="15" max="15" width="12.1015625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5234375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
   </sheetData>
@@ -13668,17 +13656,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -13686,7 +13674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>121</v>
       </c>
@@ -13694,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>122</v>
       </c>
@@ -13702,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>258</v>
       </c>
@@ -13710,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>259</v>
       </c>
@@ -13718,7 +13706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -13740,17 +13728,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13758,7 +13746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13766,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -13788,17 +13776,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.20703125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -13806,7 +13794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -13830,17 +13818,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13848,7 +13836,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>247</v>
       </c>
@@ -13856,7 +13844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>248</v>
       </c>
@@ -13880,17 +13868,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13898,7 +13886,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
@@ -13906,7 +13894,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>251</v>
       </c>
@@ -13930,25 +13918,25 @@
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" customWidth="1"/>
-    <col min="5" max="5" width="17.20703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -13956,7 +13944,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>89</v>
       </c>
@@ -13964,7 +13952,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -13972,7 +13960,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -13980,7 +13968,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -13988,7 +13976,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -14011,18 +13999,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -14030,7 +14018,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
         <v>117</v>
       </c>
@@ -14053,19 +14041,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
-    <col min="2" max="2" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -14073,7 +14061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -14097,30 +14085,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -14144,36 +14132,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.20703125" style="1"/>
-    <col min="4" max="4" width="3.5234375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.20703125" style="1"/>
-    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.20703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.20703125" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pareto\source_code\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A83707-9A27-45A6-92DF-AC099A02156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D8DB85-9DC9-4848-944D-0BB39BA66648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1935" windowWidth="28800" windowHeight="15195" tabRatio="834" firstSheet="23" activeTab="37" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="34" activeTab="42" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -56,50 +56,48 @@
     <sheet name="FlowbackRates" sheetId="75" r:id="rId41"/>
     <sheet name="WellPressure" sheetId="116" r:id="rId42"/>
     <sheet name="InitialPipelineCapacity" sheetId="109" r:id="rId43"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId44"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId45"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId46"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId47"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId48"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId49"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId50"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId51"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId52"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId53"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId54"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId55"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId56"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId57"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId58"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId59"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId60"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId61"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId62"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId63"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId64"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId65"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId66"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId67"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId68"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId69"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId70"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId71"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId72"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId73"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId74"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId75"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId76"/>
-    <sheet name="Economics" sheetId="95" r:id="rId77"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId78"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId79"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId80"/>
+    <sheet name="InitialPipelineCapacity (2)" sheetId="118" r:id="rId44"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId45"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId46"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId47"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId48"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId49"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId50"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId51"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId52"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId53"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId54"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId55"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId56"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId57"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId58"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId59"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId60"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId61"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId62"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId63"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId64"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId65"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId66"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId67"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId68"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId69"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId70"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId71"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId72"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId73"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId74"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId75"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId76"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId77"/>
+    <sheet name="Economics" sheetId="95" r:id="rId78"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId79"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId80"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId81"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId81"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="66">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="67">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="277">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -913,13 +911,22 @@
     <t>pressure</t>
   </si>
   <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>Pressure units when using the hydraulics module</t>
+  </si>
+  <si>
+    <t>6895 Pa</t>
+  </si>
+  <si>
     <t>pascal</t>
   </si>
   <si>
-    <t>Pressure units when using the hydraulics module</t>
-  </si>
-  <si>
-    <t>Pa</t>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>Elevation of a network node (including all sites)</t>
   </si>
   <si>
     <t>Elevation Data in ft</t>
@@ -935,6 +942,15 @@
   </si>
   <si>
     <t>Table of Initial Pipeline Diameters between Sites [inch]</t>
+  </si>
+  <si>
+    <t>min_allowable_pressure</t>
+  </si>
+  <si>
+    <t>max_allowable_pressure</t>
+  </si>
+  <si>
+    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1629,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1695,9 +1711,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,250 +2038,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>pascal</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4570,7 +4339,7 @@
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4578,55 +4347,55 @@
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="90"/>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="90"/>
+      <c r="B4" s="89"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="90"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="90"/>
+      <c r="B6" s="89"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="89"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="90"/>
+      <c r="B8" s="89"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="90"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="89"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4858,30 +4627,30 @@
   </sheetPr>
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8:AZ9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
     <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.140625" style="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
     <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="54" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4896,46 +4665,46 @@
       <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4943,109 +4712,109 @@
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="55"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="55"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="54"/>
       <c r="AT8" s="30" t="s">
         <v>49</v>
       </c>
@@ -5075,21 +4844,25 @@
       <c r="A9" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="54"/>
       <c r="AT9" s="1" t="s">
         <v>50</v>
       </c>
@@ -5109,41 +4882,29 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>83</v>
-      </c>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="54"/>
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -5162,11 +4923,42 @@
       <c r="AY10" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="AZ10" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -5183,33 +4975,30 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0366540F-07AE-4F25-B907-A754D6EED801}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0221D16C-ACF3-42AE-9C26-25DCEE5A4935}">
       <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{C79D4C95-A2FA-4887-96DC-7C746F015FE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10" xr:uid="{48F5BE7D-5F59-4B5D-A488-104864EC18E3}">
       <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{31C57A55-793D-4314-90EE-3947816FAD7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{9028AD91-E96A-4D2A-B2A3-6F94739A937D}">
       <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{2875C8E3-1AA6-4283-BA6A-B0ED7E3E7451}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{786B06B2-2E18-4E07-817C-AFF8EF08A5C5}">
       <formula1>$AX$9:$AX$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A2352212-D4AC-4060-A6D0-EDF0F167C76E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C12D334A-9947-4F69-ADBA-610C067372DB}">
       <formula1>$AY$9:$AY$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{6A0898C7-A0E4-4D50-B77F-749952BD9BF8}">
-      <formula1>$BA$9:$BA$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7798E450-1C40-4081-9434-3CDB06544C0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{C77CFCD0-E9B6-4035-9AEC-88575ADC24B9}">
       <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{A24BB091-DB56-43A3-A3BF-F8F5DFC553A8}">
-      <formula1>"removed concentration, removal load"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{A9C3EE24-05FB-48EE-9886-7F2676DC7EE9}">
+      <formula1>$AZ$9:$AZ$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{BB7F2D5A-CB57-4074-84E0-B53AA22026FD}">
-      <formula1>$AZ$9:$AZ$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{F2F718D3-1F2B-4B75-B6F1-E58F1982C8E5}">
+      <formula1>$BA$9:$BA$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,13 +5453,13 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381FCCF2-EFA1-4EEE-A0C7-2DFF70FC5ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5B5E2-5BB6-4D8A-A59D-BCD5CAC9BC96}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -5689,183 +5478,183 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="114">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="114">
         <v>550</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="114">
         <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="114">
         <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="114">
         <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="114">
         <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="114">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="114">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="115">
+      <c r="B14" s="114">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="115">
+      <c r="B15" s="114">
         <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="115">
+      <c r="B16" s="114">
         <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="114">
         <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="115">
+      <c r="B18" s="114">
         <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="115">
+      <c r="B19" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="115">
+      <c r="B20" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="115">
+      <c r="B22" s="114">
         <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="115">
+      <c r="B23" s="114">
         <v>500</v>
       </c>
     </row>
@@ -5898,9 +5687,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$10, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6224,11 +6013,11 @@
       <c r="BA3" s="9">
         <v>11428.571428571429</v>
       </c>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F8" s="10"/>
@@ -6331,9 +6120,7 @@
   </sheetPr>
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BA2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6346,7 +6133,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
@@ -7364,14 +7151,14 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
+      <c r="B10" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7388,7 +7175,7 @@
   <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7403,7 +7190,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
@@ -7750,7 +7537,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7760,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD59B9B-19C0-4416-A0D6-A66B1B9F32F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D444DCF-56F0-450B-930F-1DD02EF4264D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -7780,18 +7567,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", [1]Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", [1]Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
+      <c r="A1" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -7964,214 +7750,162 @@
         <v>89</v>
       </c>
       <c r="B3" s="34">
-        <f>PadRates!B3*WellPressure!$Q$1</f>
         <v>50</v>
       </c>
       <c r="C3" s="34">
-        <f>PadRates!C3*WellPressure!$Q$1</f>
         <v>43.226861565393257</v>
       </c>
       <c r="D3" s="34">
-        <f>PadRates!D3*WellPressure!$Q$1</f>
         <v>39.698540540280661</v>
       </c>
       <c r="E3" s="34">
-        <f>PadRates!E3*WellPressure!$Q$1</f>
         <v>37.371231215873465</v>
       </c>
       <c r="F3" s="34">
-        <f>PadRates!F3*WellPressure!$Q$1</f>
         <v>35.660407645411759</v>
       </c>
       <c r="G3" s="34">
-        <f>PadRates!G3*WellPressure!$Q$1</f>
         <v>34.320866325657292</v>
       </c>
       <c r="H3" s="34">
-        <f>PadRates!H3*WellPressure!$Q$1</f>
         <v>33.227633834431956</v>
       </c>
       <c r="I3" s="34">
-        <f>PadRates!I3*WellPressure!$Q$1</f>
         <v>32.308820765937305</v>
       </c>
       <c r="J3" s="34">
-        <f>PadRates!J3*WellPressure!$Q$1</f>
         <v>31.519482420566142</v>
       </c>
       <c r="K3" s="34">
-        <f>PadRates!K3*WellPressure!$Q$1</f>
         <v>30.829750093074107</v>
       </c>
       <c r="L3" s="34">
-        <f>PadRates!L3*WellPressure!$Q$1</f>
         <v>30.218822690895305</v>
       </c>
       <c r="M3" s="34">
-        <f>PadRates!M3*WellPressure!$Q$1</f>
         <v>29.6716667492711</v>
       </c>
       <c r="N3" s="34">
-        <f>PadRates!N3*WellPressure!$Q$1</f>
         <v>29.177084983850378</v>
       </c>
       <c r="O3" s="34">
-        <f>PadRates!O3*WellPressure!$Q$1</f>
         <v>28.726526558131351</v>
       </c>
       <c r="P3" s="34">
-        <f>PadRates!P3*WellPressure!$Q$1</f>
         <v>28.313322771886266</v>
       </c>
       <c r="Q3" s="34">
-        <f>PadRates!Q3*WellPressure!$Q$1</f>
         <v>27.932178451805498</v>
       </c>
       <c r="R3" s="34">
-        <f>PadRates!R3*WellPressure!$Q$1</f>
         <v>27.578823208879022</v>
       </c>
       <c r="S3" s="34">
-        <f>PadRates!S3*WellPressure!$Q$1</f>
         <v>27.249766064133187</v>
       </c>
       <c r="T3" s="34">
-        <f>PadRates!T3*WellPressure!$Q$1</f>
         <v>26.942118882559804</v>
       </c>
       <c r="U3" s="34">
-        <f>PadRates!U3*WellPressure!$Q$1</f>
         <v>26.653466787379696</v>
       </c>
       <c r="V3" s="34">
-        <f>PadRates!V3*WellPressure!$Q$1</f>
         <v>26.381771376675967</v>
       </c>
       <c r="W3" s="34">
-        <f>PadRates!W3*WellPressure!$Q$1</f>
         <v>26.125297302569919</v>
       </c>
       <c r="X3" s="34">
-        <f>PadRates!X3*WellPressure!$Q$1</f>
         <v>25.882555787844932</v>
       </c>
       <c r="Y3" s="34">
-        <f>PadRates!Y3*WellPressure!$Q$1</f>
         <v>25.652260619704474</v>
       </c>
       <c r="Z3" s="34">
-        <f>PadRates!Z3*WellPressure!$Q$1</f>
         <v>25.433293468738825</v>
       </c>
       <c r="AA3" s="34">
-        <f>PadRates!AA3*WellPressure!$Q$1</f>
         <v>25.224676269572292</v>
       </c>
       <c r="AB3" s="34">
-        <f>PadRates!AB3*WellPressure!$Q$1</f>
         <v>25.025549013630176</v>
       </c>
       <c r="AC3" s="34">
-        <f>PadRates!AC3*WellPressure!$Q$1</f>
         <v>24.83515173565873</v>
       </c>
       <c r="AD3" s="34">
-        <f>PadRates!AD3*WellPressure!$Q$1</f>
         <v>24.652809782959771</v>
       </c>
       <c r="AE3" s="34">
-        <f>PadRates!AE3*WellPressure!$Q$1</f>
         <v>24.477921678332478</v>
       </c>
       <c r="AF3" s="34">
-        <f>PadRates!AF3*WellPressure!$Q$1</f>
         <v>24.309949050140045</v>
       </c>
       <c r="AG3" s="34">
-        <f>PadRates!AG3*WellPressure!$Q$1</f>
         <v>24.148408223121137</v>
       </c>
       <c r="AH3" s="34">
-        <f>PadRates!AH3*WellPressure!$Q$1</f>
         <v>23.99286315348121</v>
       </c>
       <c r="AI3" s="34">
-        <f>PadRates!AI3*WellPressure!$Q$1</f>
         <v>23.842919459733363</v>
       </c>
       <c r="AJ3" s="34">
-        <f>PadRates!AJ3*WellPressure!$Q$1</f>
         <v>23.69821935256639</v>
       </c>
       <c r="AK3" s="34">
-        <f>PadRates!AK3*WellPressure!$Q$1</f>
         <v>23.55843730687273</v>
       </c>
       <c r="AL3" s="34">
-        <f>PadRates!AL3*WellPressure!$Q$1</f>
         <v>23.423276349980757</v>
       </c>
       <c r="AM3" s="34">
-        <f>PadRates!AM3*WellPressure!$Q$1</f>
         <v>23.292464864295606</v>
       </c>
       <c r="AN3" s="34">
-        <f>PadRates!AN3*WellPressure!$Q$1</f>
         <v>23.165753821571975</v>
       </c>
       <c r="AO3" s="34">
-        <f>PadRates!AO3*WellPressure!$Q$1</f>
         <v>23.042914381117377</v>
       </c>
       <c r="AP3" s="34">
-        <f>PadRates!AP3*WellPressure!$Q$1</f>
         <v>22.923735796250238</v>
       </c>
       <c r="AQ3" s="34">
-        <f>PadRates!AQ3*WellPressure!$Q$1</f>
         <v>22.808023582988522</v>
       </c>
       <c r="AR3" s="34">
-        <f>PadRates!AR3*WellPressure!$Q$1</f>
         <v>22.695597912736286</v>
       </c>
       <c r="AS3" s="34">
-        <f>PadRates!AS3*WellPressure!$Q$1</f>
         <v>22.586292197058636</v>
       </c>
       <c r="AT3" s="34">
-        <f>PadRates!AT3*WellPressure!$Q$1</f>
         <v>22.479951837795571</v>
       </c>
       <c r="AU3" s="34">
-        <f>PadRates!AU3*WellPressure!$Q$1</f>
         <v>22.376433119994818</v>
       </c>
       <c r="AV3" s="34">
-        <f>PadRates!AV3*WellPressure!$Q$1</f>
         <v>22.275602228629186</v>
       </c>
       <c r="AW3" s="34">
-        <f>PadRates!AW3*WellPressure!$Q$1</f>
         <v>22.177334372947094</v>
       </c>
       <c r="AX3" s="34">
-        <f>PadRates!AX3*WellPressure!$Q$1</f>
         <v>22.081513004701744</v>
       </c>
       <c r="AY3" s="34">
-        <f>PadRates!AY3*WellPressure!$Q$1</f>
         <v>21.988029118503878</v>
       </c>
       <c r="AZ3" s="34">
-        <f>PadRates!AZ3*WellPressure!$Q$1</f>
         <v>21.896780624218341</v>
       </c>
       <c r="BA3" s="34">
-        <f>PadRates!BA3*WellPressure!$Q$1</f>
         <v>21.807671782733241</v>
       </c>
-      <c r="BB3" s="84"/>
+      <c r="BB3" s="83"/>
       <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8179,214 +7913,162 @@
         <v>90</v>
       </c>
       <c r="B4" s="34">
-        <f>PadRates!B4*WellPressure!$Q$1</f>
         <v>130</v>
       </c>
       <c r="C4" s="34">
-        <f>PadRates!C4*WellPressure!$Q$1</f>
         <v>101.99593272657759</v>
       </c>
       <c r="D4" s="34">
-        <f>PadRates!D4*WellPressure!$Q$1</f>
         <v>88.501557384298565</v>
       </c>
       <c r="E4" s="34">
-        <f>PadRates!E4*WellPressure!$Q$1</f>
         <v>80.024386867419565</v>
       </c>
       <c r="F4" s="34">
-        <f>PadRates!F4*WellPressure!$Q$1</f>
         <v>74.012291525269902</v>
       </c>
       <c r="G4" s="34">
-        <f>PadRates!G4*WellPressure!$Q$1</f>
         <v>69.436914562817392</v>
       </c>
       <c r="H4" s="34">
-        <f>PadRates!H4*WellPressure!$Q$1</f>
         <v>65.789871524644781</v>
       </c>
       <c r="I4" s="34">
-        <f>PadRates!I4*WellPressure!$Q$1</f>
         <v>62.785861380114973</v>
       </c>
       <c r="J4" s="34">
-        <f>PadRates!J4*WellPressure!$Q$1</f>
         <v>60.25019738035607</v>
       </c>
       <c r="K4" s="34">
-        <f>PadRates!K4*WellPressure!$Q$1</f>
         <v>58.068866979625213</v>
       </c>
       <c r="L4" s="34">
-        <f>PadRates!L4*WellPressure!$Q$1</f>
         <v>56.163726073325101</v>
       </c>
       <c r="M4" s="34">
-        <f>PadRates!M4*WellPressure!$Q$1</f>
         <v>54.47909897300184</v>
       </c>
       <c r="N4" s="34">
-        <f>PadRates!N4*WellPressure!$Q$1</f>
         <v>52.974050229787558</v>
       </c>
       <c r="O4" s="34">
-        <f>PadRates!O4*WellPressure!$Q$1</f>
         <v>51.617687000906557</v>
       </c>
       <c r="P4" s="34">
-        <f>PadRates!P4*WellPressure!$Q$1</f>
         <v>50.386177427439279</v>
       </c>
       <c r="Q4" s="34">
-        <f>PadRates!Q4*WellPressure!$Q$1</f>
         <v>49.260788411587946</v>
       </c>
       <c r="R4" s="34">
-        <f>PadRates!R4*WellPressure!$Q$1</f>
         <v>48.226553894531484</v>
       </c>
       <c r="S4" s="34">
-        <f>PadRates!S4*WellPressure!$Q$1</f>
         <v>47.271346759767852</v>
       </c>
       <c r="T4" s="34">
-        <f>PadRates!T4*WellPressure!$Q$1</f>
         <v>46.385216926550754</v>
       </c>
       <c r="U4" s="34">
-        <f>PadRates!U4*WellPressure!$Q$1</f>
         <v>45.55990961509567</v>
       </c>
       <c r="V4" s="34">
-        <f>PadRates!V4*WellPressure!$Q$1</f>
         <v>44.788508384953687</v>
       </c>
       <c r="W4" s="34">
-        <f>PadRates!W4*WellPressure!$Q$1</f>
         <v>44.065166355759992</v>
       </c>
       <c r="X4" s="34">
-        <f>PadRates!X4*WellPressure!$Q$1</f>
         <v>43.38490089293451</v>
       </c>
       <c r="Y4" s="34">
-        <f>PadRates!Y4*WellPressure!$Q$1</f>
         <v>42.743434721960448</v>
       </c>
       <c r="Z4" s="34">
-        <f>PadRates!Z4*WellPressure!$Q$1</f>
         <v>42.137071514011829</v>
       </c>
       <c r="AA4" s="34">
-        <f>PadRates!AA4*WellPressure!$Q$1</f>
         <v>41.562597411475018</v>
       </c>
       <c r="AB4" s="34">
-        <f>PadRates!AB4*WellPressure!$Q$1</f>
         <v>41.017202314406909</v>
       </c>
       <c r="AC4" s="34">
-        <f>PadRates!AC4*WellPressure!$Q$1</f>
         <v>40.498416391123101</v>
       </c>
       <c r="AD4" s="34">
-        <f>PadRates!AD4*WellPressure!$Q$1</f>
         <v>40.004058439727949</v>
       </c>
       <c r="AE4" s="34">
-        <f>PadRates!AE4*WellPressure!$Q$1</f>
         <v>39.532193563373077</v>
       </c>
       <c r="AF4" s="34">
-        <f>PadRates!AF4*WellPressure!$Q$1</f>
         <v>39.081098230304683</v>
       </c>
       <c r="AG4" s="34">
-        <f>PadRates!AG4*WellPressure!$Q$1</f>
         <v>38.649231237588431</v>
       </c>
       <c r="AH4" s="34">
-        <f>PadRates!AH4*WellPressure!$Q$1</f>
         <v>38.235209430726201</v>
       </c>
       <c r="AI4" s="34">
-        <f>PadRates!AI4*WellPressure!$Q$1</f>
         <v>37.837787282010005</v>
       </c>
       <c r="AJ4" s="34">
-        <f>PadRates!AJ4*WellPressure!$Q$1</f>
         <v>37.455839620708169</v>
       </c>
       <c r="AK4" s="34">
-        <f>PadRates!AK4*WellPressure!$Q$1</f>
         <v>37.08834695387695</v>
       </c>
       <c r="AL4" s="34">
-        <f>PadRates!AL4*WellPressure!$Q$1</f>
         <v>36.73438292910491</v>
       </c>
       <c r="AM4" s="34">
-        <f>PadRates!AM4*WellPressure!$Q$1</f>
         <v>36.393103578062913</v>
       </c>
       <c r="AN4" s="34">
-        <f>PadRates!AN4*WellPressure!$Q$1</f>
         <v>36.063738048386597</v>
       </c>
       <c r="AO4" s="34">
-        <f>PadRates!AO4*WellPressure!$Q$1</f>
         <v>35.74558058561734</v>
       </c>
       <c r="AP4" s="34">
-        <f>PadRates!AP4*WellPressure!$Q$1</f>
         <v>35.437983569997165</v>
       </c>
       <c r="AQ4" s="34">
-        <f>PadRates!AQ4*WellPressure!$Q$1</f>
         <v>35.140351447349943</v>
       </c>
       <c r="AR4" s="34">
-        <f>PadRates!AR4*WellPressure!$Q$1</f>
         <v>34.852135420978044</v>
       </c>
       <c r="AS4" s="34">
-        <f>PadRates!AS4*WellPressure!$Q$1</f>
         <v>34.5728287939042</v>
       </c>
       <c r="AT4" s="34">
-        <f>PadRates!AT4*WellPressure!$Q$1</f>
         <v>34.301962868999745</v>
       </c>
       <c r="AU4" s="34">
-        <f>PadRates!AU4*WellPressure!$Q$1</f>
         <v>34.039103329422957</v>
       </c>
       <c r="AV4" s="34">
-        <f>PadRates!AV4*WellPressure!$Q$1</f>
         <v>33.783847034009874</v>
       </c>
       <c r="AW4" s="34">
-        <f>PadRates!AW4*WellPressure!$Q$1</f>
         <v>33.535819172337995</v>
       </c>
       <c r="AX4" s="34">
-        <f>PadRates!AX4*WellPressure!$Q$1</f>
         <v>33.294670732532815</v>
       </c>
       <c r="AY4" s="34">
-        <f>PadRates!AY4*WellPressure!$Q$1</f>
         <v>33.060076241831837</v>
       </c>
       <c r="AZ4" s="34">
-        <f>PadRates!AZ4*WellPressure!$Q$1</f>
         <v>32.831731745721875</v>
       </c>
       <c r="BA4" s="34">
-        <f>PadRates!BA4*WellPressure!$Q$1</f>
         <v>32.609352996327956</v>
       </c>
-      <c r="BB4" s="84"/>
+      <c r="BB4" s="83"/>
       <c r="BC4" s="1"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -8394,642 +8076,486 @@
         <v>91</v>
       </c>
       <c r="B5" s="34">
-        <f>PadRates!B5*WellPressure!$Q$1</f>
         <v>80</v>
       </c>
       <c r="C5" s="34">
-        <f>PadRates!C5*WellPressure!$Q$1</f>
         <v>67.271713220297173</v>
       </c>
       <c r="D5" s="34">
-        <f>PadRates!D5*WellPressure!$Q$1</f>
         <v>60.786854852127398</v>
       </c>
       <c r="E5" s="34">
-        <f>PadRates!E5*WellPressure!$Q$1</f>
         <v>56.568542494923804</v>
       </c>
       <c r="F5" s="34">
-        <f>PadRates!F5*WellPressure!$Q$1</f>
         <v>53.499224398113761</v>
       </c>
       <c r="G5" s="34">
-        <f>PadRates!G5*WellPressure!$Q$1</f>
         <v>51.1154483397018</v>
       </c>
       <c r="H5" s="34">
-        <f>PadRates!H5*WellPressure!$Q$1</f>
         <v>49.183052236101162</v>
       </c>
       <c r="I5" s="34">
-        <f>PadRates!I5*WellPressure!$Q$1</f>
         <v>47.568284600108846</v>
       </c>
       <c r="J5" s="34">
-        <f>PadRates!J5*WellPressure!$Q$1</f>
         <v>46.188021535170058</v>
       </c>
       <c r="K5" s="34">
-        <f>PadRates!K5*WellPressure!$Q$1</f>
         <v>44.987306015227922</v>
       </c>
       <c r="L5" s="34">
-        <f>PadRates!L5*WellPressure!$Q$1</f>
         <v>43.928038942088996</v>
       </c>
       <c r="M5" s="34">
-        <f>PadRates!M5*WellPressure!$Q$1</f>
         <v>42.982797272941681</v>
       </c>
       <c r="N5" s="34">
-        <f>PadRates!N5*WellPressure!$Q$1</f>
         <v>42.131231027834126</v>
       </c>
       <c r="O5" s="34">
-        <f>PadRates!O5*WellPressure!$Q$1</f>
         <v>41.357852316573648</v>
       </c>
       <c r="P5" s="34">
-        <f>PadRates!P5*WellPressure!$Q$1</f>
         <v>40.650619852369175</v>
       </c>
       <c r="Q5" s="34">
-        <f>PadRates!Q5*WellPressure!$Q$1</f>
         <v>40</v>
       </c>
       <c r="R5" s="34">
-        <f>PadRates!R5*WellPressure!$Q$1</f>
         <v>39.398324840436189</v>
       </c>
       <c r="S5" s="34">
-        <f>PadRates!S5*WellPressure!$Q$1</f>
         <v>38.839341736585872</v>
       </c>
       <c r="T5" s="34">
-        <f>PadRates!T5*WellPressure!$Q$1</f>
         <v>38.317890035485973</v>
       </c>
       <c r="U5" s="34">
-        <f>PadRates!U5*WellPressure!$Q$1</f>
         <v>37.829664360127033</v>
       </c>
       <c r="V5" s="34">
-        <f>PadRates!V5*WellPressure!$Q$1</f>
         <v>37.371038218256011</v>
       </c>
       <c r="W5" s="34">
-        <f>PadRates!W5*WellPressure!$Q$1</f>
         <v>36.93893047552821</v>
       </c>
       <c r="X5" s="34">
-        <f>PadRates!X5*WellPressure!$Q$1</f>
         <v>36.530702839738503</v>
       </c>
       <c r="Y5" s="34">
-        <f>PadRates!Y5*WellPressure!$Q$1</f>
         <v>36.14408014439379</v>
       </c>
       <c r="Z5" s="34">
-        <f>PadRates!Z5*WellPressure!$Q$1</f>
         <v>35.777087639996637</v>
       </c>
       <c r="AA5" s="34">
-        <f>PadRates!AA5*WellPressure!$Q$1</f>
         <v>35.428001141531794</v>
       </c>
       <c r="AB5" s="34">
-        <f>PadRates!AB5*WellPressure!$Q$1</f>
         <v>35.095307012066471</v>
       </c>
       <c r="AC5" s="34">
-        <f>PadRates!AC5*WellPressure!$Q$1</f>
         <v>34.777669755599312</v>
       </c>
       <c r="AD5" s="34">
-        <f>PadRates!AD5*WellPressure!$Q$1</f>
         <v>34.473905556712481</v>
       </c>
       <c r="AE5" s="34">
-        <f>PadRates!AE5*WellPressure!$Q$1</f>
         <v>34.182960511698724</v>
       </c>
       <c r="AF5" s="34">
-        <f>PadRates!AF5*WellPressure!$Q$1</f>
         <v>33.903892593201732</v>
       </c>
       <c r="AG5" s="34">
-        <f>PadRates!AG5*WellPressure!$Q$1</f>
         <v>33.635856610148586</v>
       </c>
       <c r="AH5" s="34">
-        <f>PadRates!AH5*WellPressure!$Q$1</f>
         <v>33.378091588892048</v>
       </c>
       <c r="AI5" s="34">
-        <f>PadRates!AI5*WellPressure!$Q$1</f>
         <v>33.129910125324166</v>
       </c>
       <c r="AJ5" s="34">
-        <f>PadRates!AJ5*WellPressure!$Q$1</f>
         <v>32.890689352041584</v>
       </c>
       <c r="AK5" s="34">
-        <f>PadRates!AK5*WellPressure!$Q$1</f>
         <v>32.65986323710905</v>
       </c>
       <c r="AL5" s="34">
-        <f>PadRates!AL5*WellPressure!$Q$1</f>
         <v>32.436915987101592</v>
       </c>
       <c r="AM5" s="34">
-        <f>PadRates!AM5*WellPressure!$Q$1</f>
         <v>32.221376370926187</v>
       </c>
       <c r="AN5" s="34">
-        <f>PadRates!AN5*WellPressure!$Q$1</f>
         <v>32.012812815379995</v>
       </c>
       <c r="AO5" s="34">
-        <f>PadRates!AO5*WellPressure!$Q$1</f>
         <v>31.810829150682025</v>
       </c>
       <c r="AP5" s="34">
-        <f>PadRates!AP5*WellPressure!$Q$1</f>
         <v>31.615060905952383</v>
       </c>
       <c r="AQ5" s="34">
-        <f>PadRates!AQ5*WellPressure!$Q$1</f>
         <v>31.425172072041036</v>
       </c>
       <c r="AR5" s="34">
-        <f>PadRates!AR5*WellPressure!$Q$1</f>
         <v>31.24085226316129</v>
       </c>
       <c r="AS5" s="34">
-        <f>PadRates!AS5*WellPressure!$Q$1</f>
         <v>31.061814220177858</v>
       </c>
       <c r="AT5" s="34">
-        <f>PadRates!AT5*WellPressure!$Q$1</f>
         <v>30.887791607687177</v>
       </c>
       <c r="AU5" s="34">
-        <f>PadRates!AU5*WellPressure!$Q$1</f>
         <v>30.718537064634798</v>
       </c>
       <c r="AV5" s="34">
-        <f>PadRates!AV5*WellPressure!$Q$1</f>
         <v>30.553820474476272</v>
       </c>
       <c r="AW5" s="34">
-        <f>PadRates!AW5*WellPressure!$Q$1</f>
         <v>30.393427426063699</v>
       </c>
       <c r="AX5" s="34">
-        <f>PadRates!AX5*WellPressure!$Q$1</f>
         <v>30.237157840738181</v>
       </c>
       <c r="AY5" s="34">
-        <f>PadRates!AY5*WellPressure!$Q$1</f>
         <v>30.084824744691151</v>
       </c>
       <c r="AZ5" s="34">
-        <f>PadRates!AZ5*WellPressure!$Q$1</f>
         <v>29.936253168657</v>
       </c>
       <c r="BA5" s="34">
-        <f>PadRates!BA5*WellPressure!$Q$1</f>
         <v>29.791279159518584</v>
       </c>
-      <c r="BB5" s="84"/>
+      <c r="BB5" s="83"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="34">
-        <f>PadRates!B6*WellPressure!$Q$1</f>
         <v>20</v>
       </c>
       <c r="C6" s="34">
-        <f>PadRates!C6*WellPressure!$Q$1</f>
         <v>19.724654089867183</v>
       </c>
       <c r="D6" s="34">
-        <f>PadRates!D6*WellPressure!$Q$1</f>
         <v>19.565347714583421</v>
       </c>
       <c r="E6" s="34">
-        <f>PadRates!E6*WellPressure!$Q$1</f>
         <v>19.45309894824571</v>
       </c>
       <c r="F6" s="34">
-        <f>PadRates!F6*WellPressure!$Q$1</f>
         <v>19.366475714512596</v>
       </c>
       <c r="G6" s="34">
-        <f>PadRates!G6*WellPressure!$Q$1</f>
         <v>19.29598579090657</v>
       </c>
       <c r="H6" s="34">
-        <f>PadRates!H6*WellPressure!$Q$1</f>
         <v>19.236587614095988</v>
       </c>
       <c r="I6" s="34">
-        <f>PadRates!I6*WellPressure!$Q$1</f>
         <v>19.185282386505289</v>
       </c>
       <c r="J6" s="34">
-        <f>PadRates!J6*WellPressure!$Q$1</f>
         <v>19.14014155962774</v>
       </c>
       <c r="K6" s="34">
-        <f>PadRates!K6*WellPressure!$Q$1</f>
         <v>19.099851720428717</v>
       </c>
       <c r="L6" s="34">
-        <f>PadRates!L6*WellPressure!$Q$1</f>
         <v>19.063478193082773</v>
       </c>
       <c r="M6" s="34">
-        <f>PadRates!M6*WellPressure!$Q$1</f>
         <v>19.030332252431219</v>
       </c>
       <c r="N6" s="34">
-        <f>PadRates!N6*WellPressure!$Q$1</f>
         <v>18.999891837835946</v>
       </c>
       <c r="O6" s="34">
-        <f>PadRates!O6*WellPressure!$Q$1</f>
         <v>18.971751827873344</v>
       </c>
       <c r="P6" s="34">
-        <f>PadRates!P6*WellPressure!$Q$1</f>
         <v>18.945591568023726</v>
       </c>
       <c r="Q6" s="34">
-        <f>PadRates!Q6*WellPressure!$Q$1</f>
         <v>18.92115293451192</v>
       </c>
       <c r="R6" s="34">
-        <f>PadRates!R6*WellPressure!$Q$1</f>
         <v>18.898225082424748</v>
       </c>
       <c r="S6" s="34">
-        <f>PadRates!S6*WellPressure!$Q$1</f>
         <v>18.876633574737408</v>
       </c>
       <c r="T6" s="34">
-        <f>PadRates!T6*WellPressure!$Q$1</f>
         <v>18.856232464552253</v>
       </c>
       <c r="U6" s="34">
-        <f>PadRates!U6*WellPressure!$Q$1</f>
         <v>18.836898417660557</v>
       </c>
       <c r="V6" s="34">
-        <f>PadRates!V6*WellPressure!$Q$1</f>
         <v>18.818526275591836</v>
       </c>
       <c r="W6" s="34">
-        <f>PadRates!W6*WellPressure!$Q$1</f>
         <v>18.8010256554142</v>
       </c>
       <c r="X6" s="34">
-        <f>PadRates!X6*WellPressure!$Q$1</f>
         <v>18.784318308654296</v>
       </c>
       <c r="Y6" s="34">
-        <f>PadRates!Y6*WellPressure!$Q$1</f>
         <v>18.768336044722442</v>
       </c>
       <c r="Z6" s="34">
-        <f>PadRates!Z6*WellPressure!$Q$1</f>
         <v>18.75301908004031</v>
       </c>
       <c r="AA6" s="34">
-        <f>PadRates!AA6*WellPressure!$Q$1</f>
         <v>18.738314712310245</v>
       </c>
       <c r="AB6" s="34">
-        <f>PadRates!AB6*WellPressure!$Q$1</f>
         <v>18.724176246023287</v>
       </c>
       <c r="AC6" s="34">
-        <f>PadRates!AC6*WellPressure!$Q$1</f>
         <v>18.710562114180359</v>
       </c>
       <c r="AD6" s="34">
-        <f>PadRates!AD6*WellPressure!$Q$1</f>
         <v>18.697435154762537</v>
       </c>
       <c r="AE6" s="34">
-        <f>PadRates!AE6*WellPressure!$Q$1</f>
         <v>18.684762010358615</v>
       </c>
       <c r="AF6" s="34">
-        <f>PadRates!AF6*WellPressure!$Q$1</f>
         <v>18.672512626632653</v>
       </c>
       <c r="AG6" s="34">
-        <f>PadRates!AG6*WellPressure!$Q$1</f>
         <v>18.660659830736151</v>
       </c>
       <c r="AH6" s="34">
-        <f>PadRates!AH6*WellPressure!$Q$1</f>
         <v>18.649178974852152</v>
       </c>
       <c r="AI6" s="34">
-        <f>PadRates!AI6*WellPressure!$Q$1</f>
         <v>18.638047633163993</v>
       </c>
       <c r="AJ6" s="34">
-        <f>PadRates!AJ6*WellPressure!$Q$1</f>
         <v>18.627245342924191</v>
       </c>
       <c r="AK6" s="34">
-        <f>PadRates!AK6*WellPressure!$Q$1</f>
         <v>18.616753382143422</v>
       </c>
       <c r="AL6" s="34">
-        <f>PadRates!AL6*WellPressure!$Q$1</f>
         <v>18.606554577858702</v>
       </c>
       <c r="AM6" s="34">
-        <f>PadRates!AM6*WellPressure!$Q$1</f>
         <v>18.59663314007085</v>
       </c>
       <c r="AN6" s="34">
-        <f>PadRates!AN6*WellPressure!$Q$1</f>
         <v>18.586974517336788</v>
       </c>
       <c r="AO6" s="34">
-        <f>PadRates!AO6*WellPressure!$Q$1</f>
         <v>18.577565270716047</v>
       </c>
       <c r="AP6" s="34">
-        <f>PadRates!AP6*WellPressure!$Q$1</f>
         <v>18.568392963342752</v>
       </c>
       <c r="AQ6" s="34">
-        <f>PadRates!AQ6*WellPressure!$Q$1</f>
         <v>18.559446063356276</v>
       </c>
       <c r="AR6" s="34">
-        <f>PadRates!AR6*WellPressure!$Q$1</f>
         <v>18.550713858298163</v>
       </c>
       <c r="AS6" s="34">
-        <f>PadRates!AS6*WellPressure!$Q$1</f>
         <v>18.54218637938818</v>
       </c>
       <c r="AT6" s="34">
-        <f>PadRates!AT6*WellPressure!$Q$1</f>
         <v>18.533854334343193</v>
       </c>
       <c r="AU6" s="34">
-        <f>PadRates!AU6*WellPressure!$Q$1</f>
         <v>18.525709047608249</v>
       </c>
       <c r="AV6" s="34">
-        <f>PadRates!AV6*WellPressure!$Q$1</f>
         <v>18.517742407040306</v>
       </c>
       <c r="AW6" s="34">
-        <f>PadRates!AW6*WellPressure!$Q$1</f>
         <v>18.509946816226808</v>
       </c>
       <c r="AX6" s="34">
-        <f>PadRates!AX6*WellPressure!$Q$1</f>
         <v>18.502315151739563</v>
       </c>
       <c r="AY6" s="34">
-        <f>PadRates!AY6*WellPressure!$Q$1</f>
         <v>18.494840724723719</v>
       </c>
       <c r="AZ6" s="34">
-        <f>PadRates!AZ6*WellPressure!$Q$1</f>
         <v>18.48751724630511</v>
       </c>
       <c r="BA6" s="34">
-        <f>PadRates!BA6*WellPressure!$Q$1</f>
         <v>18.480338796369434</v>
       </c>
-      <c r="BB6" s="84"/>
+      <c r="BB6" s="83"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="34">
-        <f>FlowbackRates!B3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="C7" s="34">
-        <f>FlowbackRates!C3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="D7" s="34">
-        <f>FlowbackRates!D3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="E7" s="34">
-        <f>FlowbackRates!E3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="F7" s="34">
-        <f>FlowbackRates!F3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="G7" s="34">
-        <f>FlowbackRates!G3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="H7" s="34">
-        <f>FlowbackRates!H3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="I7" s="34">
-        <f>FlowbackRates!I3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="J7" s="34">
-        <f>FlowbackRates!J3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="K7" s="34">
-        <f>FlowbackRates!K3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="L7" s="34">
-        <f>FlowbackRates!L3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="M7" s="34">
-        <f>FlowbackRates!M3*WellPressure!$Q$1</f>
         <v>0</v>
       </c>
       <c r="N7" s="34">
-        <f>FlowbackRates!N3*WellPressure!$Q$1</f>
         <v>320</v>
       </c>
       <c r="O7" s="34">
-        <f>FlowbackRates!O3*WellPressure!$Q$1</f>
         <v>251.06691132696025</v>
       </c>
       <c r="P7" s="34">
-        <f>FlowbackRates!P3*WellPressure!$Q$1</f>
         <v>217.84998740750413</v>
       </c>
       <c r="Q7" s="34">
-        <f>FlowbackRates!Q3*WellPressure!$Q$1</f>
         <v>196.9831061351866</v>
       </c>
       <c r="R7" s="34">
-        <f>FlowbackRates!R3*WellPressure!$Q$1</f>
         <v>182.18410221604901</v>
       </c>
       <c r="S7" s="34">
-        <f>FlowbackRates!S3*WellPressure!$Q$1</f>
         <v>170.92163584693515</v>
       </c>
       <c r="T7" s="34">
-        <f>FlowbackRates!T3*WellPressure!$Q$1</f>
         <v>161.94429913758717</v>
       </c>
       <c r="U7" s="34">
-        <f>FlowbackRates!U3*WellPressure!$Q$1</f>
         <v>154.54981262797531</v>
       </c>
       <c r="V7" s="34">
-        <f>FlowbackRates!V3*WellPressure!$Q$1</f>
         <v>148.30817816703032</v>
       </c>
       <c r="W7" s="34">
-        <f>FlowbackRates!W3*WellPressure!$Q$1</f>
         <v>142.93874948830822</v>
       </c>
       <c r="X7" s="34">
-        <f>FlowbackRates!X3*WellPressure!$Q$1</f>
         <v>138.24917187280025</v>
       </c>
       <c r="Y7" s="34">
-        <f>FlowbackRates!Y3*WellPressure!$Q$1</f>
         <v>134.10239747200455</v>
       </c>
       <c r="Z7" s="34">
-        <f>FlowbackRates!Z3*WellPressure!$Q$1</f>
         <v>130.39766210409243</v>
       </c>
       <c r="AA7" s="34">
-        <f>FlowbackRates!AA3*WellPressure!$Q$1</f>
         <v>127.05892184838537</v>
       </c>
       <c r="AB7" s="34">
-        <f>FlowbackRates!AB3*WellPressure!$Q$1</f>
         <v>124.02751366754285</v>
       </c>
       <c r="AC7" s="34">
-        <f>FlowbackRates!AC3*WellPressure!$Q$1</f>
         <v>121.25732532083187</v>
       </c>
       <c r="AD7" s="34">
-        <f>FlowbackRates!AD3*WellPressure!$Q$1</f>
         <v>118.71151727884671</v>
       </c>
       <c r="AE7" s="34">
-        <f>FlowbackRates!AE3*WellPressure!$Q$1</f>
         <v>116.3602381778901</v>
       </c>
       <c r="AF7" s="34">
-        <f>FlowbackRates!AF3*WellPressure!$Q$1</f>
         <v>114.17899551150956</v>
       </c>
       <c r="AG7" s="34">
-        <f>FlowbackRates!AG3*WellPressure!$Q$1</f>
         <v>112.14746982177395</v>
       </c>
       <c r="AH7" s="34">
-        <f>FlowbackRates!AH3*WellPressure!$Q$1</f>
         <v>110.24863602450138</v>
       </c>
       <c r="AI7" s="34">
-        <f>FlowbackRates!AI3*WellPressure!$Q$1</f>
         <v>108.46810179879381</v>
       </c>
       <c r="AJ7" s="34">
-        <f>FlowbackRates!AJ3*WellPressure!$Q$1</f>
         <v>106.79360219799264</v>
       </c>
       <c r="AK7" s="34">
-        <f>FlowbackRates!AK3*WellPressure!$Q$1</f>
         <v>105.21460854636418</v>
       </c>
       <c r="AL7" s="34">
-        <f>FlowbackRates!AL3*WellPressure!$Q$1</f>
         <v>103.72202218833682</v>
       </c>
       <c r="AM7" s="34">
-        <f>FlowbackRates!AM3*WellPressure!$Q$1</f>
         <v>102.30793208978467</v>
       </c>
       <c r="AN7" s="34">
-        <f>FlowbackRates!AN3*WellPressure!$Q$1</f>
         <v>100.965421081617</v>
       </c>
       <c r="AO7" s="34">
-        <f>FlowbackRates!AO3*WellPressure!$Q$1</f>
         <v>99.688409578149162</v>
       </c>
       <c r="AP7" s="34">
-        <f>FlowbackRates!AP3*WellPressure!$Q$1</f>
         <v>98.471528467022637</v>
       </c>
       <c r="AQ7" s="34">
-        <f>FlowbackRates!AQ3*WellPressure!$Q$1</f>
         <v>97.310014925226028</v>
       </c>
       <c r="AR7" s="34">
-        <f>FlowbackRates!AR3*WellPressure!$Q$1</f>
         <v>96.199626413057672</v>
       </c>
       <c r="AS7" s="34">
-        <f>FlowbackRates!AS3*WellPressure!$Q$1</f>
         <v>95.136569200217693</v>
       </c>
       <c r="AT7" s="34">
-        <f>FlowbackRates!AT3*WellPressure!$Q$1</f>
         <v>94.117438598710649</v>
       </c>
       <c r="AU7" s="34">
-        <f>FlowbackRates!AU3*WellPressure!$Q$1</f>
         <v>93.139168694178466</v>
       </c>
       <c r="AV7" s="34">
-        <f>FlowbackRates!AV3*WellPressure!$Q$1</f>
         <v>92.19898983558933</v>
       </c>
       <c r="AW7" s="34">
-        <f>FlowbackRates!AW3*WellPressure!$Q$1</f>
         <v>91.294392501850965</v>
       </c>
       <c r="AX7" s="34">
-        <f>FlowbackRates!AX3*WellPressure!$Q$1</f>
         <v>90.423096440873636</v>
       </c>
       <c r="AY7" s="34">
-        <f>FlowbackRates!AY3*WellPressure!$Q$1</f>
         <v>89.583024192154866</v>
       </c>
       <c r="AZ7" s="34">
-        <f>FlowbackRates!AZ3*WellPressure!$Q$1</f>
         <v>88.772278272951624</v>
       </c>
       <c r="BA7" s="34">
-        <f>FlowbackRates!BA3*WellPressure!$Q$1</f>
         <v>87.9891214415196</v>
       </c>
-      <c r="BB7" s="84"/>
+      <c r="BB7" s="83"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
@@ -9085,7 +8611,7 @@
       <c r="AY8" s="34"/>
       <c r="AZ8" s="34"/>
       <c r="BA8" s="35"/>
-      <c r="BB8" s="84"/>
+      <c r="BB8" s="83"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
@@ -9141,7 +8667,7 @@
       <c r="AY9" s="34"/>
       <c r="AZ9" s="34"/>
       <c r="BA9" s="35"/>
-      <c r="BB9" s="84"/>
+      <c r="BB9" s="83"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
@@ -9197,7 +8723,7 @@
       <c r="AY10" s="34"/>
       <c r="AZ10" s="34"/>
       <c r="BA10" s="35"/>
-      <c r="BB10" s="84"/>
+      <c r="BB10" s="83"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
@@ -9253,7 +8779,7 @@
       <c r="AY11" s="34"/>
       <c r="AZ11" s="34"/>
       <c r="BA11" s="35"/>
-      <c r="BB11" s="84"/>
+      <c r="BB11" s="83"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
@@ -9309,7 +8835,7 @@
       <c r="AY12" s="34"/>
       <c r="AZ12" s="34"/>
       <c r="BA12" s="35"/>
-      <c r="BB12" s="84"/>
+      <c r="BB12" s="83"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -9365,7 +8891,7 @@
       <c r="AY13" s="34"/>
       <c r="AZ13" s="34"/>
       <c r="BA13" s="35"/>
-      <c r="BB13" s="84"/>
+      <c r="BB13" s="83"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
@@ -9421,7 +8947,7 @@
       <c r="AY14" s="34"/>
       <c r="AZ14" s="34"/>
       <c r="BA14" s="35"/>
-      <c r="BB14" s="84"/>
+      <c r="BB14" s="83"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
@@ -9477,7 +9003,7 @@
       <c r="AY15" s="34"/>
       <c r="AZ15" s="34"/>
       <c r="BA15" s="35"/>
-      <c r="BB15" s="84"/>
+      <c r="BB15" s="83"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
@@ -9533,7 +9059,7 @@
       <c r="AY16" s="34"/>
       <c r="AZ16" s="34"/>
       <c r="BA16" s="35"/>
-      <c r="BB16" s="84"/>
+      <c r="BB16" s="83"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -9589,7 +9115,7 @@
       <c r="AY17" s="34"/>
       <c r="AZ17" s="34"/>
       <c r="BA17" s="35"/>
-      <c r="BB17" s="84"/>
+      <c r="BB17" s="83"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
@@ -9645,7 +9171,7 @@
       <c r="AY18" s="34"/>
       <c r="AZ18" s="34"/>
       <c r="BA18" s="35"/>
-      <c r="BB18" s="84"/>
+      <c r="BB18" s="83"/>
     </row>
     <row r="19" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
@@ -9701,17 +9227,17 @@
       <c r="AY19" s="36"/>
       <c r="AZ19" s="36"/>
       <c r="BA19" s="37"/>
-      <c r="BB19" s="84"/>
+      <c r="BB19" s="83"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9726,8 +9252,8 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P21"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9737,7 +9263,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
@@ -9769,22 +9295,22 @@
       <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>117</v>
       </c>
       <c r="P2" s="25" t="s">
@@ -9819,22 +9345,22 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="77">
         <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="77">
         <v>0</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="78">
-        <v>0</v>
-      </c>
-      <c r="O3" s="92">
+      <c r="N3" s="77">
+        <v>0</v>
+      </c>
+      <c r="O3" s="91">
         <v>0</v>
       </c>
       <c r="P3" s="29">
@@ -9869,22 +9395,22 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="77">
         <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="77">
         <v>0</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="78">
-        <v>0</v>
-      </c>
-      <c r="O4" s="92">
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="91">
         <v>0</v>
       </c>
       <c r="P4" s="29">
@@ -9919,22 +9445,22 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="77">
         <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="77">
         <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="78">
-        <v>0</v>
-      </c>
-      <c r="O5" s="92">
+      <c r="N5" s="77">
+        <v>0</v>
+      </c>
+      <c r="O5" s="91">
         <v>0</v>
       </c>
       <c r="P5" s="29">
@@ -9942,102 +9468,102 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="79">
-        <v>0</v>
-      </c>
-      <c r="C6" s="79">
-        <v>0</v>
-      </c>
-      <c r="D6" s="79">
-        <v>0</v>
-      </c>
-      <c r="E6" s="79">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79">
-        <v>0</v>
-      </c>
-      <c r="G6" s="79">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79">
-        <v>0</v>
-      </c>
-      <c r="I6" s="79">
-        <v>0</v>
-      </c>
-      <c r="J6" s="80">
-        <v>0</v>
-      </c>
-      <c r="K6" s="79">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="79">
-        <v>0</v>
-      </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="93">
-        <v>0</v>
-      </c>
-      <c r="P6" s="82">
+      <c r="B6" s="78">
+        <v>0</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="78">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="92">
+        <v>0</v>
+      </c>
+      <c r="P6" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="79">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0</v>
-      </c>
-      <c r="D7" s="79">
-        <v>0</v>
-      </c>
-      <c r="E7" s="79">
-        <v>0</v>
-      </c>
-      <c r="F7" s="79">
-        <v>0</v>
-      </c>
-      <c r="G7" s="79">
-        <v>0</v>
-      </c>
-      <c r="H7" s="79">
-        <v>0</v>
-      </c>
-      <c r="I7" s="79">
+      <c r="B7" s="78">
+        <v>0</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
         <v>42857</v>
       </c>
-      <c r="J7" s="80">
-        <v>0</v>
-      </c>
-      <c r="K7" s="79">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="79">
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <v>0</v>
-      </c>
-      <c r="O7" s="93">
-        <v>0</v>
-      </c>
-      <c r="P7" s="82">
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10069,22 +9595,22 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="77">
         <v>0</v>
       </c>
       <c r="K8" s="7">
         <v>42857</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="77">
         <v>0</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="78">
-        <v>0</v>
-      </c>
-      <c r="O8" s="92">
+      <c r="N8" s="77">
+        <v>0</v>
+      </c>
+      <c r="O8" s="91">
         <v>0</v>
       </c>
       <c r="P8" s="29">
@@ -10119,22 +9645,22 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="77">
         <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="77">
         <v>0</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="78">
-        <v>0</v>
-      </c>
-      <c r="O9" s="92">
+      <c r="N9" s="77">
+        <v>0</v>
+      </c>
+      <c r="O9" s="91">
         <v>0</v>
       </c>
       <c r="P9" s="29">
@@ -10169,22 +9695,22 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="77">
         <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="77">
         <v>0</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="78">
-        <v>0</v>
-      </c>
-      <c r="O10" s="92">
+      <c r="N10" s="77">
+        <v>0</v>
+      </c>
+      <c r="O10" s="91">
         <v>0</v>
       </c>
       <c r="P10" s="29">
@@ -10219,22 +9745,22 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="77">
         <v>0</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="77">
         <v>42857</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="78">
-        <v>0</v>
-      </c>
-      <c r="O11" s="92">
+      <c r="N11" s="77">
+        <v>0</v>
+      </c>
+      <c r="O11" s="91">
         <v>0</v>
       </c>
       <c r="P11" s="29">
@@ -10269,22 +9795,22 @@
       <c r="I12" s="7">
         <v>42857</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="77">
         <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="77">
         <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="78">
-        <v>0</v>
-      </c>
-      <c r="O12" s="92">
+      <c r="N12" s="77">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
         <v>0</v>
       </c>
       <c r="P12" s="29">
@@ -10319,22 +9845,22 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="77">
         <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="78">
-        <v>0</v>
-      </c>
-      <c r="O13" s="92">
+      <c r="N13" s="77">
+        <v>0</v>
+      </c>
+      <c r="O13" s="91">
         <v>0</v>
       </c>
       <c r="P13" s="29">
@@ -10369,22 +9895,22 @@
       <c r="I14" s="7">
         <v>42857</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="77">
         <v>0</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="77">
         <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="78">
-        <v>0</v>
-      </c>
-      <c r="O14" s="92">
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+      <c r="O14" s="91">
         <v>0</v>
       </c>
       <c r="P14" s="29">
@@ -10419,22 +9945,22 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="77">
         <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="77">
         <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="78">
-        <v>0</v>
-      </c>
-      <c r="O15" s="92">
+      <c r="N15" s="77">
+        <v>0</v>
+      </c>
+      <c r="O15" s="91">
         <v>0</v>
       </c>
       <c r="P15" s="29">
@@ -10442,102 +9968,102 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="79">
-        <v>0</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" s="79">
-        <v>0</v>
-      </c>
-      <c r="E16" s="79">
-        <v>0</v>
-      </c>
-      <c r="F16" s="79">
-        <v>0</v>
-      </c>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="79">
-        <v>0</v>
-      </c>
-      <c r="I16" s="79">
-        <v>0</v>
-      </c>
-      <c r="J16" s="80">
-        <v>0</v>
-      </c>
-      <c r="K16" s="79">
-        <v>0</v>
-      </c>
-      <c r="L16" s="80">
-        <v>0</v>
-      </c>
-      <c r="M16" s="79">
-        <v>0</v>
-      </c>
-      <c r="N16" s="80">
-        <v>0</v>
-      </c>
-      <c r="O16" s="93">
-        <v>0</v>
-      </c>
-      <c r="P16" s="82">
+      <c r="B16" s="78">
+        <v>0</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78">
+        <v>0</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
+        <v>0</v>
+      </c>
+      <c r="O16" s="92">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="79">
-        <v>0</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>0</v>
-      </c>
-      <c r="E17" s="79">
-        <v>0</v>
-      </c>
-      <c r="F17" s="79">
-        <v>0</v>
-      </c>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="79">
-        <v>0</v>
-      </c>
-      <c r="I17" s="79">
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <v>0</v>
-      </c>
-      <c r="K17" s="79">
-        <v>0</v>
-      </c>
-      <c r="L17" s="80">
-        <v>0</v>
-      </c>
-      <c r="M17" s="79">
-        <v>0</v>
-      </c>
-      <c r="N17" s="80">
-        <v>0</v>
-      </c>
-      <c r="O17" s="93">
-        <v>0</v>
-      </c>
-      <c r="P17" s="82">
+      <c r="B17" s="78">
+        <v>0</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79">
+        <v>0</v>
+      </c>
+      <c r="O17" s="92">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
         <v>0</v>
       </c>
     </row>
@@ -10569,22 +10095,22 @@
       <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="77">
         <v>0</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="77">
         <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="78">
-        <v>0</v>
-      </c>
-      <c r="O18" s="92">
+      <c r="N18" s="77">
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
         <v>0</v>
       </c>
       <c r="P18" s="29">
@@ -10592,52 +10118,52 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="79">
-        <v>0</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0</v>
-      </c>
-      <c r="D19" s="79">
-        <v>0</v>
-      </c>
-      <c r="E19" s="79">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79">
-        <v>0</v>
-      </c>
-      <c r="I19" s="79">
-        <v>0</v>
-      </c>
-      <c r="J19" s="80">
-        <v>0</v>
-      </c>
-      <c r="K19" s="79">
-        <v>0</v>
-      </c>
-      <c r="L19" s="80">
-        <v>0</v>
-      </c>
-      <c r="M19" s="79">
-        <v>0</v>
-      </c>
-      <c r="N19" s="80">
-        <v>0</v>
-      </c>
-      <c r="O19" s="93">
-        <v>0</v>
-      </c>
-      <c r="P19" s="82">
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="79">
+        <v>0</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92">
+        <v>0</v>
+      </c>
+      <c r="P19" s="81">
         <v>42857</v>
       </c>
     </row>
@@ -10669,22 +10195,22 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="77">
         <v>0</v>
       </c>
       <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="77">
         <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="78">
-        <v>0</v>
-      </c>
-      <c r="O20" s="92">
+      <c r="N20" s="77">
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
         <v>0</v>
       </c>
       <c r="P20" s="29">
@@ -10719,22 +10245,22 @@
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="82">
         <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="82">
         <v>0</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="83">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
+      <c r="N21" s="82">
+        <v>0</v>
+      </c>
+      <c r="O21" s="93">
         <v>71429</v>
       </c>
       <c r="P21" s="9">
@@ -10748,7 +10274,1019 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B5B52-F914-405C-9A0A-41AF6A283F20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1704-24BE-48F1-9574-42F155399A4D}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7">
+        <v>14206</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="77">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="77">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="77">
+        <v>0</v>
+      </c>
+      <c r="O3" s="91">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>14206</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="77">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="77">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="91">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>14206</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="77">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="77">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77">
+        <v>0</v>
+      </c>
+      <c r="O5" s="91">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="78">
+        <v>0</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="78">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="92">
+        <v>0</v>
+      </c>
+      <c r="P6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="78">
+        <v>0</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
+        <v>42857</v>
+      </c>
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42857</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>42857</v>
+      </c>
+      <c r="L8" s="77">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="77">
+        <v>0</v>
+      </c>
+      <c r="O8" s="91">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42857</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>42857</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="77">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="77">
+        <v>0</v>
+      </c>
+      <c r="O9" s="91">
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>42857</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="77">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="77">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="77">
+        <v>0</v>
+      </c>
+      <c r="O10" s="91">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>42857</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="77">
+        <v>42857</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="77">
+        <v>0</v>
+      </c>
+      <c r="O11" s="91">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42857</v>
+      </c>
+      <c r="J12" s="77">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="77">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="77">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42857</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="77">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="77">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="77">
+        <v>0</v>
+      </c>
+      <c r="O13" s="91">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>42857</v>
+      </c>
+      <c r="J14" s="77">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="77">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+      <c r="O14" s="91">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="77">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="77">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="77">
+        <v>0</v>
+      </c>
+      <c r="O15" s="91">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="78">
+        <v>0</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78">
+        <v>0</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
+        <v>0</v>
+      </c>
+      <c r="O16" s="92">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="78">
+        <v>0</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79">
+        <v>0</v>
+      </c>
+      <c r="O17" s="92">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="77">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="77">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
+        <v>0</v>
+      </c>
+      <c r="P18" s="29">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="79">
+        <v>0</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92">
+        <v>0</v>
+      </c>
+      <c r="P19" s="81">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="77">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="77">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="82">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="82">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="82">
+        <v>0</v>
+      </c>
+      <c r="O21" s="93">
+        <v>71429</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E21CA-E0F8-4445-8FC2-328828AC1FFE}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
@@ -10771,7 +11309,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -10802,71 +11340,71 @@
       <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>117</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="116"/>
-      <c r="BF2" s="116"/>
-      <c r="BG2" s="116"/>
-      <c r="BH2" s="116"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="115"/>
+      <c r="BA2" s="115"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="115"/>
+      <c r="BD2" s="115"/>
+      <c r="BE2" s="115"/>
+      <c r="BF2" s="115"/>
+      <c r="BG2" s="115"/>
+      <c r="BH2" s="115"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -10896,22 +11434,22 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="77">
         <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="77">
         <v>0</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="78">
-        <v>0</v>
-      </c>
-      <c r="O3" s="92">
+      <c r="N3" s="77">
+        <v>0</v>
+      </c>
+      <c r="O3" s="91">
         <v>0</v>
       </c>
       <c r="P3" s="29">
@@ -10990,22 +11528,22 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="77">
         <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="77">
         <v>0</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="78">
-        <v>0</v>
-      </c>
-      <c r="O4" s="92">
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="91">
         <v>0</v>
       </c>
       <c r="P4" s="29">
@@ -11084,22 +11622,22 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="77">
         <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="77">
         <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="78">
-        <v>0</v>
-      </c>
-      <c r="O5" s="92">
+      <c r="N5" s="77">
+        <v>0</v>
+      </c>
+      <c r="O5" s="91">
         <v>0</v>
       </c>
       <c r="P5" s="29">
@@ -11151,52 +11689,52 @@
       <c r="BH5" s="7"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="79">
-        <v>0</v>
-      </c>
-      <c r="C6" s="79">
-        <v>0</v>
-      </c>
-      <c r="D6" s="79">
-        <v>0</v>
-      </c>
-      <c r="E6" s="79">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79">
-        <v>0</v>
-      </c>
-      <c r="G6" s="79">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79">
-        <v>0</v>
-      </c>
-      <c r="I6" s="79">
-        <v>0</v>
-      </c>
-      <c r="J6" s="80">
-        <v>0</v>
-      </c>
-      <c r="K6" s="79">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="79">
-        <v>0</v>
-      </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="93">
-        <v>0</v>
-      </c>
-      <c r="P6" s="82">
+      <c r="B6" s="78">
+        <v>0</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="78">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="92">
+        <v>0</v>
+      </c>
+      <c r="P6" s="81">
         <v>0</v>
       </c>
       <c r="Q6" s="7"/>
@@ -11245,52 +11783,52 @@
       <c r="BH6" s="7"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="79">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0</v>
-      </c>
-      <c r="D7" s="79">
-        <v>0</v>
-      </c>
-      <c r="E7" s="79">
-        <v>0</v>
-      </c>
-      <c r="F7" s="79">
-        <v>0</v>
-      </c>
-      <c r="G7" s="79">
-        <v>0</v>
-      </c>
-      <c r="H7" s="79">
-        <v>0</v>
-      </c>
-      <c r="I7" s="79">
+      <c r="B7" s="78">
+        <v>0</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
         <v>6</v>
       </c>
-      <c r="J7" s="80">
-        <v>0</v>
-      </c>
-      <c r="K7" s="79">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="79">
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <v>0</v>
-      </c>
-      <c r="O7" s="93">
-        <v>0</v>
-      </c>
-      <c r="P7" s="82">
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="81">
         <v>0</v>
       </c>
       <c r="Q7" s="7"/>
@@ -11366,22 +11904,22 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="77">
         <v>0</v>
       </c>
       <c r="K8" s="7">
         <v>8</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="77">
         <v>0</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="78">
-        <v>0</v>
-      </c>
-      <c r="O8" s="92">
+      <c r="N8" s="77">
+        <v>0</v>
+      </c>
+      <c r="O8" s="91">
         <v>0</v>
       </c>
       <c r="P8" s="29">
@@ -11460,22 +11998,22 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="77">
         <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="77">
         <v>0</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="78">
-        <v>0</v>
-      </c>
-      <c r="O9" s="92">
+      <c r="N9" s="77">
+        <v>0</v>
+      </c>
+      <c r="O9" s="91">
         <v>0</v>
       </c>
       <c r="P9" s="29">
@@ -11554,22 +12092,22 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="77">
         <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="77">
         <v>0</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="78">
-        <v>0</v>
-      </c>
-      <c r="O10" s="92">
+      <c r="N10" s="77">
+        <v>0</v>
+      </c>
+      <c r="O10" s="91">
         <v>0</v>
       </c>
       <c r="P10" s="29">
@@ -11648,22 +12186,22 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="77">
         <v>0</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="77">
         <v>8</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="78">
-        <v>0</v>
-      </c>
-      <c r="O11" s="92">
+      <c r="N11" s="77">
+        <v>0</v>
+      </c>
+      <c r="O11" s="91">
         <v>0</v>
       </c>
       <c r="P11" s="29">
@@ -11742,22 +12280,22 @@
       <c r="I12" s="7">
         <v>8</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="77">
         <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="77">
         <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="78">
-        <v>0</v>
-      </c>
-      <c r="O12" s="92">
+      <c r="N12" s="77">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
         <v>0</v>
       </c>
       <c r="P12" s="29">
@@ -11836,22 +12374,22 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="77">
         <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="78">
-        <v>0</v>
-      </c>
-      <c r="O13" s="92">
+      <c r="N13" s="77">
+        <v>0</v>
+      </c>
+      <c r="O13" s="91">
         <v>0</v>
       </c>
       <c r="P13" s="29">
@@ -11930,22 +12468,22 @@
       <c r="I14" s="7">
         <v>8</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="77">
         <v>0</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="77">
         <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="78">
-        <v>0</v>
-      </c>
-      <c r="O14" s="92">
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+      <c r="O14" s="91">
         <v>0</v>
       </c>
       <c r="P14" s="29">
@@ -12024,22 +12562,22 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="77">
         <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="77">
         <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="78">
-        <v>0</v>
-      </c>
-      <c r="O15" s="92">
+      <c r="N15" s="77">
+        <v>0</v>
+      </c>
+      <c r="O15" s="91">
         <v>0</v>
       </c>
       <c r="P15" s="29">
@@ -12091,52 +12629,52 @@
       <c r="BH15" s="7"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="79">
-        <v>0</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" s="79">
-        <v>0</v>
-      </c>
-      <c r="E16" s="79">
-        <v>0</v>
-      </c>
-      <c r="F16" s="79">
-        <v>0</v>
-      </c>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="79">
-        <v>0</v>
-      </c>
-      <c r="I16" s="79">
-        <v>0</v>
-      </c>
-      <c r="J16" s="80">
-        <v>0</v>
-      </c>
-      <c r="K16" s="79">
-        <v>0</v>
-      </c>
-      <c r="L16" s="80">
-        <v>0</v>
-      </c>
-      <c r="M16" s="79">
-        <v>0</v>
-      </c>
-      <c r="N16" s="80">
-        <v>0</v>
-      </c>
-      <c r="O16" s="93">
-        <v>0</v>
-      </c>
-      <c r="P16" s="82">
+      <c r="B16" s="78">
+        <v>0</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78">
+        <v>0</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
+        <v>0</v>
+      </c>
+      <c r="O16" s="92">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
         <v>0</v>
       </c>
       <c r="Q16" s="7"/>
@@ -12185,52 +12723,52 @@
       <c r="BH16" s="7"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="79">
-        <v>0</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>0</v>
-      </c>
-      <c r="E17" s="79">
-        <v>0</v>
-      </c>
-      <c r="F17" s="79">
-        <v>0</v>
-      </c>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="79">
-        <v>0</v>
-      </c>
-      <c r="I17" s="79">
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <v>0</v>
-      </c>
-      <c r="K17" s="79">
-        <v>0</v>
-      </c>
-      <c r="L17" s="80">
-        <v>0</v>
-      </c>
-      <c r="M17" s="79">
-        <v>0</v>
-      </c>
-      <c r="N17" s="80">
-        <v>0</v>
-      </c>
-      <c r="O17" s="93">
-        <v>0</v>
-      </c>
-      <c r="P17" s="82">
+      <c r="B17" s="78">
+        <v>0</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79">
+        <v>0</v>
+      </c>
+      <c r="O17" s="92">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
         <v>0</v>
       </c>
       <c r="Q17" s="7"/>
@@ -12306,22 +12844,22 @@
       <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="77">
         <v>0</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="77">
         <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="78">
-        <v>0</v>
-      </c>
-      <c r="O18" s="92">
+      <c r="N18" s="77">
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
         <v>0</v>
       </c>
       <c r="P18" s="29">
@@ -12373,52 +12911,52 @@
       <c r="BH18" s="7"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="79">
-        <v>0</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0</v>
-      </c>
-      <c r="D19" s="79">
-        <v>0</v>
-      </c>
-      <c r="E19" s="79">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79">
-        <v>0</v>
-      </c>
-      <c r="I19" s="79">
-        <v>0</v>
-      </c>
-      <c r="J19" s="80">
-        <v>0</v>
-      </c>
-      <c r="K19" s="79">
-        <v>0</v>
-      </c>
-      <c r="L19" s="80">
-        <v>0</v>
-      </c>
-      <c r="M19" s="79">
-        <v>0</v>
-      </c>
-      <c r="N19" s="80">
-        <v>0</v>
-      </c>
-      <c r="O19" s="93">
-        <v>0</v>
-      </c>
-      <c r="P19" s="82">
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="79">
+        <v>0</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92">
+        <v>0</v>
+      </c>
+      <c r="P19" s="81">
         <v>8</v>
       </c>
       <c r="Q19" s="7"/>
@@ -12494,22 +13032,22 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="77">
         <v>0</v>
       </c>
       <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="77">
         <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="78">
-        <v>0</v>
-      </c>
-      <c r="O20" s="92">
+      <c r="N20" s="77">
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
         <v>0</v>
       </c>
       <c r="P20" s="29">
@@ -12588,22 +13126,22 @@
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="82">
         <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="82">
         <v>0</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="83">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
+      <c r="N21" s="82">
+        <v>0</v>
+      </c>
+      <c r="O21" s="93">
         <v>8</v>
       </c>
       <c r="P21" s="9">
@@ -15140,7 +15678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -15157,7 +15695,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
@@ -15191,7 +15729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -15208,7 +15746,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
@@ -15234,7 +15772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -15251,7 +15789,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
@@ -15259,7 +15797,7 @@
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -15279,19 +15817,19 @@
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="72">
-        <v>0</v>
-      </c>
-      <c r="C3" s="73">
-        <v>0</v>
-      </c>
-      <c r="D3" s="73">
-        <v>0</v>
-      </c>
-      <c r="E3" s="73">
-        <v>0</v>
-      </c>
-      <c r="F3" s="44">
+      <c r="B3" s="71">
+        <v>0</v>
+      </c>
+      <c r="C3" s="72">
+        <v>0</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0</v>
+      </c>
+      <c r="E3" s="72">
+        <v>0</v>
+      </c>
+      <c r="F3" s="43">
         <v>0</v>
       </c>
     </row>
@@ -15299,7 +15837,7 @@
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>0</v>
       </c>
       <c r="C4" s="36">
@@ -15321,7 +15859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -15340,7 +15878,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -15740,7 +16278,7 @@
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <f>$I$1*$L$1</f>
         <v>30000.000000000025</v>
       </c>
@@ -15954,50 +16492,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16110,6 +16604,50 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -16126,7 +16664,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
@@ -16152,7 +16690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -16170,7 +16708,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
@@ -16238,7 +16776,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16246,7 +16784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -16753,7 +17291,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -16767,7 +17305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16784,7 +17322,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
@@ -16819,7 +17357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16839,7 +17377,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
@@ -16847,7 +17385,7 @@
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -16858,7 +17396,7 @@
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="32">
@@ -16869,7 +17407,7 @@
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="32">
@@ -16880,7 +17418,7 @@
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="32">
@@ -16891,7 +17429,7 @@
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="32">
@@ -16902,7 +17440,7 @@
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="32">
@@ -16913,7 +17451,7 @@
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="32">
@@ -16924,7 +17462,7 @@
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="32">
@@ -16935,7 +17473,7 @@
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="32">
@@ -16946,7 +17484,7 @@
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="32">
@@ -16957,7 +17495,7 @@
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="33">
@@ -16970,7 +17508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16987,7 +17525,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
@@ -17013,7 +17551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17031,7 +17569,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
@@ -17063,22 +17601,22 @@
       <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>117</v>
       </c>
       <c r="P2" s="25" t="s">
@@ -17113,22 +17651,22 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="77">
         <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="77">
         <v>0</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="78">
-        <v>0</v>
-      </c>
-      <c r="O3" s="92">
+      <c r="N3" s="77">
+        <v>0</v>
+      </c>
+      <c r="O3" s="91">
         <v>0</v>
       </c>
       <c r="P3" s="29">
@@ -17163,22 +17701,22 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="77">
         <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="77">
         <v>0</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="78">
-        <v>0</v>
-      </c>
-      <c r="O4" s="92">
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="91">
         <v>0</v>
       </c>
       <c r="P4" s="29">
@@ -17213,22 +17751,22 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="77">
         <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="77">
         <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="78">
-        <v>0</v>
-      </c>
-      <c r="O5" s="92">
+      <c r="N5" s="77">
+        <v>0</v>
+      </c>
+      <c r="O5" s="91">
         <v>0</v>
       </c>
       <c r="P5" s="29">
@@ -17236,102 +17774,102 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="79">
-        <v>0</v>
-      </c>
-      <c r="C6" s="79">
-        <v>0</v>
-      </c>
-      <c r="D6" s="79">
-        <v>0</v>
-      </c>
-      <c r="E6" s="79">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79">
-        <v>0</v>
-      </c>
-      <c r="G6" s="79">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79">
-        <v>0</v>
-      </c>
-      <c r="I6" s="79">
-        <v>0</v>
-      </c>
-      <c r="J6" s="80">
+      <c r="B6" s="78">
+        <v>0</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="79">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="79">
-        <v>0</v>
-      </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="93">
-        <v>0</v>
-      </c>
-      <c r="P6" s="82">
+      <c r="K6" s="78">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="92">
+        <v>0</v>
+      </c>
+      <c r="P6" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="79">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0</v>
-      </c>
-      <c r="D7" s="79">
-        <v>0</v>
-      </c>
-      <c r="E7" s="79">
-        <v>0</v>
-      </c>
-      <c r="F7" s="79">
-        <v>0</v>
-      </c>
-      <c r="G7" s="79">
-        <v>0</v>
-      </c>
-      <c r="H7" s="79">
-        <v>0</v>
-      </c>
-      <c r="I7" s="79">
+      <c r="B7" s="78">
+        <v>0</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="80">
-        <v>0</v>
-      </c>
-      <c r="K7" s="79">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="79">
-        <v>0</v>
-      </c>
-      <c r="N7" s="80">
-        <v>0</v>
-      </c>
-      <c r="O7" s="93">
-        <v>0</v>
-      </c>
-      <c r="P7" s="82">
+      <c r="J7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="81">
         <v>0</v>
       </c>
     </row>
@@ -17363,22 +17901,22 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="77">
         <v>0</v>
       </c>
       <c r="K8" s="7">
         <v>1E-4</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="77">
         <v>0</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="78">
-        <v>0</v>
-      </c>
-      <c r="O8" s="92">
+      <c r="N8" s="77">
+        <v>0</v>
+      </c>
+      <c r="O8" s="91">
         <v>0</v>
       </c>
       <c r="P8" s="29">
@@ -17413,22 +17951,22 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="77">
         <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="77">
         <v>0</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="78">
-        <v>0</v>
-      </c>
-      <c r="O9" s="92">
+      <c r="N9" s="77">
+        <v>0</v>
+      </c>
+      <c r="O9" s="91">
         <v>0</v>
       </c>
       <c r="P9" s="29">
@@ -17463,22 +18001,22 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="77">
         <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="77">
         <v>0</v>
       </c>
       <c r="M10" s="7">
         <v>1E-4</v>
       </c>
-      <c r="N10" s="78">
-        <v>0</v>
-      </c>
-      <c r="O10" s="92">
+      <c r="N10" s="77">
+        <v>0</v>
+      </c>
+      <c r="O10" s="91">
         <v>0</v>
       </c>
       <c r="P10" s="29">
@@ -17513,22 +18051,22 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="77">
         <v>0</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="77">
         <v>1E-4</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="78">
-        <v>0</v>
-      </c>
-      <c r="O11" s="92">
+      <c r="N11" s="77">
+        <v>0</v>
+      </c>
+      <c r="O11" s="91">
         <v>0</v>
       </c>
       <c r="P11" s="29">
@@ -17563,22 +18101,22 @@
       <c r="I12" s="7">
         <v>1E-4</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="77">
         <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="77">
         <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="78">
-        <v>0</v>
-      </c>
-      <c r="O12" s="92">
+      <c r="N12" s="77">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
         <v>0</v>
       </c>
       <c r="P12" s="29">
@@ -17613,22 +18151,22 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="77">
         <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="78">
-        <v>0</v>
-      </c>
-      <c r="O13" s="92">
+      <c r="N13" s="77">
+        <v>0</v>
+      </c>
+      <c r="O13" s="91">
         <v>0</v>
       </c>
       <c r="P13" s="29">
@@ -17663,22 +18201,22 @@
       <c r="I14" s="7">
         <v>1E-4</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="77">
         <v>1E-4</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="77">
         <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="78">
-        <v>0</v>
-      </c>
-      <c r="O14" s="92">
+      <c r="N14" s="77">
+        <v>0</v>
+      </c>
+      <c r="O14" s="91">
         <v>0</v>
       </c>
       <c r="P14" s="29">
@@ -17713,22 +18251,22 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="77">
         <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="77">
         <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="78">
-        <v>0</v>
-      </c>
-      <c r="O15" s="92">
+      <c r="N15" s="77">
+        <v>0</v>
+      </c>
+      <c r="O15" s="91">
         <v>0</v>
       </c>
       <c r="P15" s="29">
@@ -17736,102 +18274,102 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="79">
-        <v>0</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" s="79">
-        <v>0</v>
-      </c>
-      <c r="E16" s="79">
-        <v>0</v>
-      </c>
-      <c r="F16" s="79">
-        <v>0</v>
-      </c>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="79">
+      <c r="B16" s="78">
+        <v>0</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="79">
-        <v>0</v>
-      </c>
-      <c r="J16" s="80">
-        <v>0</v>
-      </c>
-      <c r="K16" s="79">
-        <v>0</v>
-      </c>
-      <c r="L16" s="80">
-        <v>0</v>
-      </c>
-      <c r="M16" s="79">
-        <v>0</v>
-      </c>
-      <c r="N16" s="80">
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O16" s="93">
-        <v>0</v>
-      </c>
-      <c r="P16" s="82">
+      <c r="O16" s="92">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="79">
-        <v>0</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>0</v>
-      </c>
-      <c r="E17" s="79">
-        <v>0</v>
-      </c>
-      <c r="F17" s="79">
-        <v>0</v>
-      </c>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="79">
-        <v>0</v>
-      </c>
-      <c r="I17" s="79">
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <v>0</v>
-      </c>
-      <c r="K17" s="79">
-        <v>0</v>
-      </c>
-      <c r="L17" s="80">
-        <v>0</v>
-      </c>
-      <c r="M17" s="79">
-        <v>0</v>
-      </c>
-      <c r="N17" s="80">
-        <v>0</v>
-      </c>
-      <c r="O17" s="93">
-        <v>0</v>
-      </c>
-      <c r="P17" s="82">
+      <c r="B17" s="78">
+        <v>0</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79">
+        <v>0</v>
+      </c>
+      <c r="O17" s="92">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
         <v>1E-4</v>
       </c>
     </row>
@@ -17863,22 +18401,22 @@
       <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="77">
         <v>0</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="77">
         <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="78">
-        <v>0</v>
-      </c>
-      <c r="O18" s="92">
+      <c r="N18" s="77">
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
         <v>0</v>
       </c>
       <c r="P18" s="29">
@@ -17886,52 +18424,52 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="79">
-        <v>0</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0</v>
-      </c>
-      <c r="D19" s="79">
-        <v>0</v>
-      </c>
-      <c r="E19" s="79">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79">
-        <v>0</v>
-      </c>
-      <c r="I19" s="79">
-        <v>0</v>
-      </c>
-      <c r="J19" s="80">
-        <v>0</v>
-      </c>
-      <c r="K19" s="79">
-        <v>0</v>
-      </c>
-      <c r="L19" s="80">
-        <v>0</v>
-      </c>
-      <c r="M19" s="79">
-        <v>0</v>
-      </c>
-      <c r="N19" s="80">
-        <v>0</v>
-      </c>
-      <c r="O19" s="93">
-        <v>0</v>
-      </c>
-      <c r="P19" s="82">
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="79">
+        <v>0</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92">
+        <v>0</v>
+      </c>
+      <c r="P19" s="81">
         <v>1E-4</v>
       </c>
     </row>
@@ -17963,22 +18501,22 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="77">
         <v>0</v>
       </c>
       <c r="K20" s="7">
         <v>0</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="77">
         <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="78">
-        <v>0</v>
-      </c>
-      <c r="O20" s="92">
+      <c r="N20" s="77">
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
         <v>0</v>
       </c>
       <c r="P20" s="29">
@@ -18013,22 +18551,22 @@
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="82">
         <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="82">
         <v>0</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="83">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
+      <c r="N21" s="82">
+        <v>0</v>
+      </c>
+      <c r="O21" s="93">
         <v>1E-4</v>
       </c>
       <c r="P21" s="9">
@@ -18042,7 +18580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18059,7 +18597,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
@@ -18093,7 +18631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18109,7 +18647,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", "hour","]")</f>
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
@@ -18146,18 +18684,18 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>90</v>
       </c>
     </row>
@@ -18179,97 +18717,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="79">
-        <v>3</v>
-      </c>
-      <c r="C6" s="82">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -18324,6 +18771,97 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="78">
+        <v>3</v>
+      </c>
+      <c r="C6" s="81">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18340,7 +18878,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
@@ -18374,7 +18912,7 @@
       <c r="D3" s="34">
         <v>1000</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <v>1000</v>
       </c>
     </row>
@@ -18402,7 +18940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18421,7 +18959,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
@@ -18445,7 +18983,7 @@
       <c r="A4" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <v>7143</v>
       </c>
     </row>
@@ -18453,7 +18991,7 @@
       <c r="A5" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <v>14286</v>
       </c>
     </row>
@@ -18461,7 +18999,7 @@
       <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="109">
         <v>50000</v>
       </c>
     </row>
@@ -18471,7 +19009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18488,7 +19026,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
@@ -18522,7 +19060,7 @@
       <c r="D3" s="36">
         <v>2.5</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="96">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -18532,7 +19070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18551,7 +19089,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
@@ -18601,7 +19139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18621,7 +19159,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
@@ -18629,7 +19167,7 @@
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -18649,7 +19187,7 @@
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="34">
@@ -18669,7 +19207,7 @@
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="34">
@@ -18689,7 +19227,7 @@
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="34">
@@ -18709,7 +19247,7 @@
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="76" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="34">
@@ -18729,7 +19267,7 @@
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="34">
@@ -18749,7 +19287,7 @@
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="34">
@@ -18769,7 +19307,7 @@
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="34">
@@ -18789,7 +19327,7 @@
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="34">
@@ -18809,7 +19347,7 @@
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="34">
@@ -18829,7 +19367,7 @@
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="85" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="36">
@@ -18851,7 +19389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18872,7 +19410,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
@@ -18979,10 +19517,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="75"/>
+      <c r="C10" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18990,7 +19528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -19009,7 +19547,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
@@ -19034,7 +19572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -19051,7 +19589,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
       <c r="B1" s="1"/>
@@ -19086,22 +19624,22 @@
       <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="86" t="s">
         <v>117</v>
       </c>
       <c r="P2" s="25" t="s">
@@ -19136,20 +19674,20 @@
       <c r="I3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="92" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="91" t="s">
         <v>245</v>
       </c>
       <c r="P3" s="29" t="s">
@@ -19184,20 +19722,20 @@
       <c r="I4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="92" t="s">
+      <c r="N4" s="77"/>
+      <c r="O4" s="91" t="s">
         <v>245</v>
       </c>
       <c r="P4" s="29" t="s">
@@ -19232,20 +19770,20 @@
       <c r="I5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="92" t="s">
+      <c r="N5" s="77"/>
+      <c r="O5" s="91" t="s">
         <v>245</v>
       </c>
       <c r="P5" s="29" t="s">
@@ -19253,95 +19791,95 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="79">
         <v>2.5074000000000001</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="93" t="s">
+      <c r="N6" s="79"/>
+      <c r="O6" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="81" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="99" t="s">
+      <c r="H7" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="98">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="104" t="s">
+      <c r="M7" s="98"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="101" t="s">
+      <c r="P7" s="100" t="s">
         <v>245</v>
       </c>
     </row>
@@ -19349,10 +19887,10 @@
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="97">
         <v>4.0752409775985399</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -19373,30 +19911,30 @@
       <c r="I8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="K8" s="98">
+      <c r="K8" s="97">
         <v>4.1717000000000004</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="92"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="91"/>
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="97">
         <v>4.0752409775985399</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>245</v>
       </c>
       <c r="D9" s="7">
@@ -19417,20 +19955,20 @@
       <c r="I9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="78"/>
-      <c r="O9" s="92"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19461,20 +19999,20 @@
       <c r="I10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>1.4</v>
       </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="92"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="91"/>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19505,20 +20043,20 @@
       <c r="I11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="77">
         <v>1.3163</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N11" s="78"/>
-      <c r="O11" s="92"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="91"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19528,7 +20066,7 @@
       <c r="B12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="97">
         <v>1.8142</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -19549,20 +20087,20 @@
       <c r="I12" s="7">
         <v>1.4431</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="92"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19593,20 +20131,20 @@
       <c r="I13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="92"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19637,20 +20175,20 @@
       <c r="I14" s="7">
         <v>6.0780000000000003</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="77">
         <v>2.4449000000000001</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="92"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="91"/>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19681,18 +20219,18 @@
       <c r="I15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L15" s="78" t="s">
+      <c r="L15" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="92"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="91"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -19723,43 +20261,43 @@
       <c r="I16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N16" s="78">
+      <c r="N16" s="77">
         <v>2.5</v>
       </c>
-      <c r="O16" s="92"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="96">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="95">
         <v>9</v>
       </c>
     </row>
@@ -19791,20 +20329,20 @@
       <c r="I18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="92" t="s">
+      <c r="N18" s="77"/>
+      <c r="O18" s="91" t="s">
         <v>245</v>
       </c>
       <c r="P18" s="29">
@@ -19812,50 +20350,50 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="79" t="s">
+      <c r="I19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="79" t="s">
+      <c r="M19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="93" t="s">
+      <c r="N19" s="79"/>
+      <c r="O19" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="P19" s="82">
+      <c r="P19" s="81">
         <v>2.6</v>
       </c>
     </row>
@@ -19883,20 +20421,20 @@
         <v>245</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="78" t="s">
+      <c r="J20" s="77" t="s">
         <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="L20" s="77" t="s">
         <v>245</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="92" t="s">
+      <c r="N20" s="77"/>
+      <c r="O20" s="91" t="s">
         <v>245</v>
       </c>
       <c r="P20" s="29"/>
@@ -19927,18 +20465,18 @@
       <c r="I21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J21" s="83"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="82" t="s">
         <v>245</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="94">
+      <c r="N21" s="82"/>
+      <c r="O21" s="93">
         <v>0.1</v>
       </c>
       <c r="P21" s="9"/>
@@ -19948,7 +20486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -19961,7 +20499,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$10, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),")]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
       </c>
       <c r="B1" s="1"/>
@@ -19972,7 +20510,7 @@
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -19995,7 +20533,7 @@
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>133</v>
       </c>
       <c r="C3" s="7">
@@ -20018,7 +20556,7 @@
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>132</v>
       </c>
       <c r="C4" s="8">
@@ -20035,83 +20573,6 @@
       </c>
       <c r="G4" s="9">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$10, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$10, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="35">
-        <v>14285.714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="35">
-        <v>35714.285714285717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="35">
-        <v>42857.142857142855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="37">
-        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -20171,6 +20632,83 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="35">
+        <v>14285.714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="35">
+        <v>35714.285714285717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="35">
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -20189,7 +20727,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
@@ -20247,7 +20785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20271,7 +20809,7 @@
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -20282,7 +20820,7 @@
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="32">
@@ -20293,7 +20831,7 @@
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="32">
@@ -20304,7 +20842,7 @@
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="32">
@@ -20315,7 +20853,7 @@
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="32">
@@ -20326,7 +20864,7 @@
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="32">
@@ -20337,7 +20875,7 @@
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="32">
@@ -20348,7 +20886,7 @@
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="32">
@@ -20359,7 +20897,7 @@
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="32">
@@ -20370,7 +20908,7 @@
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="32">
@@ -20381,7 +20919,7 @@
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="33">
@@ -20393,7 +20931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20419,7 +20957,7 @@
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -20430,7 +20968,7 @@
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="32">
@@ -20441,7 +20979,7 @@
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="32">
@@ -20452,7 +20990,7 @@
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="32">
@@ -20463,7 +21001,7 @@
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="32">
@@ -20474,7 +21012,7 @@
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="32">
@@ -20485,7 +21023,7 @@
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="32">
@@ -20496,7 +21034,7 @@
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="32">
@@ -20507,7 +21045,7 @@
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C10" s="32">
@@ -20518,7 +21056,7 @@
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="32">
@@ -20529,10 +21067,10 @@
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="112">
+      <c r="C12" s="111">
         <v>0.99</v>
       </c>
     </row>
@@ -20541,7 +21079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20569,7 +21107,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="35">
@@ -20577,7 +21115,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>122</v>
       </c>
       <c r="B4" s="35">
@@ -20585,7 +21123,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="88" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="35">
@@ -20593,7 +21131,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="88" t="s">
         <v>259</v>
       </c>
       <c r="B6" s="35">
@@ -20613,7 +21151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20661,7 +21199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20701,28 +21239,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -20730,7 +21269,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>247</v>
       </c>
@@ -20738,12 +21277,34 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B4" s="41">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="35">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="37">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -20751,7 +21312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -20784,7 +21345,7 @@
       <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <v>0.08</v>
       </c>
     </row>
@@ -20801,7 +21362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -20826,7 +21387,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
@@ -20834,15 +21395,15 @@
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>142277</v>
       </c>
     </row>
@@ -20850,7 +21411,7 @@
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>140998</v>
       </c>
     </row>
@@ -20858,15 +21419,15 @@
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>172490.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="107">
+      <c r="B6" s="106">
         <v>257547</v>
       </c>
     </row>
@@ -20874,50 +21435,8 @@
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="50">
         <v>165376</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B10, 2, FALSE),,"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="109">
-        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -20976,6 +21495,48 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="108">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -20992,7 +21553,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$10, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
@@ -21000,7 +21561,7 @@
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>242</v>
       </c>
     </row>
@@ -21008,7 +21569,7 @@
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>150000</v>
       </c>
     </row>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7738F090-7E23-435A-BF5C-A1D1836FAE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D6801-1A59-4A6E-8DF8-E9ABDBC9378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="73" activeTab="79" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="72" activeTab="79" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId85"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId86"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId87"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="70">PipelineExpansionDistance!#REF!</definedName>
@@ -2057,254 +2054,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="NOA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="SOA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="ROA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="RST"/>
-      <sheetName val="ROT"/>
-      <sheetName val="SOT"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="ReuseCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="DesalinationBrineReuse"/>
-      <sheetName val="BeneficialReuseCredit"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9276,8 +9025,8 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [1]Units!$A$2:$B$9, 2, FALSE),"]. Use a negative number to denote no upper limit for capacity at a given reuse site and time.")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/day]. Use a negative number to denote no upper limit for capacity at a given reuse site and time.</v>
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/day]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15286,7 +15035,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
       </c>
     </row>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EDC7A-6537-49E9-9577-5ECE671C065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0C9F7-F699-4493-8B45-B79736FCB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="40" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="72" activeTab="77" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -90,6 +90,8 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId75"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId76"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId77"/>
+    <sheet name="AirEmissionCoefficients" sheetId="115" r:id="rId78"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="116" r:id="rId79"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="273">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -902,6 +904,39 @@
   </si>
   <si>
     <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>Trucking (g/hour)</t>
+  </si>
+  <si>
+    <t>Pipeline Operations (g/(bbl-mile))</t>
+  </si>
+  <si>
+    <t>Pipeline Installation (g/mile)</t>
+  </si>
+  <si>
+    <t>Disposal (g/bbl)</t>
+  </si>
+  <si>
+    <t>Storage (g/bbl-week)</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1574,13 +1609,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1860,6 +1908,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2290,15 +2347,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2310,7 +2367,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -2324,7 +2381,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2336,7 +2393,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2350,7 +2407,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>2</v>
@@ -2364,7 +2421,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>3</v>
@@ -2378,7 +2435,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
@@ -2392,7 +2449,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2406,7 +2463,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -2420,7 +2477,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2432,7 +2489,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -2446,7 +2503,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -2460,7 +2517,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2472,7 +2529,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>9</v>
@@ -2486,7 +2543,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>10</v>
@@ -2500,7 +2557,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>11</v>
@@ -2514,7 +2571,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>12</v>
@@ -2528,7 +2585,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2540,7 +2597,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2552,7 +2609,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -2568,7 +2625,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2580,7 +2637,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>15</v>
@@ -2596,7 +2653,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>17</v>
@@ -2612,7 +2669,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
@@ -2628,7 +2685,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2644,7 +2701,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -2660,7 +2717,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>25</v>
@@ -2676,7 +2733,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>27</v>
@@ -2692,7 +2749,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>29</v>
@@ -2708,7 +2765,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>31</v>
@@ -2727,7 +2784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>34</v>
@@ -2743,7 +2800,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>36</v>
@@ -2759,7 +2816,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2775,7 +2832,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -2791,7 +2848,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>42</v>
@@ -2807,7 +2864,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2850,30 +2907,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -2881,16 +2938,16 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -2909,30 +2966,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -2940,17 +2997,17 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>260</v>
       </c>
@@ -2972,28 +3029,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3014,30 +3071,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -3045,99 +3102,99 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3158,45 +3215,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3218,30 +3275,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -3249,20 +3306,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3282,30 +3339,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -3313,20 +3370,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3346,30 +3403,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -3377,20 +3434,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3408,18 +3465,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -3452,7 +3509,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -3468,7 +3525,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -3484,7 +3541,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3500,7 +3557,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -3532,18 +3589,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3576,7 +3633,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3609,61 +3666,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -3681,18 +3738,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3700,7 +3757,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3721,18 +3778,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3765,7 +3822,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -3781,7 +3838,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -3801,7 +3858,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -3819,7 +3876,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -3837,7 +3894,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -3855,7 +3912,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -3874,7 +3931,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -3895,7 +3952,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -3914,7 +3971,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -3931,7 +3988,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3960,18 +4017,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3979,61 +4036,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
     </row>
@@ -4052,18 +4109,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4074,7 +4131,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4083,21 +4140,21 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -4106,42 +4163,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4162,18 +4219,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4184,21 +4241,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -4207,42 +4264,42 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4251,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4272,18 +4329,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4291,55 +4348,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="90"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="90"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="90"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="90"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="90"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="90"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="90"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="90"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4360,18 +4417,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4403,7 +4460,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4432,18 +4489,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -4451,7 +4508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -4459,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -4483,18 +4540,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4502,13 +4559,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4530,18 +4587,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4549,13 +4606,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4579,33 +4636,33 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.140625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.109375" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -4625,7 +4682,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="64"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
@@ -4655,7 +4712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -4679,7 +4736,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
@@ -4697,7 +4754,7 @@
       <c r="J5" s="53"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
@@ -4721,7 +4778,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>68</v>
       </c>
@@ -4745,7 +4802,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
@@ -4784,7 +4841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4835,7 +4892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4858,7 +4915,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +4923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -4915,17 +4972,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4933,7 +4990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4955,18 +5012,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4998,7 +5055,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5012,7 +5069,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -5041,18 +5098,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5060,25 +5117,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5100,18 +5157,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -5119,7 +5176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -5127,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -5150,18 +5207,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5172,7 +5229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -5183,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -5194,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -5205,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5231,18 +5288,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5253,7 +5310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5279,18 +5336,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5298,7 +5355,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5321,18 +5378,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5340,7 +5397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5363,24 +5420,24 @@
       <selection activeCell="BA2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.140625" style="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.109375" style="1"/>
+    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5541,7 +5598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5704,10 +5761,10 @@
       <c r="BB3" s="76"/>
       <c r="BC3" s="76"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B7" s="46"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -5726,22 +5783,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5902,7 +5959,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -6115,7 +6172,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -6328,7 +6385,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -6541,7 +6598,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -6754,14 +6811,14 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
       <c r="C7" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B9" s="46"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B10" s="46"/>
     </row>
   </sheetData>
@@ -6780,72 +6837,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
     </row>
   </sheetData>
@@ -6866,23 +6923,23 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="1"/>
-    <col min="14" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.109375" style="1"/>
+    <col min="14" max="15" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -7043,7 +7100,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -7220,10 +7277,10 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
     </row>
@@ -7241,22 +7298,22 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -7306,7 +7363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -7356,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -7406,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -7456,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -7506,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -7556,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -7606,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -7654,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -7702,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -7750,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -7798,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -7846,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -7894,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -7940,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -7990,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -8040,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -8090,7 +8147,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -8140,7 +8197,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -8190,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -8255,19 +8312,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -8275,7 +8332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -8283,7 +8340,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -8306,19 +8363,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -8326,7 +8383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -8349,19 +8406,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -8381,7 +8438,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -8401,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -8438,13 +8495,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -8468,7 +8525,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -8629,7 +8686,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -8842,7 +8899,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -9055,7 +9112,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -9074,20 +9131,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9095,7 +9152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9118,19 +9175,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -9138,7 +9195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -9161,20 +9218,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -9182,61 +9239,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="84"/>
     </row>
@@ -9255,21 +9312,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9430,7 +9487,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9591,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9752,10 +9809,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>254</v>
       </c>
@@ -9775,40 +9832,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -9816,52 +9873,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -9882,19 +9939,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -9902,7 +9959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -9910,7 +9967,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -9936,20 +9993,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -9960,7 +10017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -9971,7 +10028,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -9982,7 +10039,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -9993,7 +10050,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -10004,7 +10061,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -10015,7 +10072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -10026,7 +10083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -10037,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -10048,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -10059,7 +10116,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -10085,19 +10142,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -10105,7 +10162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -10128,20 +10185,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -10191,7 +10248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -10241,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -10291,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -10341,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -10391,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>109</v>
       </c>
@@ -10441,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -10491,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -10541,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -10591,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -10641,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -10691,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -10741,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -10791,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -10841,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
@@ -10891,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
         <v>117</v>
       </c>
@@ -10941,7 +10998,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -10991,7 +11048,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -11041,7 +11098,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -11091,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -11157,19 +11214,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -11177,7 +11234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -11185,7 +11242,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -11208,18 +11265,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -11227,7 +11284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11235,7 +11292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11243,7 +11300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11251,7 +11308,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11259,7 +11316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -11267,7 +11324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>114</v>
       </c>
@@ -11275,7 +11332,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
@@ -11299,17 +11356,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>233</v>
       </c>
@@ -11320,7 +11377,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -11331,7 +11388,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -11342,7 +11399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -11353,7 +11410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -11364,7 +11421,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -11390,19 +11447,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -11419,7 +11476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -11436,7 +11493,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -11471,19 +11528,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -11491,7 +11548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>151</v>
       </c>
@@ -11499,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>152</v>
       </c>
@@ -11507,7 +11564,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>153</v>
       </c>
@@ -11515,7 +11572,7 @@
         <v>14286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
@@ -11538,19 +11595,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -11567,7 +11624,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -11599,36 +11656,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -11649,19 +11706,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>239</v>
       </c>
@@ -11669,7 +11726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -11677,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -11685,7 +11742,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
@@ -11693,7 +11750,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -11718,20 +11775,20 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -11751,7 +11808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -11771,7 +11828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -11791,7 +11848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -11811,7 +11868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -11831,7 +11888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -11851,7 +11908,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -11871,7 +11928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -11891,7 +11948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -11911,7 +11968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -11931,7 +11988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -11968,21 +12025,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -11999,7 +12056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -12016,7 +12073,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>122</v>
       </c>
@@ -12033,7 +12090,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>258</v>
       </c>
@@ -12050,7 +12107,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>259</v>
       </c>
@@ -12067,7 +12124,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -12084,10 +12141,10 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="75"/>
     </row>
   </sheetData>
@@ -12107,19 +12164,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -12127,7 +12184,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>244</v>
       </c>
@@ -12153,9 +12210,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -12164,7 +12221,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -12214,7 +12271,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -12262,7 +12319,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -12310,7 +12367,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -12358,7 +12415,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -12406,7 +12463,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>109</v>
       </c>
@@ -12451,7 +12508,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -12495,7 +12552,7 @@
       <c r="O8" s="92"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -12539,7 +12596,7 @@
       <c r="O9" s="92"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -12583,7 +12640,7 @@
       <c r="O10" s="92"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -12627,7 +12684,7 @@
       <c r="O11" s="92"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -12671,7 +12728,7 @@
       <c r="O12" s="92"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -12715,7 +12772,7 @@
       <c r="O13" s="92"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -12759,7 +12816,7 @@
       <c r="O14" s="92"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -12801,7 +12858,7 @@
       <c r="O15" s="92"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
@@ -12847,7 +12904,7 @@
       <c r="O16" s="92"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="95" t="s">
         <v>117</v>
       </c>
@@ -12869,7 +12926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -12917,7 +12974,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>115</v>
       </c>
@@ -12965,7 +13022,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -13007,7 +13064,7 @@
       </c>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -13063,9 +13120,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -13074,7 +13131,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -13097,7 +13154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
@@ -13120,7 +13177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
@@ -13160,19 +13217,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13180,7 +13237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13188,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13196,7 +13253,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13204,7 +13261,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13212,7 +13269,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13237,19 +13294,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -13257,7 +13314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -13265,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -13273,7 +13330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -13281,7 +13338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -13289,7 +13346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -13312,18 +13369,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13334,7 +13391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13345,7 +13402,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13356,7 +13413,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13367,7 +13424,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13378,7 +13435,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13389,7 +13446,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13400,7 +13457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13411,7 +13468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13422,7 +13479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13433,7 +13490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13460,18 +13517,18 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13482,7 +13539,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13493,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -13504,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -13515,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -13526,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -13537,7 +13594,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -13548,7 +13605,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -13559,7 +13616,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -13570,7 +13627,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -13581,7 +13638,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -13606,38 +13663,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" style="1"/>
-    <col min="15" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.109375" style="1"/>
+    <col min="15" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
   </sheetData>
@@ -13656,17 +13713,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -13674,7 +13731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
         <v>121</v>
       </c>
@@ -13682,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>122</v>
       </c>
@@ -13690,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
         <v>258</v>
       </c>
@@ -13698,7 +13755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
         <v>259</v>
       </c>
@@ -13706,7 +13763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -13728,17 +13785,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -13746,7 +13803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -13754,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -13776,17 +13833,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -13794,7 +13851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -13818,17 +13875,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13836,7 +13893,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>247</v>
       </c>
@@ -13844,7 +13901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>248</v>
       </c>
@@ -13868,17 +13925,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -13886,7 +13943,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
@@ -13894,7 +13951,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>251</v>
       </c>
@@ -13918,25 +13975,25 @@
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -13944,7 +14001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>89</v>
       </c>
@@ -13952,7 +14009,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -13960,7 +14017,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -13968,7 +14025,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>92</v>
       </c>
@@ -13976,7 +14033,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -13999,18 +14056,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -14018,7 +14075,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="108" t="s">
         <v>117</v>
       </c>
@@ -14041,19 +14098,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -14061,7 +14118,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -14071,6 +14128,270 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5040A3-C598-4C8B-BEB3-12F390879977}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="92">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="92">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="92">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="92">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="92">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="92">
+        <v>22</v>
+      </c>
+      <c r="C4" s="92">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="92">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="92">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="90">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="92">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="92">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="92">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="92">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="90">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="92">
+        <v>970</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="92">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="92">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="90">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="94">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="94">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="94">
+        <v>2</v>
+      </c>
+      <c r="E7" s="94">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="91">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488CA536-6203-40F7-B6DA-06325EA57507}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
+        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="92">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="92">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="92">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="92">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="92">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="92">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="92">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="92">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="94">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="94">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="94">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="94">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="91">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14085,30 +14406,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -14132,36 +14453,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D6801-1A59-4A6E-8DF8-E9ABDBC9378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBD9DE-8CFC-4B34-B631-7F401FAC3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="72" activeTab="79" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="16" activeTab="41" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -91,14 +91,13 @@
     <sheet name="RemovalEfficiency" sheetId="114" r:id="rId76"/>
     <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId77"/>
     <sheet name="DesalinationSites" sheetId="113" r:id="rId78"/>
-    <sheet name="DesalinationBrineReuse" sheetId="123" r:id="rId79"/>
-    <sheet name="BeneficialReuseCredit" sheetId="125" r:id="rId80"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId81"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId82"/>
-    <sheet name="Economics" sheetId="95" r:id="rId83"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId84"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId85"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId86"/>
+    <sheet name="BeneficialReuseCredit" sheetId="125" r:id="rId79"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId80"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId81"/>
+    <sheet name="Economics" sheetId="95" r:id="rId82"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId83"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId84"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId85"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">#REF!</definedName>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="271">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -916,31 +915,28 @@
     <t>Storage Sites to Beneficial Reuse Piping Arcs [-]</t>
   </si>
   <si>
-    <t>Treatment Sites to Beneficial Reuse Piping Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
-    <t>Treatment Sites to Completions Sites Piping Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
-    <t>Treatment Sites to Storage Sites Piping Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
-    <t>Treatment Sites to Network Nodes Piping Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
-    <t>Treatment Sites to Storage Sites Trucking Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
-    <t>Treatment Sites to Beneficial Reuse Trucking Arcs (for desalination sites with reusable brine, 2 denotes an arc for the brine stream) [-]</t>
-  </si>
-  <si>
     <t>Storage Sites to Beneficial Reuse Trucking Arcs [-]</t>
   </si>
   <si>
-    <t>Table with indication for each desalination site whether or not the brine is reused (1 for yes, 0 for no)</t>
-  </si>
-  <si>
     <t>ReuseOptions</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Completions Sites Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Storage Sites Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Network Nodes Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Beneficial Reuse Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Beneficial Reuse Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -5051,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5099,7 +5095,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5189,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5265,7 +5261,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5276,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5736,7 +5732,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5772,7 +5768,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5783,7 +5779,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5837,7 +5833,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9036,7 +9032,7 @@
     </row>
     <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>178</v>
@@ -14927,40 +14923,49 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9102DFE-B382-4759-82AF-1C3ECC65F935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D704B3E-8A1A-4064-9703-FD38B5DAA6B6}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="33">
-        <v>1</v>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15018,57 +15023,6 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D704B3E-8A1A-4064-9703-FD38B5DAA6B6}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15108,7 +15062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15158,7 +15112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15208,7 +15162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15291,7 +15245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15333,7 +15287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBD9DE-8CFC-4B34-B631-7F401FAC3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5D913-E8C9-4829-B7A2-2809B4EB0B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="16" activeTab="41" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" firstSheet="40" activeTab="50" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -63,45 +63,46 @@
     <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId48"/>
     <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId49"/>
     <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId50"/>
-    <sheet name="ReuseCapacity" sheetId="124" r:id="rId51"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId52"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId53"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId54"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId55"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId56"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId57"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId58"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId59"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId60"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId61"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId62"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId63"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId64"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId65"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId66"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId67"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId68"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId69"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId70"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId71"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId72"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId73"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId74"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId75"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId76"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId77"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId78"/>
-    <sheet name="BeneficialReuseCredit" sheetId="125" r:id="rId79"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId80"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId81"/>
-    <sheet name="Economics" sheetId="95" r:id="rId82"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId83"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId84"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId85"/>
+    <sheet name="ReuseMinimum" sheetId="126" r:id="rId51"/>
+    <sheet name="ReuseCapacity" sheetId="124" r:id="rId52"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId53"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId54"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId55"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId56"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId57"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId58"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId59"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId60"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId61"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId62"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId63"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId64"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId65"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId66"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId67"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId68"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId69"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId70"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId71"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId72"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId73"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId74"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId75"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId76"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId77"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId78"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId79"/>
+    <sheet name="BeneficialReuseCredit" sheetId="125" r:id="rId80"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId81"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId82"/>
+    <sheet name="Economics" sheetId="95" r:id="rId83"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId84"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId85"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId86"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="70">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="71">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="271">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1626,7 +1627,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1924,6 +1925,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5768,7 +5772,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9003,6 +9007,522 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D82FC29-1A28-47CD-9CF9-58F230312687}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:BA4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="53" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Beneficial Reuse minimum required flow [bbl/day]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA2" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="119">
+        <v>0</v>
+      </c>
+      <c r="C3" s="119">
+        <v>0</v>
+      </c>
+      <c r="D3" s="119">
+        <v>0</v>
+      </c>
+      <c r="E3" s="119">
+        <v>0</v>
+      </c>
+      <c r="F3" s="119">
+        <v>0</v>
+      </c>
+      <c r="G3" s="119">
+        <v>0</v>
+      </c>
+      <c r="H3" s="119">
+        <v>0</v>
+      </c>
+      <c r="I3" s="119">
+        <v>0</v>
+      </c>
+      <c r="J3" s="119">
+        <v>0</v>
+      </c>
+      <c r="K3" s="119">
+        <v>0</v>
+      </c>
+      <c r="L3" s="119">
+        <v>0</v>
+      </c>
+      <c r="M3" s="119">
+        <v>0</v>
+      </c>
+      <c r="N3" s="119">
+        <v>0</v>
+      </c>
+      <c r="O3" s="119">
+        <v>0</v>
+      </c>
+      <c r="P3" s="119">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="119">
+        <v>0</v>
+      </c>
+      <c r="R3" s="119">
+        <v>0</v>
+      </c>
+      <c r="S3" s="119">
+        <v>0</v>
+      </c>
+      <c r="T3" s="119">
+        <v>0</v>
+      </c>
+      <c r="U3" s="119">
+        <v>0</v>
+      </c>
+      <c r="V3" s="119">
+        <v>0</v>
+      </c>
+      <c r="W3" s="119">
+        <v>0</v>
+      </c>
+      <c r="X3" s="119">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="119">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="119">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0</v>
+      </c>
+      <c r="N4" s="36">
+        <v>0</v>
+      </c>
+      <c r="O4" s="36">
+        <v>0</v>
+      </c>
+      <c r="P4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>0</v>
+      </c>
+      <c r="R4" s="36">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36">
+        <v>0</v>
+      </c>
+      <c r="T4" s="36">
+        <v>0</v>
+      </c>
+      <c r="U4" s="36">
+        <v>0</v>
+      </c>
+      <c r="V4" s="36">
+        <v>0</v>
+      </c>
+      <c r="W4" s="36">
+        <v>0</v>
+      </c>
+      <c r="X4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="36">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83B7EA2-F58B-4387-ADEC-3EDB6AA19817}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -9010,7 +9530,7 @@
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9518,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10156,7 +10676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10200,7 +10720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10243,7 +10763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10337,7 +10857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -10858,7 +11378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -10910,7 +11430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -11053,49 +11573,6 @@
       </c>
       <c r="C12" s="33">
         <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Reuse Operational Cost [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11153,6 +11630,49 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Reuse Operational Cost [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12303,7 +12823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12354,7 +12874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12445,7 +12965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12536,7 +13056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12615,7 +13135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12684,7 +13204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12745,7 +13265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -12814,7 +13334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13057,145 +13577,6 @@
       <c r="F12" s="37">
         <v>800</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="34">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="34">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="34">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="34">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="34">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="34">
-        <v>0</v>
-      </c>
-      <c r="C6" s="34">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="34">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="35">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="36">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="36">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="37">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13254,6 +13635,145 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="34">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="34">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="36">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="75"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13297,7 +13817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14259,7 +14779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14354,7 +14874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14431,7 +14951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14508,7 +15028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -14654,7 +15174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -14802,7 +15322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -14874,7 +15394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -14915,57 +15435,6 @@
       </c>
       <c r="B4" s="33">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D704B3E-8A1A-4064-9703-FD38B5DAA6B6}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
-        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15023,6 +15492,57 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D704B3E-8A1A-4064-9703-FD38B5DAA6B6}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15062,7 +15582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15112,7 +15632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15162,7 +15682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15245,7 +15765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -15287,7 +15807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B343EB45-5BF2-4DFA-9C7B-3C1BA65B8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5725E-9CE3-48F9-8782-06D9CAC5E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="834" firstSheet="34" activeTab="42" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="834" firstSheet="42" activeTab="43" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2341,15 +2341,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2361,7 +2361,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -2375,7 +2375,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2387,7 +2387,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2401,7 +2401,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>2</v>
@@ -2415,7 +2415,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>3</v>
@@ -2429,7 +2429,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
@@ -2443,7 +2443,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2457,7 +2457,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -2471,7 +2471,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2483,7 +2483,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -2497,7 +2497,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -2511,7 +2511,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2523,7 +2523,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>9</v>
@@ -2537,7 +2537,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>10</v>
@@ -2551,7 +2551,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>11</v>
@@ -2565,7 +2565,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>12</v>
@@ -2579,7 +2579,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2591,7 +2591,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2603,7 +2603,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -2619,7 +2619,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2631,7 +2631,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>15</v>
@@ -2647,7 +2647,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>17</v>
@@ -2663,7 +2663,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
@@ -2679,7 +2679,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2695,7 +2695,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -2711,7 +2711,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>25</v>
@@ -2727,7 +2727,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>27</v>
@@ -2743,7 +2743,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>29</v>
@@ -2759,7 +2759,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>31</v>
@@ -2778,7 +2778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>34</v>
@@ -2794,7 +2794,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>36</v>
@@ -2810,7 +2810,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2826,7 +2826,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -2842,7 +2842,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>42</v>
@@ -2858,7 +2858,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2901,30 +2901,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -2932,16 +2932,16 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -2960,30 +2960,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -2991,17 +2991,17 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>260</v>
       </c>
@@ -3023,28 +3023,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3065,30 +3065,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -3096,99 +3096,99 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3209,45 +3209,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3269,30 +3269,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -3300,20 +3300,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3333,30 +3333,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -3364,20 +3364,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3397,30 +3397,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -3428,20 +3428,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3459,18 +3459,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -3583,18 +3583,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3660,61 +3660,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -3732,18 +3732,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3772,18 +3772,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4011,18 +4011,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4030,61 +4030,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
     </row>
@@ -4103,18 +4103,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4134,21 +4134,21 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -4157,42 +4157,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4213,18 +4213,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4235,21 +4235,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -4258,42 +4258,42 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4323,18 +4323,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4342,55 +4342,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="89"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="89"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="89"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="89"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="89"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="89"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="89"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="89"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4411,18 +4411,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -4483,18 +4483,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -4534,18 +4534,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4553,13 +4553,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4581,18 +4581,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -4600,13 +4600,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -4630,34 +4630,34 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.33203125" style="1"/>
-    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.28515625" style="1"/>
+    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>68</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>73</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>262</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>267</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>77</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,17 +5014,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -5054,18 +5054,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -5140,18 +5140,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5159,25 +5159,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5199,18 +5199,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -5249,18 +5249,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -5330,18 +5330,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5378,18 +5378,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5420,18 +5420,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -5462,25 +5462,25 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
         <v>233</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="113" t="s">
         <v>89</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="113" t="s">
         <v>90</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="113" t="s">
         <v>91</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
         <v>92</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
         <v>109</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>111</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
         <v>112</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="113" t="s">
         <v>114</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="113" t="s">
         <v>115</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="113" t="s">
         <v>117</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>119</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
         <v>120</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
         <v>125</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
         <v>126</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
         <v>127</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="113" t="s">
         <v>128</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="113" t="s">
         <v>129</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>130</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="113" t="s">
         <v>131</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>132</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>133</v>
       </c>
@@ -5674,24 +5674,24 @@
       <selection activeCell="BA2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.109375" style="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.140625" style="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -6015,10 +6015,10 @@
       <c r="BB3" s="75"/>
       <c r="BC3" s="75"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F8" s="10"/>
     </row>
   </sheetData>
@@ -6037,72 +6037,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.109375" style="1"/>
-    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
   </sheetData>
@@ -6121,22 +6121,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -7149,14 +7149,14 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
       <c r="C7" s="45"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
     </row>
   </sheetData>
@@ -7177,23 +7177,23 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.109375" style="1"/>
-    <col min="14" max="15" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="1"/>
+    <col min="14" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -7531,10 +7531,10 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="45"/>
     </row>
@@ -7556,16 +7556,16 @@
       <selection activeCell="B3" sqref="B3:BA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="BC2" s="1"/>
     </row>
-    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="BB3" s="83"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="BB4" s="83"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="BB5" s="83"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>92</v>
       </c>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="BB6" s="83"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>109</v>
       </c>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="BB7" s="83"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -8612,7 +8612,7 @@
       <c r="BA8" s="35"/>
       <c r="BB8" s="83"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -8668,7 +8668,7 @@
       <c r="BA9" s="35"/>
       <c r="BB9" s="83"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -8724,7 +8724,7 @@
       <c r="BA10" s="35"/>
       <c r="BB10" s="83"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -8780,7 +8780,7 @@
       <c r="BA11" s="35"/>
       <c r="BB11" s="83"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8836,7 +8836,7 @@
       <c r="BA12" s="35"/>
       <c r="BB12" s="83"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -8892,7 +8892,7 @@
       <c r="BA13" s="35"/>
       <c r="BB13" s="83"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -8948,7 +8948,7 @@
       <c r="BA14" s="35"/>
       <c r="BB14" s="83"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -9004,7 +9004,7 @@
       <c r="BA15" s="35"/>
       <c r="BB15" s="83"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -9060,7 +9060,7 @@
       <c r="BA16" s="35"/>
       <c r="BB16" s="83"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -9116,7 +9116,7 @@
       <c r="BA17" s="35"/>
       <c r="BB17" s="83"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -9172,7 +9172,7 @@
       <c r="BA18" s="35"/>
       <c r="BB18" s="83"/>
     </row>
-    <row r="19" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -9228,14 +9228,14 @@
       <c r="BA19" s="37"/>
       <c r="BB19" s="83"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B23" s="45"/>
     </row>
   </sheetData>
@@ -9251,22 +9251,22 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -10263,27 +10263,27 @@
   </sheetPr>
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.33203125" style="1"/>
-    <col min="19" max="19" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.28515625" style="1"/>
+    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -10377,55 +10377,27 @@
       <c r="BG2" s="115"/>
       <c r="BH2" s="115"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="7">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="77">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="91">
-        <v>0</v>
-      </c>
-      <c r="P3" s="29">
-        <v>0</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -10471,55 +10443,27 @@
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="77">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="91">
-        <v>0</v>
-      </c>
-      <c r="P4" s="29">
-        <v>0</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -10565,55 +10509,27 @@
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="91">
-        <v>0</v>
-      </c>
-      <c r="P5" s="29">
-        <v>0</v>
-      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -10659,55 +10575,25 @@
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="78">
-        <v>0</v>
-      </c>
-      <c r="C6" s="78">
-        <v>0</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0</v>
-      </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="78">
-        <v>0</v>
-      </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78">
-        <v>0</v>
-      </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
-      <c r="J6" s="79">
-        <v>0</v>
-      </c>
-      <c r="K6" s="78">
-        <v>0</v>
-      </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="92">
-        <v>0</v>
-      </c>
-      <c r="P6" s="81">
-        <v>0</v>
-      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="81"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -10753,55 +10639,27 @@
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="78">
-        <v>0</v>
-      </c>
-      <c r="C7" s="78">
-        <v>0</v>
-      </c>
-      <c r="D7" s="78">
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="78">
-        <v>0</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="78">
-        <v>0</v>
-      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="78">
         <v>6</v>
       </c>
-      <c r="J7" s="79">
-        <v>0</v>
-      </c>
-      <c r="K7" s="78">
-        <v>0</v>
-      </c>
-      <c r="L7" s="79">
-        <v>0</v>
-      </c>
-      <c r="M7" s="78">
-        <v>0</v>
-      </c>
-      <c r="N7" s="79">
-        <v>0</v>
-      </c>
-      <c r="O7" s="92">
-        <v>0</v>
-      </c>
-      <c r="P7" s="81">
-        <v>0</v>
-      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="81"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -10847,55 +10705,29 @@
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="7">
         <v>8</v>
       </c>
-      <c r="L8" s="77">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="77">
-        <v>0</v>
-      </c>
-      <c r="O8" s="91">
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
-        <v>0</v>
-      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -10941,55 +10773,29 @@
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7">
         <v>8</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="91">
-        <v>0</v>
-      </c>
-      <c r="P9" s="29">
-        <v>0</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -11035,55 +10841,27 @@
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="91">
-        <v>0</v>
-      </c>
-      <c r="P10" s="29">
-        <v>0</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -11129,55 +10907,29 @@
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7">
         <v>8</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="77">
         <v>8</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="91">
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <v>0</v>
-      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -11223,55 +10975,27 @@
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7">
         <v>8</v>
       </c>
-      <c r="J12" s="77">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="77">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="91">
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <v>0</v>
-      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -11317,55 +11041,27 @@
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="77">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="91">
-        <v>0</v>
-      </c>
-      <c r="P13" s="29">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -11411,55 +11107,27 @@
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7">
         <v>8</v>
       </c>
-      <c r="J14" s="77">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="91">
-        <v>0</v>
-      </c>
-      <c r="P14" s="29">
-        <v>0</v>
-      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -11505,55 +11173,25 @@
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="77">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="91">
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -11599,55 +11237,25 @@
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="78">
-        <v>0</v>
-      </c>
-      <c r="C16" s="78">
-        <v>0</v>
-      </c>
-      <c r="D16" s="78">
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
-        <v>0</v>
-      </c>
-      <c r="F16" s="78">
-        <v>0</v>
-      </c>
-      <c r="G16" s="78">
-        <v>0</v>
-      </c>
-      <c r="H16" s="78">
-        <v>0</v>
-      </c>
-      <c r="I16" s="78">
-        <v>0</v>
-      </c>
-      <c r="J16" s="79">
-        <v>0</v>
-      </c>
-      <c r="K16" s="78">
-        <v>0</v>
-      </c>
-      <c r="L16" s="79">
-        <v>0</v>
-      </c>
-      <c r="M16" s="78">
-        <v>0</v>
-      </c>
-      <c r="N16" s="79">
-        <v>0</v>
-      </c>
-      <c r="O16" s="92">
-        <v>0</v>
-      </c>
-      <c r="P16" s="81">
-        <v>0</v>
-      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="81"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -11693,55 +11301,25 @@
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="78">
-        <v>0</v>
-      </c>
-      <c r="C17" s="78">
-        <v>0</v>
-      </c>
-      <c r="D17" s="78">
-        <v>0</v>
-      </c>
-      <c r="E17" s="78">
-        <v>0</v>
-      </c>
-      <c r="F17" s="78">
-        <v>0</v>
-      </c>
-      <c r="G17" s="78">
-        <v>0</v>
-      </c>
-      <c r="H17" s="78">
-        <v>0</v>
-      </c>
-      <c r="I17" s="78">
-        <v>0</v>
-      </c>
-      <c r="J17" s="79">
-        <v>0</v>
-      </c>
-      <c r="K17" s="78">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
-        <v>0</v>
-      </c>
-      <c r="O17" s="92">
-        <v>0</v>
-      </c>
-      <c r="P17" s="81">
-        <v>0</v>
-      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="81"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -11787,52 +11365,24 @@
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="77">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="91">
-        <v>0</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="29">
         <v>8</v>
       </c>
@@ -11881,52 +11431,24 @@
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="78">
-        <v>0</v>
-      </c>
-      <c r="C19" s="78">
-        <v>0</v>
-      </c>
-      <c r="D19" s="78">
-        <v>0</v>
-      </c>
-      <c r="E19" s="78">
-        <v>0</v>
-      </c>
-      <c r="F19" s="78">
-        <v>0</v>
-      </c>
-      <c r="G19" s="78">
-        <v>0</v>
-      </c>
-      <c r="H19" s="78">
-        <v>0</v>
-      </c>
-      <c r="I19" s="78">
-        <v>0</v>
-      </c>
-      <c r="J19" s="79">
-        <v>0</v>
-      </c>
-      <c r="K19" s="78">
-        <v>0</v>
-      </c>
-      <c r="L19" s="79">
-        <v>0</v>
-      </c>
-      <c r="M19" s="78">
-        <v>0</v>
-      </c>
-      <c r="N19" s="79">
-        <v>0</v>
-      </c>
-      <c r="O19" s="92">
-        <v>0</v>
-      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="81">
         <v>8</v>
       </c>
@@ -11975,55 +11497,25 @@
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="77">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="77">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="77">
-        <v>0</v>
-      </c>
-      <c r="O20" s="91">
-        <v>0</v>
-      </c>
-      <c r="P20" s="29">
-        <v>0</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -12069,55 +11561,27 @@
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
     </row>
-    <row r="21" spans="1:60" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="82">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="82">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="82">
-        <v>0</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="93">
         <v>8</v>
       </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
+      <c r="P21" s="9"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -12163,7 +11627,7 @@
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -12225,7 +11689,7 @@
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -12287,7 +11751,7 @@
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -12349,7 +11813,7 @@
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -12411,7 +11875,7 @@
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12473,7 +11937,7 @@
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12535,7 +11999,7 @@
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -12597,7 +12061,7 @@
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -12659,7 +12123,7 @@
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -12721,7 +12185,7 @@
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -12783,7 +12247,7 @@
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -12845,7 +12309,7 @@
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -12907,7 +12371,7 @@
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -12969,7 +12433,7 @@
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -13031,7 +12495,7 @@
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -13093,7 +12557,7 @@
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -13155,7 +12619,7 @@
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -13217,7 +12681,7 @@
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -13279,7 +12743,7 @@
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -13341,7 +12805,7 @@
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -13403,7 +12867,7 @@
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -13465,7 +12929,7 @@
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13527,7 +12991,7 @@
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -13589,7 +13053,7 @@
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -13651,7 +13115,7 @@
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -13713,7 +13177,7 @@
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -13775,7 +13239,7 @@
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -13837,7 +13301,7 @@
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -13899,7 +13363,7 @@
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -13961,7 +13425,7 @@
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -14023,7 +13487,7 @@
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -14085,7 +13549,7 @@
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -14147,7 +13611,7 @@
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -14209,7 +13673,7 @@
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -14271,7 +13735,7 @@
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -14333,7 +13797,7 @@
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -14395,7 +13859,7 @@
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -14457,7 +13921,7 @@
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -14519,7 +13983,7 @@
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -14581,7 +14045,7 @@
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -14658,19 +14122,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -14678,7 +14142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -14686,7 +14150,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -14709,19 +14173,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -14729,7 +14193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -14752,19 +14216,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -14784,7 +14248,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -14804,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -14841,13 +14305,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -14871,7 +14335,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -15032,7 +14496,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -15245,7 +14709,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -15458,7 +14922,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F15" s="10"/>
     </row>
   </sheetData>
@@ -15477,20 +14941,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -15498,7 +14962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -15520,40 +14984,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.109375" style="1"/>
-    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -15561,52 +15025,52 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -15627,19 +15091,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -15647,7 +15111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -15670,20 +15134,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -15691,61 +15155,61 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="83"/>
     </row>
@@ -15764,21 +15228,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -15939,7 +15403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -16100,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -16261,10 +15725,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>254</v>
       </c>
@@ -16285,19 +15749,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -16305,7 +15769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -16313,7 +15777,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -16339,20 +15803,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -16363,7 +15827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -16374,7 +15838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -16385,7 +15849,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -16396,7 +15860,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -16407,7 +15871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -16418,7 +15882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -16429,7 +15893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -16440,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -16451,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -16462,7 +15926,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -16488,19 +15952,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -16508,7 +15972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -16529,22 +15993,24 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -16594,955 +16060,447 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="7">
         <v>1E-4</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="77">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="91">
-        <v>0</v>
-      </c>
-      <c r="P3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7">
         <v>1E-4</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="77">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="91">
-        <v>0</v>
-      </c>
-      <c r="P4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7">
         <v>1E-4</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="91">
-        <v>0</v>
-      </c>
-      <c r="P5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="78">
-        <v>0</v>
-      </c>
-      <c r="C6" s="78">
-        <v>0</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0</v>
-      </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="78">
-        <v>0</v>
-      </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78">
-        <v>0</v>
-      </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="79">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="78">
-        <v>0</v>
-      </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="92">
-        <v>0</v>
-      </c>
-      <c r="P6" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="81"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="78">
-        <v>0</v>
-      </c>
-      <c r="C7" s="78">
-        <v>0</v>
-      </c>
-      <c r="D7" s="78">
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="78">
-        <v>0</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="78">
-        <v>0</v>
-      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="78">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="79">
-        <v>0</v>
-      </c>
-      <c r="K7" s="78">
-        <v>0</v>
-      </c>
-      <c r="L7" s="79">
-        <v>0</v>
-      </c>
-      <c r="M7" s="78">
-        <v>0</v>
-      </c>
-      <c r="N7" s="79">
-        <v>0</v>
-      </c>
-      <c r="O7" s="92">
-        <v>0</v>
-      </c>
-      <c r="P7" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J7" s="79"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="81"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="7">
         <v>1E-4</v>
       </c>
-      <c r="L8" s="77">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="77">
-        <v>0</v>
-      </c>
-      <c r="O8" s="91">
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L8" s="77"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="91">
-        <v>0</v>
-      </c>
-      <c r="P9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
         <v>1E-4</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="7">
         <v>1E-4</v>
       </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="91">
-        <v>0</v>
-      </c>
-      <c r="P10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="77"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7">
         <v>1E-4</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="77">
         <v>1E-4</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="91">
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="7"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7">
         <v>1E-4</v>
       </c>
-      <c r="J12" s="77">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="77">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="91">
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J12" s="77"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7">
         <v>1E-4</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="7">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="77">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="91">
-        <v>0</v>
-      </c>
-      <c r="P13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I13" s="7"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>1E-4</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="7">
         <v>1E-4</v>
       </c>
       <c r="J14" s="77">
         <v>1E-4</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="91">
-        <v>0</v>
-      </c>
-      <c r="P14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7">
         <v>1E-4</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1E-4</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="77">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="91">
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="7"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="78">
-        <v>0</v>
-      </c>
-      <c r="C16" s="78">
-        <v>0</v>
-      </c>
-      <c r="D16" s="78">
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
-        <v>0</v>
-      </c>
-      <c r="F16" s="78">
-        <v>0</v>
-      </c>
-      <c r="G16" s="78">
-        <v>0</v>
-      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="78">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="78">
-        <v>0</v>
-      </c>
-      <c r="J16" s="79">
-        <v>0</v>
-      </c>
-      <c r="K16" s="78">
-        <v>0</v>
-      </c>
-      <c r="L16" s="79">
-        <v>0</v>
-      </c>
-      <c r="M16" s="78">
-        <v>0</v>
-      </c>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O16" s="92">
-        <v>0</v>
-      </c>
-      <c r="P16" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="92"/>
+      <c r="P16" s="81"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="78">
-        <v>0</v>
-      </c>
-      <c r="C17" s="78">
-        <v>0</v>
-      </c>
-      <c r="D17" s="78">
-        <v>0</v>
-      </c>
-      <c r="E17" s="78">
-        <v>0</v>
-      </c>
-      <c r="F17" s="78">
-        <v>0</v>
-      </c>
-      <c r="G17" s="78">
-        <v>0</v>
-      </c>
-      <c r="H17" s="78">
-        <v>0</v>
-      </c>
-      <c r="I17" s="78">
-        <v>0</v>
-      </c>
-      <c r="J17" s="79">
-        <v>0</v>
-      </c>
-      <c r="K17" s="78">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
-        <v>0</v>
-      </c>
-      <c r="O17" s="92">
-        <v>0</v>
-      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="92"/>
       <c r="P17" s="81">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="77">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="91">
-        <v>0</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="29">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="78">
-        <v>0</v>
-      </c>
-      <c r="C19" s="78">
-        <v>0</v>
-      </c>
-      <c r="D19" s="78">
-        <v>0</v>
-      </c>
-      <c r="E19" s="78">
-        <v>0</v>
-      </c>
-      <c r="F19" s="78">
-        <v>0</v>
-      </c>
-      <c r="G19" s="78">
-        <v>0</v>
-      </c>
-      <c r="H19" s="78">
-        <v>0</v>
-      </c>
-      <c r="I19" s="78">
-        <v>0</v>
-      </c>
-      <c r="J19" s="79">
-        <v>0</v>
-      </c>
-      <c r="K19" s="78">
-        <v>0</v>
-      </c>
-      <c r="L19" s="79">
-        <v>0</v>
-      </c>
-      <c r="M19" s="78">
-        <v>0</v>
-      </c>
-      <c r="N19" s="79">
-        <v>0</v>
-      </c>
-      <c r="O19" s="92">
-        <v>0</v>
-      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="81">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="77">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="77">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="77">
-        <v>0</v>
-      </c>
-      <c r="O20" s="91">
-        <v>0</v>
-      </c>
-      <c r="P20" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="82">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="82">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="82">
-        <v>0</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="93">
         <v>1E-4</v>
       </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
+      <c r="P21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17560,19 +16518,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -17580,7 +16538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
@@ -17588,7 +16546,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
@@ -17611,18 +16569,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -17630,7 +16588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -17638,7 +16596,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -17646,7 +16604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -17654,7 +16612,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -17662,7 +16620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
         <v>109</v>
       </c>
@@ -17670,7 +16628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>114</v>
       </c>
@@ -17678,7 +16636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
@@ -17702,17 +16660,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>233</v>
       </c>
@@ -17723,7 +16681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -17734,7 +16692,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -17745,7 +16703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -17756,7 +16714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -17767,7 +16725,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -17793,36 +16751,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
   </sheetData>
@@ -17841,19 +16799,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>234</v>
       </c>
@@ -17870,7 +16828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
@@ -17887,7 +16845,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>112</v>
       </c>
@@ -17922,19 +16880,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -17942,7 +16900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>151</v>
       </c>
@@ -17950,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>152</v>
       </c>
@@ -17958,7 +16916,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>153</v>
       </c>
@@ -17966,7 +16924,7 @@
         <v>14286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
@@ -17989,19 +16947,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>173</v>
       </c>
@@ -18018,7 +16976,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -18052,19 +17010,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>239</v>
       </c>
@@ -18072,7 +17030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
@@ -18080,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
@@ -18088,7 +17046,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
@@ -18096,7 +17054,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -18121,20 +17079,20 @@
       <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -18154,7 +17112,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -18174,7 +17132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -18194,7 +17152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -18214,7 +17172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -18234,7 +17192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -18254,7 +17212,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -18274,7 +17232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -18294,7 +17252,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -18314,7 +17272,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -18334,7 +17292,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -18371,21 +17329,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -18402,7 +17360,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>121</v>
       </c>
@@ -18419,7 +17377,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>122</v>
       </c>
@@ -18436,7 +17394,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>258</v>
       </c>
@@ -18453,7 +17411,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>259</v>
       </c>
@@ -18470,7 +17428,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -18487,10 +17445,10 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="74"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="74"/>
     </row>
   </sheetData>
@@ -18510,19 +17468,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -18530,7 +17488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>244</v>
       </c>
@@ -18556,9 +17514,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -18567,7 +17525,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -18617,7 +17575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -18665,7 +17623,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -18713,7 +17671,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -18761,7 +17719,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -18809,7 +17767,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
         <v>109</v>
       </c>
@@ -18854,7 +17812,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
@@ -18898,7 +17856,7 @@
       <c r="O8" s="91"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -18942,7 +17900,7 @@
       <c r="O9" s="91"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
@@ -18986,7 +17944,7 @@
       <c r="O10" s="91"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -19030,7 +17988,7 @@
       <c r="O11" s="91"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -19074,7 +18032,7 @@
       <c r="O12" s="91"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -19118,7 +18076,7 @@
       <c r="O13" s="91"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
@@ -19162,7 +18120,7 @@
       <c r="O14" s="91"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
@@ -19204,7 +18162,7 @@
       <c r="O15" s="91"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
@@ -19250,7 +18208,7 @@
       <c r="O16" s="91"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="s">
         <v>117</v>
       </c>
@@ -19272,7 +18230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -19320,7 +18278,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>115</v>
       </c>
@@ -19368,7 +18326,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>119</v>
       </c>
@@ -19410,7 +18368,7 @@
       </c>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>120</v>
       </c>
@@ -19466,9 +18424,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -19477,7 +18435,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
@@ -19500,7 +18458,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
@@ -19523,7 +18481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>133</v>
       </c>
@@ -19563,19 +18521,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -19583,7 +18541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -19591,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -19599,7 +18557,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -19607,7 +18565,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -19615,7 +18573,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -19638,38 +18596,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.109375" style="1"/>
-    <col min="15" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
   </sheetData>
@@ -19690,19 +18648,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -19710,7 +18668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -19718,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -19726,7 +18684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
@@ -19734,7 +18692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>138</v>
       </c>
@@ -19742,7 +18700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
@@ -19765,18 +18723,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -19787,7 +18745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -19798,7 +18756,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -19809,7 +18767,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -19820,7 +18778,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -19831,7 +18789,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -19842,7 +18800,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -19853,7 +18811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -19864,7 +18822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -19875,7 +18833,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -19886,7 +18844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -19913,18 +18871,18 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -19935,7 +18893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -19946,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -19957,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -19968,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -19979,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -19990,7 +18948,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
@@ -20001,7 +18959,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -20012,7 +18970,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -20023,7 +18981,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -20034,7 +18992,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -20059,17 +19017,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -20077,7 +19035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>121</v>
       </c>
@@ -20085,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>122</v>
       </c>
@@ -20093,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
         <v>258</v>
       </c>
@@ -20101,7 +19059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
         <v>259</v>
       </c>
@@ -20109,7 +19067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
@@ -20131,17 +19089,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>170</v>
       </c>
@@ -20149,7 +19107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -20157,7 +19115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
@@ -20179,17 +19137,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -20197,7 +19155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -20221,18 +19179,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -20240,7 +19198,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>247</v>
       </c>
@@ -20248,7 +19206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>248</v>
       </c>
@@ -20256,7 +19214,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>274</v>
       </c>
@@ -20267,7 +19225,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>275</v>
       </c>
@@ -20294,17 +19252,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -20312,7 +19270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
@@ -20320,7 +19278,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>251</v>
       </c>
@@ -20344,25 +19302,25 @@
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -20370,7 +19328,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>89</v>
       </c>
@@ -20378,7 +19336,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -20386,7 +19344,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -20394,7 +19352,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -20402,7 +19360,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -20425,18 +19383,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>252</v>
       </c>
@@ -20444,7 +19402,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107" t="s">
         <v>117</v>
       </c>
@@ -20469,30 +19427,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -20516,19 +19474,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -20536,7 +19494,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -20558,36 +19516,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB89BF-A3CB-410A-BA93-13B522A0E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E6D7D-2B25-4409-B705-75A83D5C1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="289">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -2035,17 +2035,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>144425</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>39089</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>30363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1471AA2-E63B-4D6A-BE14-72AE3450CF58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A07C3C-97EC-3104-F046-95ABEEA2623E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11107700" cy="7087589"/>
+          <a:ext cx="12812913" cy="4286848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3714,7 +3714,9 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3829,7 +3831,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5906,7 +5908,7 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -5918,26 +5920,35 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="73" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6146,10 +6157,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6261,7 +6272,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="103" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="B13" s="104">
         <v>500</v>
@@ -6269,81 +6280,121 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="103" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="B14" s="104">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="103" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B15" s="104">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B16" s="104">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="103" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="B17" s="104">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="B18" s="104">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="B19" s="104">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="103" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B20" s="104">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="103" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B21" s="104">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="104">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="104">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="104">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="104">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="104">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="104">
+      <c r="B27" s="104">
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112" t="s">
+    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="113">
+      <c r="B28" s="113">
         <v>500</v>
       </c>
     </row>
@@ -9860,7 +9911,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23177,7 +23228,7 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E6D7D-2B25-4409-B705-75A83D5C1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFD480-8AA8-4DB8-A1A2-E46A9DD8875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="28" activeTab="47" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1948,6 +1948,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2376,7 +2386,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6160,7 +6170,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6215,18 +6225,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="122">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="124">
         <v>650</v>
       </c>
     </row>
@@ -6239,10 +6249,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="122">
         <v>600</v>
       </c>
     </row>
@@ -6255,10 +6265,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="122">
         <v>650</v>
       </c>
     </row>
@@ -6279,10 +6289,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="121" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="122">
         <v>500</v>
       </c>
     </row>
@@ -6295,10 +6305,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="104">
+      <c r="B16" s="122">
         <v>250</v>
       </c>
     </row>
@@ -6319,10 +6329,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="122">
         <v>500</v>
       </c>
     </row>
@@ -8211,7 +8221,7 @@
   </sheetPr>
   <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -8892,163 +8902,163 @@
       <c r="BB5" s="83"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="125">
         <v>20</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="125">
         <v>19.724654089867183</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="125">
         <v>19.565347714583421</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="125">
         <v>19.45309894824571</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="125">
         <v>19.366475714512596</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="125">
         <v>19.29598579090657</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="125">
         <v>19.236587614095988</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="125">
         <v>19.185282386505289</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="125">
         <v>19.14014155962774</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="125">
         <v>19.099851720428717</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="125">
         <v>19.063478193082773</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="125">
         <v>19.030332252431219</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="125">
         <v>18.999891837835946</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="125">
         <v>18.971751827873344</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="125">
         <v>18.945591568023726</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="125">
         <v>18.92115293451192</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="125">
         <v>18.898225082424748</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="125">
         <v>18.876633574737408</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="125">
         <v>18.856232464552253</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="125">
         <v>18.836898417660557</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="125">
         <v>18.818526275591836</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="125">
         <v>18.8010256554142</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6" s="125">
         <v>18.784318308654296</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="125">
         <v>18.768336044722442</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="125">
         <v>18.75301908004031</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="125">
         <v>18.738314712310245</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="125">
         <v>18.724176246023287</v>
       </c>
-      <c r="AC6" s="34">
+      <c r="AC6" s="125">
         <v>18.710562114180359</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6" s="125">
         <v>18.697435154762537</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="125">
         <v>18.684762010358615</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AF6" s="125">
         <v>18.672512626632653</v>
       </c>
-      <c r="AG6" s="34">
+      <c r="AG6" s="125">
         <v>18.660659830736151</v>
       </c>
-      <c r="AH6" s="34">
+      <c r="AH6" s="125">
         <v>18.649178974852152</v>
       </c>
-      <c r="AI6" s="34">
+      <c r="AI6" s="125">
         <v>18.638047633163993</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="125">
         <v>18.627245342924191</v>
       </c>
-      <c r="AK6" s="34">
+      <c r="AK6" s="125">
         <v>18.616753382143422</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AL6" s="125">
         <v>18.606554577858702</v>
       </c>
-      <c r="AM6" s="34">
+      <c r="AM6" s="125">
         <v>18.59663314007085</v>
       </c>
-      <c r="AN6" s="34">
+      <c r="AN6" s="125">
         <v>18.586974517336788</v>
       </c>
-      <c r="AO6" s="34">
+      <c r="AO6" s="125">
         <v>18.577565270716047</v>
       </c>
-      <c r="AP6" s="34">
+      <c r="AP6" s="125">
         <v>18.568392963342752</v>
       </c>
-      <c r="AQ6" s="34">
+      <c r="AQ6" s="125">
         <v>18.559446063356276</v>
       </c>
-      <c r="AR6" s="34">
+      <c r="AR6" s="125">
         <v>18.550713858298163</v>
       </c>
-      <c r="AS6" s="34">
+      <c r="AS6" s="125">
         <v>18.54218637938818</v>
       </c>
-      <c r="AT6" s="34">
+      <c r="AT6" s="125">
         <v>18.533854334343193</v>
       </c>
-      <c r="AU6" s="34">
+      <c r="AU6" s="125">
         <v>18.525709047608249</v>
       </c>
-      <c r="AV6" s="34">
+      <c r="AV6" s="125">
         <v>18.517742407040306</v>
       </c>
-      <c r="AW6" s="34">
+      <c r="AW6" s="125">
         <v>18.509946816226808</v>
       </c>
-      <c r="AX6" s="34">
+      <c r="AX6" s="125">
         <v>18.502315151739563</v>
       </c>
-      <c r="AY6" s="34">
+      <c r="AY6" s="125">
         <v>18.494840724723719</v>
       </c>
-      <c r="AZ6" s="34">
+      <c r="AZ6" s="125">
         <v>18.48751724630511</v>
       </c>
-      <c r="BA6" s="35">
+      <c r="BA6" s="126">
         <v>18.480338796369434</v>
       </c>
       <c r="BB6" s="83"/>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFD480-8AA8-4DB8-A1A2-E46A9DD8875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF630C0-E3B6-406C-9426-9126D538B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="28" activeTab="47" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2386,7 +2386,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8221,7 +8221,7 @@
   </sheetPr>
   <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF630C0-E3B6-406C-9426-9126D538B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD6207-4DB2-4424-B964-074B89FBD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -637,9 +637,6 @@
     <t>FreshwaterSources</t>
   </si>
   <si>
-    <t>Treatment Sites to Completions Sites Piping Arcs [-]</t>
-  </si>
-  <si>
     <t>TreatmentSites</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>StorageSites</t>
   </si>
   <si>
-    <t>Treatment Sites to Network Nodes Piping Arcs [-]</t>
-  </si>
-  <si>
     <t>Production Pads to Completions Pads Trucking Arcs [-]</t>
   </si>
   <si>
@@ -995,6 +989,12 @@
   </si>
   <si>
     <t>ReuseOptions</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Completions Sites Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Network Nodes Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1960,6 +1960,9 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3008,7 +3011,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3044,17 +3047,17 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3074,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3094,12 +3097,12 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3127,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3268,7 +3271,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3331,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3395,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3459,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3520,7 +3523,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3841,7 +3844,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4082,7 +4085,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4176,7 +4179,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4288,7 +4291,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4400,7 +4403,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4422,10 +4425,10 @@
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,36 +4517,35 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4551,7 +4553,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -4567,7 +4569,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -4575,7 +4577,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -4583,7 +4585,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -4591,7 +4593,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -4599,7 +4601,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -4629,7 +4631,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4645,7 +4647,7 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -4691,7 +4693,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -4705,7 +4707,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4731,46 +4733,45 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="127"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -4778,14 +4779,14 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="127"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+        <v>275</v>
+      </c>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="9">
         <v>1</v>
       </c>
@@ -4803,7 +4804,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4856,7 +4857,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5062,7 +5063,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BA8" s="30" t="s">
         <v>76</v>
@@ -5070,22 +5071,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>263</v>
-      </c>
       <c r="E9" s="59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="52"/>
@@ -5110,7 +5111,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -5118,13 +5119,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="52"/>
@@ -5152,7 +5153,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -5242,7 +5243,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5253,12 +5254,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>109</v>
@@ -5291,35 +5292,35 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5338,8 +5339,8 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5357,19 +5358,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>109</v>
@@ -5396,7 +5398,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5407,12 +5409,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -5484,35 +5486,35 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5547,7 +5549,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5558,7 +5560,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5608,7 +5610,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5619,7 +5621,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5660,7 +5662,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5673,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5754,7 +5756,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5804,7 +5806,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5835,7 +5837,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5932,7 +5934,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5943,10 +5945,10 @@
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5972,35 +5974,35 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -6035,35 +6037,35 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -6098,36 +6100,35 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
@@ -6135,9 +6136,9 @@
       <c r="C3" s="30"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -6149,7 +6150,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6170,7 +6171,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6188,12 +6189,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>46</v>
@@ -6282,7 +6283,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B13" s="104">
         <v>500</v>
@@ -6290,7 +6291,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14" s="122">
         <v>500</v>
@@ -6314,7 +6315,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="103" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B17" s="104">
         <v>500</v>
@@ -6322,7 +6323,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B18" s="104">
         <v>500</v>
@@ -6330,7 +6331,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B19" s="122">
         <v>500</v>
@@ -6447,160 +6448,160 @@
         <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6787,7 +6788,7 @@
   <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6810,160 +6811,160 @@
         <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7867,160 +7868,160 @@
         <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8222,7 +8223,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8236,16 +8237,16 @@
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -8253,163 +8254,163 @@
     </row>
     <row r="2" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="BC2" s="1"/>
     </row>
@@ -9921,7 +9922,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9937,7 +9938,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -9982,19 +9983,19 @@
         <v>117</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>278</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>280</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>109</v>
@@ -10811,7 +10812,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10836,7 +10837,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
@@ -11200,9 +11201,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11215,12 +11217,12 @@
   <sheetData>
     <row r="1" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -11265,10 +11267,10 @@
         <v>117</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>109</v>
@@ -12338,7 +12340,7 @@
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -12404,7 +12406,7 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
@@ -15313,7 +15315,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15330,7 +15332,7 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -15366,7 +15368,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15383,7 +15385,7 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -15399,7 +15401,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -15407,7 +15409,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -15427,7 +15429,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15444,7 +15446,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>121</v>
@@ -15453,13 +15455,13 @@
         <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15516,12 +15518,13 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15529,176 +15532,171 @@
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse minimum required flow [bbl/day]</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -15857,9 +15855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -16020,7 +16018,7 @@
     </row>
     <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -16192,12 +16190,13 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16205,176 +16204,171 @@
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Capacity [bbl/day]</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -16533,9 +16527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="34">
         <v>12580</v>
@@ -16696,7 +16690,7 @@
     </row>
     <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="36">
         <v>51112</v>
@@ -16868,7 +16862,7 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16895,7 +16889,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -16906,160 +16900,160 @@
         <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -17597,7 +17591,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17615,7 +17609,7 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -17693,7 +17687,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17743,7 +17737,7 @@
   <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17762,163 +17756,163 @@
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA2" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -18248,7 +18242,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -18266,7 +18260,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18283,7 +18277,7 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18320,7 +18314,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18338,10 +18332,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>46</v>
@@ -18396,7 +18390,7 @@
         <v>119</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -18407,7 +18401,7 @@
         <v>120</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -18418,7 +18412,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -18429,7 +18423,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
@@ -18440,7 +18434,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="29">
         <v>0.7</v>
@@ -18451,7 +18445,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="9">
         <v>0.7</v>
@@ -18516,7 +18510,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18534,7 +18528,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -18579,19 +18573,19 @@
         <v>117</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>278</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>280</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>109</v>
@@ -19574,7 +19568,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -19639,7 +19633,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="78">
         <v>0</v>
@@ -19977,7 +19971,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20030,7 +20024,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20046,7 +20040,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -20123,7 +20117,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20133,12 +20127,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>111</v>
@@ -20216,7 +20210,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20233,7 +20227,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>151</v>
@@ -20297,7 +20291,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20314,7 +20308,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -20418,7 +20412,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20435,7 +20429,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>141</v>
@@ -20469,7 +20463,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="34">
         <v>18</v>
@@ -20486,7 +20480,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="36">
         <v>21</v>
@@ -20515,7 +20509,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20532,7 +20526,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -20584,7 +20578,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20602,10 +20596,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>146</v>
@@ -20705,7 +20699,7 @@
         <v>119</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="34">
         <v>1000</v>
@@ -20725,7 +20719,7 @@
         <v>120</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="34">
         <v>1000</v>
@@ -20745,7 +20739,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="34">
         <v>500</v>
@@ -20765,7 +20759,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="34">
         <v>500</v>
@@ -20785,7 +20779,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="34">
         <v>800</v>
@@ -20805,7 +20799,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="36">
         <v>800</v>
@@ -20834,7 +20828,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20853,7 +20847,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>146</v>
@@ -20904,7 +20898,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
@@ -20921,7 +20915,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" s="34">
         <v>0</v>
@@ -20938,7 +20932,7 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B7" s="36">
         <v>0</v>
@@ -20976,10 +20970,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20988,17 +20983,17 @@
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="37">
         <v>300000</v>
@@ -21018,24 +21013,24 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C5" sqref="C5:E6"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -21080,25 +21075,25 @@
         <v>117</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>278</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>280</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -21106,41 +21101,41 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N3" s="77"/>
       <c r="O3" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
@@ -21148,52 +21143,52 @@
       <c r="S3" s="7"/>
       <c r="T3" s="77"/>
       <c r="U3" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N4" s="77"/>
       <c r="O4" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
@@ -21201,52 +21196,52 @@
       <c r="S4" s="7"/>
       <c r="T4" s="77"/>
       <c r="U4" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7">
         <v>1.2563</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N5" s="77"/>
       <c r="O5" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
@@ -21254,52 +21249,52 @@
       <c r="S5" s="7"/>
       <c r="T5" s="77"/>
       <c r="U5" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J6" s="79">
         <v>2.5074000000000001</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L6" s="79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N6" s="79"/>
       <c r="O6" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
@@ -21307,49 +21302,49 @@
       <c r="S6" s="78"/>
       <c r="T6" s="79"/>
       <c r="U6" s="81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I7" s="92">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K7" s="93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L7" s="96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M7" s="92"/>
       <c r="N7" s="95"/>
       <c r="O7" s="119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P7" s="92"/>
       <c r="Q7" s="95"/>
@@ -21357,48 +21352,48 @@
       <c r="S7" s="92"/>
       <c r="T7" s="95"/>
       <c r="U7" s="94" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="120">
         <v>4.0752409775985399</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K8" s="120">
         <v>4.1717000000000004</v>
       </c>
       <c r="L8" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N8" s="77"/>
       <c r="O8" s="107"/>
@@ -21409,7 +21404,7 @@
       <c r="T8" s="77"/>
       <c r="U8" s="29"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>126</v>
       </c>
@@ -21417,37 +21412,37 @@
         <v>4.0752409775985399</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D9" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7">
         <v>1.8142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N9" s="77"/>
       <c r="O9" s="107"/>
@@ -21458,42 +21453,42 @@
       <c r="T9" s="77"/>
       <c r="U9" s="29"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>1.4</v>
@@ -21507,45 +21502,45 @@
       <c r="T10" s="77"/>
       <c r="U10" s="29"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L11" s="77">
         <v>1.3163</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N11" s="77"/>
       <c r="O11" s="107"/>
@@ -21556,45 +21551,45 @@
       <c r="T11" s="77"/>
       <c r="U11" s="29"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="120">
         <v>1.8142</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
         <v>1.4431</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L12" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N12" s="77"/>
       <c r="O12" s="107"/>
@@ -21605,45 +21600,45 @@
       <c r="T12" s="77"/>
       <c r="U12" s="29"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>1.153</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L13" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="107"/>
@@ -21654,30 +21649,30 @@
       <c r="T13" s="77"/>
       <c r="U13" s="29"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7">
         <v>1.153</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
         <v>6.0780000000000003</v>
@@ -21686,13 +21681,13 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N14" s="77"/>
       <c r="O14" s="107"/>
@@ -21703,42 +21698,42 @@
       <c r="T14" s="77"/>
       <c r="U14" s="29"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F15" s="7">
         <v>1.4431</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>6.0780000000000003</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="77"/>
@@ -21750,45 +21745,45 @@
       <c r="T15" s="77"/>
       <c r="U15" s="29"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>2.4449000000000001</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L16" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N16" s="77">
         <v>2.5</v>
@@ -21801,7 +21796,7 @@
       <c r="T16" s="77"/>
       <c r="U16" s="29"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>117</v>
       </c>
@@ -21828,9 +21823,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -21857,9 +21852,9 @@
       <c r="T18" s="77"/>
       <c r="U18" s="29"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
@@ -21884,49 +21879,49 @@
       </c>
       <c r="U19" s="81"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L20" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N20" s="77"/>
       <c r="O20" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="77"/>
@@ -21937,49 +21932,49 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L21" s="79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N21" s="79"/>
       <c r="O21" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P21" s="78"/>
       <c r="Q21" s="79"/>
@@ -21990,45 +21985,45 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L22" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N22" s="77"/>
       <c r="O22" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7">
         <v>2</v>
@@ -22052,36 +22047,36 @@
         <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N23" s="82"/>
       <c r="O23" s="108">
@@ -22107,26 +22102,26 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>135</v>
@@ -22144,7 +22139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>132</v>
       </c>
@@ -22204,7 +22199,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22221,7 +22216,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -22281,7 +22276,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22298,7 +22293,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -22358,32 +22353,33 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -22394,7 +22390,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -22405,7 +22401,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -22416,7 +22412,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -22427,56 +22423,56 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="29">
         <v>0.5</v>
@@ -22487,7 +22483,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="9">
         <v>0.5</v>
@@ -22555,32 +22551,33 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -22591,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
@@ -22602,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -22613,7 +22610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -22624,56 +22621,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="29">
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="29">
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="29">
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="29">
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="29">
         <v>0.99</v>
@@ -22684,7 +22681,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="89">
         <v>0.99</v>
@@ -22703,28 +22700,29 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>121</v>
       </c>
@@ -22732,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>122</v>
       </c>
@@ -22740,17 +22738,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" s="35">
         <v>1</v>
@@ -22758,7 +22756,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B7" s="37">
         <v>1</v>
@@ -22777,28 +22775,29 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -22827,12 +22826,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22841,25 +22841,25 @@
         <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="29">
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="29">
         <v>0.25</v>
@@ -22867,7 +22867,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="9">
         <v>2.8</v>
@@ -22889,17 +22889,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -22931,61 +22932,62 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="35">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" s="41">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="35">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>262</v>
+      <c r="C5" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="37">
         <v>150</v>
       </c>
-      <c r="C6" t="s">
-        <v>262</v>
+      <c r="C6" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -23001,30 +23003,31 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="41">
         <v>0.08</v>
@@ -23032,7 +23035,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="37">
         <v>20</v>
@@ -23051,19 +23054,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23072,15 +23076,15 @@
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>89</v>
       </c>
@@ -23088,7 +23092,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -23096,7 +23100,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -23104,7 +23108,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
@@ -23134,12 +23138,14 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23148,15 +23154,15 @@
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>117</v>
       </c>
@@ -23164,9 +23170,9 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="49">
         <v>150000</v>
@@ -23174,7 +23180,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="50">
         <v>150000</v>
@@ -23198,10 +23204,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23210,12 +23217,12 @@
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23239,7 +23246,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23267,7 +23274,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -23275,7 +23282,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD6207-4DB2-4424-B964-074B89FBD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B002C-3CAB-4363-AE0B-20D5CE9BEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -9922,7 +9922,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11204,7 +11204,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15518,7 +15518,7 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16190,7 +16190,7 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16201,8 +16201,8 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/day]</v>
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/day] (leave cells blank to indicate infinite capacity)</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B002C-3CAB-4363-AE0B-20D5CE9BEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E55035-87AD-4817-805C-93CB3C553B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="83" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,7 +102,15 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId89"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId90"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId91"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId92"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId93"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId94"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId95"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!#REF!</definedName>
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="293">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -995,6 +1003,18 @@
   </si>
   <si>
     <t>Treatment Sites to Network Nodes Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N11</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1676,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1963,6 +1983,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2085,6 +2126,271 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2389,7 +2695,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3011,7 +3317,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23245,7 +23551,7 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -23289,4 +23595,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28A4AC-774D-4F01-8B4F-3E23D6A50C57}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Treatment Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>68</v>
+      </c>
+      <c r="E3" s="34">
+        <v>70</v>
+      </c>
+      <c r="F3" s="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="131">
+        <v>0</v>
+      </c>
+      <c r="D4" s="125">
+        <v>68</v>
+      </c>
+      <c r="E4" s="125">
+        <v>70</v>
+      </c>
+      <c r="F4" s="126">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>68</v>
+      </c>
+      <c r="E5" s="34">
+        <v>70</v>
+      </c>
+      <c r="F5" s="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="131">
+        <v>0</v>
+      </c>
+      <c r="D6" s="125">
+        <v>68</v>
+      </c>
+      <c r="E6" s="125">
+        <v>70</v>
+      </c>
+      <c r="F6" s="126">
+        <v>72</v>
+      </c>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <v>68</v>
+      </c>
+      <c r="E7" s="34">
+        <v>70</v>
+      </c>
+      <c r="F7" s="35">
+        <v>72</v>
+      </c>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="131">
+        <v>0</v>
+      </c>
+      <c r="D8" s="125">
+        <v>68</v>
+      </c>
+      <c r="E8" s="125">
+        <v>70</v>
+      </c>
+      <c r="F8" s="126">
+        <v>72</v>
+      </c>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>68</v>
+      </c>
+      <c r="E9" s="34">
+        <v>70</v>
+      </c>
+      <c r="F9" s="35">
+        <v>72</v>
+      </c>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="131">
+        <v>0</v>
+      </c>
+      <c r="D10" s="125">
+        <v>68</v>
+      </c>
+      <c r="E10" s="125">
+        <v>70</v>
+      </c>
+      <c r="F10" s="126">
+        <v>72</v>
+      </c>
+      <c r="J10" s="136"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>68</v>
+      </c>
+      <c r="E11" s="34">
+        <v>70</v>
+      </c>
+      <c r="F11" s="35">
+        <v>72</v>
+      </c>
+      <c r="J11" s="136"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>68</v>
+      </c>
+      <c r="E12" s="36">
+        <v>70</v>
+      </c>
+      <c r="F12" s="37">
+        <v>72</v>
+      </c>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3376C-B8BF-456A-9F8F-97FD96566A3A}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Disposal Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="138">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EC6F2-1522-42F6-A09A-9709AB96F608}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="138">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138">
+        <v>88</v>
+      </c>
+      <c r="D3" s="138">
+        <v>89</v>
+      </c>
+      <c r="E3" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="138">
+        <v>0</v>
+      </c>
+      <c r="C4" s="138">
+        <v>88</v>
+      </c>
+      <c r="D4" s="138">
+        <v>89</v>
+      </c>
+      <c r="E4" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>88</v>
+      </c>
+      <c r="D5" s="36">
+        <v>89</v>
+      </c>
+      <c r="E5" s="37">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31AA-46D4-464A-9A51-F7F7B8767B7B}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="132">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C876A9-1E8F-4C0D-BF38-C23F08A2F8DA}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="134">
+        <v>0</v>
+      </c>
+      <c r="D3" s="134">
+        <v>1</v>
+      </c>
+      <c r="E3" s="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="134">
+        <v>0</v>
+      </c>
+      <c r="D4" s="134">
+        <v>1</v>
+      </c>
+      <c r="E4" s="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="134">
+        <v>0</v>
+      </c>
+      <c r="D5" s="134">
+        <v>1</v>
+      </c>
+      <c r="E5" s="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="128">
+        <v>0</v>
+      </c>
+      <c r="D6" s="128">
+        <v>1</v>
+      </c>
+      <c r="E6" s="129">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E55035-87AD-4817-805C-93CB3C553B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE300623-3460-4B62-B733-45D44687918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="83" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="953" firstSheet="87" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="290">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1006,15 +1006,6 @@
   </si>
   <si>
     <t>pipeline_expansion_lead_time</t>
-  </si>
-  <si>
-    <t>N10</t>
-  </si>
-  <si>
-    <t>N12</t>
-  </si>
-  <si>
-    <t>N11</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1667,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1999,11 +1990,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2222,8 +2208,8 @@
       <sheetName val="PipelineExpansionLeadTime_Capac"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -2306,88 +2292,88 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3433,7 +3419,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4034,7 +4020,7 @@
   <dimension ref="C3:M36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20516,7 +20502,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23602,7 +23588,7 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
@@ -23610,7 +23596,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Treatment Expansion Lead Time [weeks]</v>
@@ -23621,7 +23607,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>169</v>
       </c>
@@ -23641,7 +23627,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -23661,7 +23647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>120</v>
       </c>
@@ -23681,7 +23667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>119</v>
       </c>
@@ -23701,7 +23687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>120</v>
       </c>
@@ -23720,12 +23706,8 @@
       <c r="F6" s="126">
         <v>72</v>
       </c>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>119</v>
       </c>
@@ -23744,12 +23726,9 @@
       <c r="F7" s="35">
         <v>72</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>120</v>
       </c>
@@ -23768,12 +23747,9 @@
       <c r="F8" s="126">
         <v>72</v>
       </c>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -23792,12 +23768,9 @@
       <c r="F9" s="35">
         <v>72</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>120</v>
       </c>
@@ -23816,12 +23789,9 @@
       <c r="F10" s="126">
         <v>72</v>
       </c>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>119</v>
       </c>
@@ -23840,12 +23810,9 @@
       <c r="F11" s="35">
         <v>72</v>
       </c>
-      <c r="J11" s="136"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>120</v>
       </c>
@@ -23864,28 +23831,6 @@
       <c r="F12" s="37">
         <v>72</v>
       </c>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23928,7 +23873,7 @@
       <c r="A3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="138">
+      <c r="B3" s="34">
         <v>0</v>
       </c>
       <c r="C3" s="35">
@@ -23958,7 +23903,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -23993,13 +23938,13 @@
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="138">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138">
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
         <v>88</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="34">
         <v>89</v>
       </c>
       <c r="E3" s="35">
@@ -24010,13 +23955,13 @@
       <c r="A4" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="138">
-        <v>0</v>
-      </c>
-      <c r="C4" s="138">
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
         <v>88</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="34">
         <v>89</v>
       </c>
       <c r="E4" s="35">
@@ -24095,8 +24040,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24129,10 +24074,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="C3" s="134">
         <v>0</v>
@@ -24146,10 +24091,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="C4" s="134">
         <v>0</v>
@@ -24163,10 +24108,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="C5" s="134">
         <v>0</v>
@@ -24180,10 +24125,10 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="128">
         <v>0</v>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B002C-3CAB-4363-AE0B-20D5CE9BEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2027B2-087A-4D1C-8929-A3E7239494D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="67" activeTab="74" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2389,7 +2389,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21011,10 +21011,10 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21844,10 +21844,10 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="77"/>
       <c r="R18" s="7">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="S18" s="7">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="T18" s="77"/>
       <c r="U18" s="29"/>
@@ -22032,10 +22032,10 @@
         <v>2</v>
       </c>
       <c r="R22" s="7">
-        <v>50</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S22" s="7">
-        <v>50</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T22" s="77">
         <v>2</v>
@@ -23245,7 +23245,7 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA483D72-86A7-454E-B4D7-6EF56AB3271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C11F0-E328-433D-B5CB-AB6D5589299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="87" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="74" activeTab="74" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId93"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId94"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId95"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!#REF!</definedName>
@@ -2114,277 +2111,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="NOA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="SOA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="ROA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="RST"/>
-      <sheetName val="ROT"/>
-      <sheetName val="SOT"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="ReuseMinimum"/>
-      <sheetName val="ReuseCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="BeneficialReuseCredit"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
-      <sheetData sheetId="85" refreshError="1"/>
-      <sheetData sheetId="86" refreshError="1"/>
-      <sheetData sheetId="87" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21309,10 +21035,10 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -21322,7 +21048,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
     </row>
@@ -23594,9 +23320,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -23848,9 +23572,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -24001,9 +23723,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24044,9 +23764,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/pareto/case_studies/strategic_toy_case_study.xlsx
+++ b/pareto/case_studies/strategic_toy_case_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C11F0-E328-433D-B5CB-AB6D5589299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763FAE1-2163-4C2A-89E5-857D91966043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="953" firstSheet="74" activeTab="74" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -47,70 +47,72 @@
     <sheet name="SCA" sheetId="108" r:id="rId32"/>
     <sheet name="RNA" sheetId="62" r:id="rId33"/>
     <sheet name="ROA" sheetId="121" r:id="rId34"/>
-    <sheet name="PCT" sheetId="42" r:id="rId35"/>
-    <sheet name="FCT" sheetId="70" r:id="rId36"/>
-    <sheet name="PKT" sheetId="43" r:id="rId37"/>
-    <sheet name="CKT" sheetId="44" r:id="rId38"/>
-    <sheet name="CCT" sheetId="74" r:id="rId39"/>
-    <sheet name="CST" sheetId="64" r:id="rId40"/>
-    <sheet name="RST" sheetId="122" r:id="rId41"/>
-    <sheet name="ROT" sheetId="123" r:id="rId42"/>
-    <sheet name="SOT" sheetId="124" r:id="rId43"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId44"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId45"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId46"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId47"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId48"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId49"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId50"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId51"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId52"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId53"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId54"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId55"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId56"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId57"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId58"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId59"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId60"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId61"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId62"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId63"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId64"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId65"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId66"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId67"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId68"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId69"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId70"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId71"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId72"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId73"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId74"/>
-    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId75"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId76"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId77"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId78"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId79"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId80"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId81"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId82"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId83"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId84"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId85"/>
-    <sheet name="Economics" sheetId="95" r:id="rId86"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId87"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId88"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId89"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId90"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId91"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId92"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId93"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId94"/>
+    <sheet name="RKA" sheetId="134" r:id="rId35"/>
+    <sheet name="PCT" sheetId="42" r:id="rId36"/>
+    <sheet name="FCT" sheetId="70" r:id="rId37"/>
+    <sheet name="PKT" sheetId="43" r:id="rId38"/>
+    <sheet name="CKT" sheetId="44" r:id="rId39"/>
+    <sheet name="CCT" sheetId="74" r:id="rId40"/>
+    <sheet name="CST" sheetId="64" r:id="rId41"/>
+    <sheet name="RST" sheetId="122" r:id="rId42"/>
+    <sheet name="ROT" sheetId="123" r:id="rId43"/>
+    <sheet name="SOT" sheetId="124" r:id="rId44"/>
+    <sheet name="RKT" sheetId="135" r:id="rId45"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId52"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId56"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId57"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
+    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId77"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId85"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId86"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId87"/>
+    <sheet name="Economics" sheetId="95" r:id="rId88"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId89"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId90"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId91"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId92"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId93"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId94"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId96"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="292">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1003,6 +1005,12 @@
   </si>
   <si>
     <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -2413,17 +2421,17 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2435,7 +2443,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -2449,7 +2457,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2461,7 +2469,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2475,7 +2483,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
         <v>2</v>
@@ -2489,7 +2497,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
         <v>3</v>
@@ -2503,7 +2511,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
@@ -2517,7 +2525,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
         <v>5</v>
@@ -2531,7 +2539,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -2545,7 +2553,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2557,7 +2565,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -2571,7 +2579,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -2585,7 +2593,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -2597,7 +2605,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="17" t="s">
         <v>9</v>
@@ -2611,7 +2619,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="17" t="s">
         <v>10</v>
@@ -2625,7 +2633,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="17" t="s">
         <v>11</v>
@@ -2639,7 +2647,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>12</v>
@@ -2653,7 +2661,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2665,7 +2673,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2677,7 +2685,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
@@ -2693,7 +2701,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2705,7 +2713,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
         <v>15</v>
@@ -2721,7 +2729,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
         <v>17</v>
@@ -2737,7 +2745,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
@@ -2753,7 +2761,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2769,7 +2777,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
         <v>23</v>
@@ -2785,7 +2793,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
         <v>25</v>
@@ -2801,7 +2809,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="20" t="s">
         <v>27</v>
@@ -2817,7 +2825,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
         <v>29</v>
@@ -2833,7 +2841,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
         <v>31</v>
@@ -2852,7 +2860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
         <v>34</v>
@@ -2868,7 +2876,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
         <v>36</v>
@@ -2884,7 +2892,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2900,7 +2908,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
         <v>40</v>
@@ -2916,7 +2924,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
         <v>42</v>
@@ -2932,7 +2940,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2977,30 +2985,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -3008,16 +3016,16 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3038,30 +3046,30 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -3069,17 +3077,17 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>257</v>
       </c>
@@ -3101,30 +3109,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>277</v>
       </c>
@@ -3132,7 +3140,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>278</v>
       </c>
@@ -3154,30 +3162,30 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -3185,99 +3193,99 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -3298,45 +3306,45 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3358,30 +3366,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -3389,20 +3397,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3422,30 +3430,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
@@ -3453,20 +3461,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3486,30 +3494,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -3517,20 +3525,20 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -3550,18 +3558,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -3594,7 +3602,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
@@ -3610,7 +3618,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
@@ -3626,7 +3634,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3642,7 +3650,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
@@ -3676,18 +3684,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3720,7 +3728,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3755,61 +3763,61 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="38"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="40"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="40"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="40"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="40"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="40"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="40"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="40"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="40"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="40"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
     </row>
   </sheetData>
@@ -3829,18 +3837,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3871,18 +3879,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3915,7 +3923,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -3931,7 +3939,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
@@ -3951,7 +3959,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
@@ -3969,7 +3977,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
@@ -3987,7 +3995,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
@@ -4005,7 +4013,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
@@ -4024,7 +4032,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
@@ -4045,7 +4053,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
@@ -4064,7 +4072,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
@@ -4081,7 +4089,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4112,18 +4120,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4131,61 +4139,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
     </row>
@@ -4206,18 +4214,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -4228,7 +4236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>125</v>
       </c>
@@ -4237,21 +4245,21 @@
       </c>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac